--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="9"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="607">
   <si>
     <t>gdenr</t>
   </si>
@@ -1850,6 +1850,9 @@
   </si>
   <si>
     <t>VG-Umlagesatz</t>
+  </si>
+  <si>
+    <t>Vergn.St</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1896,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1981,11 +1984,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2021,6 +2044,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2541,7 +2570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3343,18 +3372,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="J1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3382,68 +3412,80 @@
       <c r="I1" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2" s="10">
         <v>2012</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
         <v>5399856.8399999999</v>
       </c>
-      <c r="K2" s="14">
+      <c r="L2" s="14">
         <v>5519390.9400000004</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>-119534.1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" s="10">
         <v>2013</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14">
         <v>5291224.3</v>
       </c>
-      <c r="K3" s="14">
+      <c r="L3" s="14">
         <v>5562909.7800000003</v>
       </c>
-      <c r="L3" s="14">
+      <c r="M3" s="14">
         <v>-271685.48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4" s="10">
         <v>2014</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>5524842.2800000003</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>5911672.3499999996</v>
       </c>
-      <c r="L4" s="14">
+      <c r="M4" s="14">
         <v>-386830.07</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
@@ -3471,17 +3513,20 @@
       <c r="I5" s="11">
         <v>172849.77</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>5377605.0700000003</v>
       </c>
-      <c r="K5" s="14">
+      <c r="L5" s="14">
         <v>5943087.4699999997</v>
       </c>
-      <c r="L5" s="14">
+      <c r="M5" s="14">
         <v>-565482.4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
@@ -3509,17 +3554,20 @@
       <c r="I6" s="11">
         <v>165025.23000000001</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>5432976.9199999999</v>
       </c>
-      <c r="K6" s="14">
+      <c r="L6" s="14">
         <v>6051432.46</v>
       </c>
-      <c r="L6" s="14">
+      <c r="M6" s="14">
         <v>-618455.54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
@@ -3547,17 +3595,20 @@
       <c r="I7" s="11">
         <v>212593.42</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
         <v>6589880.4699999997</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="14">
         <v>6322141.4100000001</v>
       </c>
-      <c r="L7" s="14">
+      <c r="M7" s="14">
         <v>267739.06</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -3585,17 +3636,20 @@
       <c r="I8" s="11">
         <v>179163.46</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>6313718.4400000004</v>
       </c>
-      <c r="K8" s="14">
+      <c r="L8" s="14">
         <v>6549131.5700000003</v>
       </c>
-      <c r="L8" s="14">
+      <c r="M8" s="14">
         <v>-235413.13</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>60</v>
       </c>
@@ -3623,17 +3677,20 @@
       <c r="I9" s="11">
         <v>204436.67</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
         <v>7581117.1100000003</v>
       </c>
-      <c r="K9" s="14">
+      <c r="L9" s="14">
         <v>6391960.5700000003</v>
       </c>
-      <c r="L9" s="14">
+      <c r="M9" s="14">
         <v>1189156.54</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>60</v>
       </c>
@@ -3661,30 +3718,17 @@
       <c r="I10" s="11">
         <v>151327.23000000001</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>5985171.1900000004</v>
       </c>
-      <c r="K10" s="14">
+      <c r="L10" s="14">
         <v>6181749.6200000001</v>
       </c>
-      <c r="L10" s="14">
+      <c r="M10" s="14">
         <v>-196578.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>60</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>60</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2022</v>
       </c>
     </row>
   </sheetData>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -20,8 +20,12 @@
     <sheet name="LFAGHHJ" sheetId="5" r:id="rId11"/>
     <sheet name="JAWerte" sheetId="7" r:id="rId12"/>
     <sheet name="Schulden" sheetId="13" r:id="rId13"/>
-    <sheet name="Steuer" sheetId="14" r:id="rId14"/>
+    <sheet name="steuer" sheetId="14" r:id="rId14"/>
     <sheet name="Lfag" sheetId="15" r:id="rId15"/>
+    <sheet name="ertrag" sheetId="16" r:id="rId16"/>
+    <sheet name="ffs" sheetId="17" r:id="rId17"/>
+    <sheet name="hebesatze" sheetId="18" r:id="rId18"/>
+    <sheet name="Tabelle4" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">e_u20!$A$1:$J$61</definedName>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="614">
   <si>
     <t>gdenr</t>
   </si>
@@ -1853,6 +1857,27 @@
   </si>
   <si>
     <t>Vergn.St</t>
+  </si>
+  <si>
+    <t>gde</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>saldo_ord</t>
+  </si>
+  <si>
+    <t>pm_tilgung</t>
+  </si>
+  <si>
+    <t>grsta</t>
+  </si>
+  <si>
+    <t>grstb</t>
+  </si>
+  <si>
+    <t>gewst</t>
   </si>
 </sst>
 </file>
@@ -1862,7 +1887,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,6 +1906,20 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1896,7 +1935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1945,36 +1984,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
@@ -2004,11 +2013,131 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2034,22 +2163,58 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3372,19 +3537,18 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3412,323 +3576,200 @@
       <c r="I1" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>60</v>
       </c>
       <c r="B2" s="10">
-        <v>2012</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>5399856.8399999999</v>
-      </c>
-      <c r="L2" s="14">
-        <v>5519390.9400000004</v>
-      </c>
-      <c r="M2" s="14">
-        <v>-119534.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2727.82</v>
+      </c>
+      <c r="D2" s="11">
+        <v>528925.46</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1409624.41</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1650709.8</v>
+      </c>
+      <c r="G2" s="11">
+        <v>157917.4</v>
+      </c>
+      <c r="H2" s="11">
+        <v>19367</v>
+      </c>
+      <c r="I2" s="11">
+        <v>172849.77</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>60</v>
       </c>
       <c r="B3" s="10">
-        <v>2013</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>5291224.3</v>
-      </c>
-      <c r="L3" s="14">
-        <v>5562909.7800000003</v>
-      </c>
-      <c r="M3" s="14">
-        <v>-271685.48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="11">
+        <v>2791.17</v>
+      </c>
+      <c r="D3" s="11">
+        <v>568221.66</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1484210.38</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1633467.88</v>
+      </c>
+      <c r="G3" s="11">
+        <v>160934.07999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <v>19207</v>
+      </c>
+      <c r="I3" s="11">
+        <v>165025.23000000001</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4" s="10">
-        <v>2014</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>5524842.2800000003</v>
-      </c>
-      <c r="L4" s="14">
-        <v>5911672.3499999996</v>
-      </c>
-      <c r="M4" s="14">
-        <v>-386830.07</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2198.31</v>
+      </c>
+      <c r="D4" s="11">
+        <v>568906.21</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1853855.12</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1781490.54</v>
+      </c>
+      <c r="G4" s="11">
+        <v>203117.82</v>
+      </c>
+      <c r="H4" s="11">
+        <v>18698</v>
+      </c>
+      <c r="I4" s="11">
+        <v>212593.42</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>60</v>
       </c>
       <c r="B5" s="10">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C5" s="11">
-        <v>2727.82</v>
+        <v>2709.26</v>
       </c>
       <c r="D5" s="11">
-        <v>528925.46</v>
+        <v>573022.31999999995</v>
       </c>
       <c r="E5" s="11">
-        <v>1409624.41</v>
+        <v>1574157.95</v>
       </c>
       <c r="F5" s="11">
-        <v>1650709.8</v>
+        <v>1964102.55</v>
       </c>
       <c r="G5" s="11">
-        <v>157917.4</v>
+        <v>245257.77</v>
       </c>
       <c r="H5" s="11">
-        <v>19367</v>
+        <v>19392.5</v>
       </c>
       <c r="I5" s="11">
-        <v>172849.77</v>
-      </c>
-      <c r="J5" s="18">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>5377605.0700000003</v>
-      </c>
-      <c r="L5" s="14">
-        <v>5943087.4699999997</v>
-      </c>
-      <c r="M5" s="14">
-        <v>-565482.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>179163.46</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6" s="10">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C6" s="11">
-        <v>2791.17</v>
+        <v>2737.86</v>
       </c>
       <c r="D6" s="11">
-        <v>568221.66</v>
+        <v>573646.29</v>
       </c>
       <c r="E6" s="11">
-        <v>1484210.38</v>
+        <v>2162024.44</v>
       </c>
       <c r="F6" s="11">
-        <v>1633467.88</v>
+        <v>2080181.16</v>
       </c>
       <c r="G6" s="11">
-        <v>160934.07999999999</v>
+        <v>281499.32</v>
       </c>
       <c r="H6" s="11">
-        <v>19207</v>
+        <v>20093</v>
       </c>
       <c r="I6" s="11">
-        <v>165025.23000000001</v>
-      </c>
-      <c r="J6" s="18">
-        <v>0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>5432976.9199999999</v>
-      </c>
-      <c r="L6" s="14">
-        <v>6051432.46</v>
-      </c>
-      <c r="M6" s="14">
-        <v>-618455.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>204436.67</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
       <c r="B7" s="10">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C7" s="11">
-        <v>2198.31</v>
+        <v>2656.77</v>
       </c>
       <c r="D7" s="11">
-        <v>568906.21</v>
+        <v>584296.36</v>
       </c>
       <c r="E7" s="11">
-        <v>1853855.12</v>
+        <v>1376499.39</v>
       </c>
       <c r="F7" s="11">
-        <v>1781490.54</v>
+        <v>1992235.61</v>
       </c>
       <c r="G7" s="11">
-        <v>203117.82</v>
+        <v>301241.94</v>
       </c>
       <c r="H7" s="11">
-        <v>18698</v>
+        <v>20674</v>
       </c>
       <c r="I7" s="11">
-        <v>212593.42</v>
-      </c>
-      <c r="J7" s="18">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>6589880.4699999997</v>
-      </c>
-      <c r="L7" s="14">
-        <v>6322141.4100000001</v>
-      </c>
-      <c r="M7" s="14">
-        <v>267739.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>60</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2709.26</v>
-      </c>
-      <c r="D8" s="11">
-        <v>573022.31999999995</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1574157.95</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1964102.55</v>
-      </c>
-      <c r="G8" s="11">
-        <v>245257.77</v>
-      </c>
-      <c r="H8" s="11">
-        <v>19392.5</v>
-      </c>
-      <c r="I8" s="11">
-        <v>179163.46</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>6313718.4400000004</v>
-      </c>
-      <c r="L8" s="14">
-        <v>6549131.5700000003</v>
-      </c>
-      <c r="M8" s="14">
-        <v>-235413.13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="11">
-        <v>2737.86</v>
-      </c>
-      <c r="D9" s="11">
-        <v>573646.29</v>
-      </c>
-      <c r="E9" s="11">
-        <v>2162024.44</v>
-      </c>
-      <c r="F9" s="11">
-        <v>2080181.16</v>
-      </c>
-      <c r="G9" s="11">
-        <v>281499.32</v>
-      </c>
-      <c r="H9" s="11">
-        <v>20093</v>
-      </c>
-      <c r="I9" s="11">
-        <v>204436.67</v>
-      </c>
-      <c r="J9" s="18">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>7581117.1100000003</v>
-      </c>
-      <c r="L9" s="14">
-        <v>6391960.5700000003</v>
-      </c>
-      <c r="M9" s="14">
-        <v>1189156.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>60</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="11">
-        <v>2656.77</v>
-      </c>
-      <c r="D10" s="11">
-        <v>584296.36</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1376499.39</v>
-      </c>
-      <c r="F10" s="11">
-        <v>1992235.61</v>
-      </c>
-      <c r="G10" s="11">
-        <v>301241.94</v>
-      </c>
-      <c r="H10" s="11">
-        <v>20674</v>
-      </c>
-      <c r="I10" s="11">
         <v>151327.23000000001</v>
       </c>
-      <c r="J10" s="18">
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>5985171.1900000004</v>
-      </c>
-      <c r="L10" s="14">
-        <v>6181749.6200000001</v>
-      </c>
-      <c r="M10" s="14">
-        <v>-196578.43</v>
+      <c r="J7" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3962,10 +4003,10 @@
       <c r="B11" s="10">
         <v>2021</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="13">
         <v>0.44</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="13">
         <v>0.26</v>
       </c>
     </row>
@@ -3976,10 +4017,10 @@
       <c r="B12" s="10">
         <v>2022</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <v>0.44</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="13">
         <v>0.26</v>
       </c>
     </row>
@@ -3987,17 +4028,1147 @@
       <c r="A13">
         <v>60</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>2022</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <v>0.4</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>0.26</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>602</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>60</v>
+      </c>
+      <c r="B2" s="21">
+        <v>2007</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11">
+        <v>199726.91</v>
+      </c>
+      <c r="F2" s="11">
+        <v>16828364.739999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>60</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2008</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="11">
+        <v>86346.51</v>
+      </c>
+      <c r="F3" s="11">
+        <v>17282095.109999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>60</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2009</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="22">
+        <v>-705113.32</v>
+      </c>
+      <c r="F4" s="11">
+        <v>16576981.789999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>60</v>
+      </c>
+      <c r="B5" s="21">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="11">
+        <v>78487.38</v>
+      </c>
+      <c r="F5" s="11">
+        <v>16655469.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>60</v>
+      </c>
+      <c r="B6" s="21">
+        <v>2011</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24">
+        <v>-361134.89</v>
+      </c>
+      <c r="F6" s="11">
+        <v>16294334.279999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>60</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2012</v>
+      </c>
+      <c r="C7" s="25">
+        <v>5399856.8399999999</v>
+      </c>
+      <c r="D7" s="25">
+        <v>5519390.9400000004</v>
+      </c>
+      <c r="E7" s="26">
+        <v>-119534.1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>16174800.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>60</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2013</v>
+      </c>
+      <c r="C8" s="25">
+        <v>5291224.3</v>
+      </c>
+      <c r="D8" s="25">
+        <v>5562909.7800000003</v>
+      </c>
+      <c r="E8" s="26">
+        <v>-271685.48</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15903114.699999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>60</v>
+      </c>
+      <c r="B9" s="21">
+        <v>2014</v>
+      </c>
+      <c r="C9" s="25">
+        <v>5524842.2800000003</v>
+      </c>
+      <c r="D9" s="25">
+        <v>5911672.3499999996</v>
+      </c>
+      <c r="E9" s="26">
+        <v>-386830.07</v>
+      </c>
+      <c r="F9" s="11">
+        <v>15516284.630000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>60</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2015</v>
+      </c>
+      <c r="C10" s="25">
+        <v>5377605.0700000003</v>
+      </c>
+      <c r="D10" s="25">
+        <v>5943087.4699999997</v>
+      </c>
+      <c r="E10" s="26">
+        <v>-565482.4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>14950802.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>60</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2016</v>
+      </c>
+      <c r="C11" s="25">
+        <v>5432976.9199999999</v>
+      </c>
+      <c r="D11" s="25">
+        <v>6051432.46</v>
+      </c>
+      <c r="E11" s="26">
+        <v>-618455.54</v>
+      </c>
+      <c r="F11" s="11">
+        <v>14332346.689999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>60</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2017</v>
+      </c>
+      <c r="C12" s="25">
+        <v>6589880.4699999997</v>
+      </c>
+      <c r="D12" s="25">
+        <v>6322141.4100000001</v>
+      </c>
+      <c r="E12" s="25">
+        <v>267739.06</v>
+      </c>
+      <c r="F12" s="11">
+        <v>14600085.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>60</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="25">
+        <v>6313718.4400000004</v>
+      </c>
+      <c r="D13" s="25">
+        <v>6549131.5700000003</v>
+      </c>
+      <c r="E13" s="26">
+        <v>-235413.13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>14364672.619999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2019</v>
+      </c>
+      <c r="C14" s="25">
+        <v>7581117.1100000003</v>
+      </c>
+      <c r="D14" s="25">
+        <v>6391960.5700000003</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1189156.54</v>
+      </c>
+      <c r="F14" s="11">
+        <v>15489077.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>60</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2020</v>
+      </c>
+      <c r="C15" s="25">
+        <v>5985171.1900000004</v>
+      </c>
+      <c r="D15" s="25">
+        <v>6181749.6200000001</v>
+      </c>
+      <c r="E15" s="26">
+        <v>-196578.43</v>
+      </c>
+      <c r="F15" s="11">
+        <v>15292498.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>60</v>
+      </c>
+      <c r="B16" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C16" s="25">
+        <v>5871390</v>
+      </c>
+      <c r="D16" s="25">
+        <v>6630300</v>
+      </c>
+      <c r="E16" s="26">
+        <v>-758910</v>
+      </c>
+      <c r="F16" s="11">
+        <v>14533588.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>60</v>
+      </c>
+      <c r="B17" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C17" s="25">
+        <v>6565860</v>
+      </c>
+      <c r="D17" s="25">
+        <v>7363495</v>
+      </c>
+      <c r="E17" s="26">
+        <v>-797635</v>
+      </c>
+      <c r="F17" s="11">
+        <v>13735953.82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B2" s="10">
+        <v>60</v>
+      </c>
+      <c r="C2" s="30">
+        <v>506976.21</v>
+      </c>
+      <c r="D2" s="30">
+        <v>91881.9</v>
+      </c>
+      <c r="E2" s="30">
+        <v>415094.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="10">
+        <v>60</v>
+      </c>
+      <c r="C3" s="30">
+        <v>436086.48</v>
+      </c>
+      <c r="D3" s="30">
+        <v>95447.2</v>
+      </c>
+      <c r="E3" s="30">
+        <v>340639.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="10">
+        <v>60</v>
+      </c>
+      <c r="C4" s="30">
+        <v>266948.27</v>
+      </c>
+      <c r="D4" s="30">
+        <v>104977.58</v>
+      </c>
+      <c r="E4" s="30">
+        <v>161970.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="10">
+        <v>60</v>
+      </c>
+      <c r="C5" s="30">
+        <v>-25804.37</v>
+      </c>
+      <c r="D5" s="30">
+        <v>108918.06</v>
+      </c>
+      <c r="E5" s="30">
+        <v>-134722.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B6" s="10">
+        <v>60</v>
+      </c>
+      <c r="C6" s="30">
+        <v>191145.78</v>
+      </c>
+      <c r="D6" s="30">
+        <v>115991.55</v>
+      </c>
+      <c r="E6" s="30">
+        <v>75154.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B7" s="10">
+        <v>60</v>
+      </c>
+      <c r="C7" s="30">
+        <v>352415.64</v>
+      </c>
+      <c r="D7" s="30">
+        <v>131948.60999999999</v>
+      </c>
+      <c r="E7" s="30">
+        <v>220467.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="10">
+        <v>60</v>
+      </c>
+      <c r="C8" s="30">
+        <v>286853.84000000003</v>
+      </c>
+      <c r="D8" s="30">
+        <v>131816.48000000001</v>
+      </c>
+      <c r="E8" s="30">
+        <v>155037.35999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="10">
+        <v>60</v>
+      </c>
+      <c r="C9" s="30">
+        <v>-286532.2</v>
+      </c>
+      <c r="D9" s="30">
+        <v>163109.39000000001</v>
+      </c>
+      <c r="E9" s="30">
+        <v>-449641.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="10">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30">
+        <v>-63720.19</v>
+      </c>
+      <c r="D10" s="30">
+        <v>200492.29</v>
+      </c>
+      <c r="E10" s="30">
+        <v>-264212.47999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="10">
+        <v>60</v>
+      </c>
+      <c r="C11" s="30">
+        <v>72254.039999999994</v>
+      </c>
+      <c r="D11" s="30">
+        <v>245832.87</v>
+      </c>
+      <c r="E11" s="30">
+        <v>-173578.83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="10">
+        <v>60</v>
+      </c>
+      <c r="C12" s="30">
+        <v>628841.18000000005</v>
+      </c>
+      <c r="D12" s="30">
+        <v>235617.31</v>
+      </c>
+      <c r="E12" s="30">
+        <v>393223.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="10">
+        <v>60</v>
+      </c>
+      <c r="C13" s="30">
+        <v>430282.2</v>
+      </c>
+      <c r="D13" s="30">
+        <v>280803.92</v>
+      </c>
+      <c r="E13" s="30">
+        <v>149478.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1993</v>
+      </c>
+      <c r="B2" s="10">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10">
+        <v>240</v>
+      </c>
+      <c r="D2" s="10">
+        <v>240</v>
+      </c>
+      <c r="E2" s="10">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>1994</v>
+      </c>
+      <c r="B3" s="10">
+        <v>60</v>
+      </c>
+      <c r="C3" s="10">
+        <v>250</v>
+      </c>
+      <c r="D3" s="10">
+        <v>250</v>
+      </c>
+      <c r="E3" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>1995</v>
+      </c>
+      <c r="B4" s="10">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10">
+        <v>250</v>
+      </c>
+      <c r="D4" s="10">
+        <v>270</v>
+      </c>
+      <c r="E4" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>1996</v>
+      </c>
+      <c r="B5" s="10">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10">
+        <v>250</v>
+      </c>
+      <c r="D5" s="10">
+        <v>270</v>
+      </c>
+      <c r="E5" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>1997</v>
+      </c>
+      <c r="B6" s="10">
+        <v>60</v>
+      </c>
+      <c r="C6" s="10">
+        <v>250</v>
+      </c>
+      <c r="D6" s="10">
+        <v>270</v>
+      </c>
+      <c r="E6" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>1998</v>
+      </c>
+      <c r="B7" s="10">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10">
+        <v>250</v>
+      </c>
+      <c r="D7" s="10">
+        <v>270</v>
+      </c>
+      <c r="E7" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>1999</v>
+      </c>
+      <c r="B8" s="10">
+        <v>60</v>
+      </c>
+      <c r="C8" s="10">
+        <v>250</v>
+      </c>
+      <c r="D8" s="10">
+        <v>290</v>
+      </c>
+      <c r="E8" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="10">
+        <v>60</v>
+      </c>
+      <c r="C9" s="10">
+        <v>270</v>
+      </c>
+      <c r="D9" s="10">
+        <v>290</v>
+      </c>
+      <c r="E9" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="10">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10">
+        <v>270</v>
+      </c>
+      <c r="D10" s="10">
+        <v>310</v>
+      </c>
+      <c r="E10" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="10">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>270</v>
+      </c>
+      <c r="D11" s="10">
+        <v>310</v>
+      </c>
+      <c r="E11" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="10">
+        <v>60</v>
+      </c>
+      <c r="C12" s="10">
+        <v>270</v>
+      </c>
+      <c r="D12" s="10">
+        <v>310</v>
+      </c>
+      <c r="E12" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="10">
+        <v>60</v>
+      </c>
+      <c r="C13" s="10">
+        <v>270</v>
+      </c>
+      <c r="D13" s="10">
+        <v>310</v>
+      </c>
+      <c r="E13" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2005</v>
+      </c>
+      <c r="B14" s="10">
+        <v>60</v>
+      </c>
+      <c r="C14" s="10">
+        <v>300</v>
+      </c>
+      <c r="D14" s="10">
+        <v>330</v>
+      </c>
+      <c r="E14" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="10">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10">
+        <v>300</v>
+      </c>
+      <c r="D15" s="10">
+        <v>330</v>
+      </c>
+      <c r="E15" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="10">
+        <v>60</v>
+      </c>
+      <c r="C16" s="10">
+        <v>300</v>
+      </c>
+      <c r="D16" s="10">
+        <v>330</v>
+      </c>
+      <c r="E16" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="10">
+        <v>60</v>
+      </c>
+      <c r="C17" s="10">
+        <v>300</v>
+      </c>
+      <c r="D17" s="10">
+        <v>330</v>
+      </c>
+      <c r="E17" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>2009</v>
+      </c>
+      <c r="B18" s="10">
+        <v>60</v>
+      </c>
+      <c r="C18" s="10">
+        <v>300</v>
+      </c>
+      <c r="D18" s="10">
+        <v>330</v>
+      </c>
+      <c r="E18" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="10">
+        <v>60</v>
+      </c>
+      <c r="C19" s="10">
+        <v>300</v>
+      </c>
+      <c r="D19" s="10">
+        <v>330</v>
+      </c>
+      <c r="E19" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>2011</v>
+      </c>
+      <c r="B20" s="10">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10">
+        <v>300</v>
+      </c>
+      <c r="D20" s="10">
+        <v>340</v>
+      </c>
+      <c r="E20" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>2012</v>
+      </c>
+      <c r="B21" s="10">
+        <v>60</v>
+      </c>
+      <c r="C21" s="10">
+        <v>300</v>
+      </c>
+      <c r="D21" s="10">
+        <v>340</v>
+      </c>
+      <c r="E21" s="10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>2013</v>
+      </c>
+      <c r="B22" s="10">
+        <v>60</v>
+      </c>
+      <c r="C22" s="10">
+        <v>330</v>
+      </c>
+      <c r="D22" s="10">
+        <v>360</v>
+      </c>
+      <c r="E22" s="10">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>2014</v>
+      </c>
+      <c r="B23" s="10">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10">
+        <v>350</v>
+      </c>
+      <c r="D23" s="10">
+        <v>375</v>
+      </c>
+      <c r="E23" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>2015</v>
+      </c>
+      <c r="B24" s="10">
+        <v>60</v>
+      </c>
+      <c r="C24" s="10">
+        <v>350</v>
+      </c>
+      <c r="D24" s="10">
+        <v>375</v>
+      </c>
+      <c r="E24" s="10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>2016</v>
+      </c>
+      <c r="B25" s="10">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10">
+        <v>380</v>
+      </c>
+      <c r="D25" s="10">
+        <v>400</v>
+      </c>
+      <c r="E25" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="10">
+        <v>60</v>
+      </c>
+      <c r="C26" s="10">
+        <v>380</v>
+      </c>
+      <c r="D26" s="10">
+        <v>400</v>
+      </c>
+      <c r="E26" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="10">
+        <v>60</v>
+      </c>
+      <c r="C27" s="10">
+        <v>380</v>
+      </c>
+      <c r="D27" s="10">
+        <v>400</v>
+      </c>
+      <c r="E27" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="10">
+        <v>60</v>
+      </c>
+      <c r="C28" s="10">
+        <v>380</v>
+      </c>
+      <c r="D28" s="10">
+        <v>400</v>
+      </c>
+      <c r="E28" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="10">
+        <v>60</v>
+      </c>
+      <c r="C29" s="10">
+        <v>380</v>
+      </c>
+      <c r="D29" s="10">
+        <v>400</v>
+      </c>
+      <c r="E29" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>2021</v>
+      </c>
+      <c r="B30" s="10">
+        <v>60</v>
+      </c>
+      <c r="C30" s="10">
+        <v>380</v>
+      </c>
+      <c r="D30" s="10">
+        <v>400</v>
+      </c>
+      <c r="E30" s="10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="10">
+        <v>60</v>
+      </c>
+      <c r="C31" s="10">
+        <v>380</v>
+      </c>
+      <c r="D31" s="10">
+        <v>400</v>
+      </c>
+      <c r="E31" s="10">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" activeTab="13"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" firstSheet="7" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="ertrag" sheetId="16" r:id="rId16"/>
     <sheet name="ffs" sheetId="17" r:id="rId17"/>
     <sheet name="hebesatze" sheetId="18" r:id="rId18"/>
-    <sheet name="Tabelle4" sheetId="19" r:id="rId19"/>
+    <sheet name="kred" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">e_u20!$A$1:$J$61</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="619">
   <si>
     <t>gdenr</t>
   </si>
@@ -1878,6 +1878,21 @@
   </si>
   <si>
     <t>gewst</t>
+  </si>
+  <si>
+    <t>invkred</t>
+  </si>
+  <si>
+    <t>liqkred</t>
+  </si>
+  <si>
+    <t>vbkggvgkasse</t>
+  </si>
+  <si>
+    <t>fordggvgkasse</t>
+  </si>
+  <si>
+    <t>bestand</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2133,11 +2148,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2216,6 +2261,21 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3539,7 +3599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -5163,13 +5223,332 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>60</v>
+      </c>
+      <c r="B2" s="33">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="34">
+        <v>6385488.5700000003</v>
+      </c>
+      <c r="D2" s="34">
+        <f>F2+G2</f>
+        <v>15522.66</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>15522.66</v>
+      </c>
+      <c r="H2" s="34">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>60</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="34">
+        <v>6265488.4299999997</v>
+      </c>
+      <c r="D3" s="34">
+        <f t="shared" ref="D3:D12" si="0">F3+G3</f>
+        <v>-184010.17</v>
+      </c>
+      <c r="E3" s="34">
+        <v>184010.17</v>
+      </c>
+      <c r="F3" s="34">
+        <v>-184010.17</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>60</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="34">
+        <v>6709759.4400000004</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" si="0"/>
+        <v>-5012.22</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5012.22</v>
+      </c>
+      <c r="F4" s="34">
+        <v>-5012.22</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>60</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="34">
+        <v>6511412.0300000003</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="0"/>
+        <v>-390964.79</v>
+      </c>
+      <c r="E5" s="34">
+        <v>390964.79</v>
+      </c>
+      <c r="F5" s="34">
+        <v>-390964.79</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>60</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="34">
+        <v>6402381.96</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="0"/>
+        <v>-786451.81</v>
+      </c>
+      <c r="E6" s="34">
+        <v>786451.81</v>
+      </c>
+      <c r="F6" s="34">
+        <v>-786451.81</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>60</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="34">
+        <v>6519157.0499999998</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="0"/>
+        <v>129103.33</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <v>129103.33</v>
+      </c>
+      <c r="H7" s="34">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>60</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="34">
+        <v>6250854.9500000002</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="0"/>
+        <v>323829.07</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>323829.07</v>
+      </c>
+      <c r="H8" s="34">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>60</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="34">
+        <v>5969064.2800000003</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>350994.89</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>350994.89</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>60</v>
+      </c>
+      <c r="B10" s="33">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="34">
+        <v>5708359.0499999998</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="0"/>
+        <v>333989.59000000003</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>333989.59000000003</v>
+      </c>
+      <c r="H10" s="34">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>60</v>
+      </c>
+      <c r="B11" s="33">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5497234.9400000004</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="0"/>
+        <v>-114051.45</v>
+      </c>
+      <c r="E11" s="34">
+        <v>114051.45</v>
+      </c>
+      <c r="F11" s="34">
+        <v>-114051.45</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>60</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="34">
+        <v>7410064.9400000004</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="0"/>
+        <v>-715236.51</v>
+      </c>
+      <c r="E12" s="34">
+        <v>715236.51</v>
+      </c>
+      <c r="F12" s="34">
+        <v>-715236.51</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="619">
   <si>
     <t>gdenr</t>
   </si>
@@ -5226,7 +5226,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,8 +5271,8 @@
         <f>F2+G2</f>
         <v>15522.66</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>584</v>
+      <c r="E2" s="33">
+        <v>0</v>
       </c>
       <c r="F2" s="33">
         <v>0</v>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" firstSheet="7" activeTab="18"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,12 @@
     <sheet name="Schulden" sheetId="13" r:id="rId13"/>
     <sheet name="steuer" sheetId="14" r:id="rId14"/>
     <sheet name="Lfag" sheetId="15" r:id="rId15"/>
-    <sheet name="ertrag" sheetId="16" r:id="rId16"/>
-    <sheet name="ffs" sheetId="17" r:id="rId17"/>
-    <sheet name="hebesatze" sheetId="18" r:id="rId18"/>
-    <sheet name="kred" sheetId="19" r:id="rId19"/>
+    <sheet name="umlagen" sheetId="20" r:id="rId16"/>
+    <sheet name="ertrag" sheetId="16" r:id="rId17"/>
+    <sheet name="ffs" sheetId="17" r:id="rId18"/>
+    <sheet name="hebesatze" sheetId="18" r:id="rId19"/>
+    <sheet name="kred" sheetId="19" r:id="rId20"/>
+    <sheet name="stk" sheetId="21" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">e_u20!$A$1:$J$61</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="622">
   <si>
     <t>gdenr</t>
   </si>
@@ -1893,6 +1895,15 @@
   </si>
   <si>
     <t>bestand</t>
+  </si>
+  <si>
+    <t>Jahr</t>
+  </si>
+  <si>
+    <t>Steuerkraftmesszahl</t>
+  </si>
+  <si>
+    <t>GewSt_Umlage</t>
   </si>
 </sst>
 </file>
@@ -2182,7 +2193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2276,6 +2287,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3841,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3861,7 +3877,7 @@
         <v>590</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>591</v>
+        <v>621</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>592</v>
@@ -4104,6 +4120,181 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="36">
+        <v>236536.54</v>
+      </c>
+      <c r="C2" s="36">
+        <v>1614453</v>
+      </c>
+      <c r="D2" s="36">
+        <v>1027379</v>
+      </c>
+      <c r="E2" s="36">
+        <v>232995.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="36">
+        <v>248516.02</v>
+      </c>
+      <c r="C3" s="36">
+        <v>1512142</v>
+      </c>
+      <c r="D3" s="36">
+        <v>957953</v>
+      </c>
+      <c r="E3" s="36">
+        <v>216353.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="36">
+        <v>275063.38</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1590415</v>
+      </c>
+      <c r="D4" s="36">
+        <v>934268</v>
+      </c>
+      <c r="E4" s="36">
+        <v>244842.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="36">
+        <v>282950.96000000002</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1773893</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1042692</v>
+      </c>
+      <c r="E5" s="36">
+        <v>278044.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="36">
+        <v>257907.94</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1877696</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1108200</v>
+      </c>
+      <c r="E6" s="36">
+        <v>326547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="36">
+        <v>145597.22</v>
+      </c>
+      <c r="C7" s="36">
+        <v>2026160</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1157806</v>
+      </c>
+      <c r="E7" s="36">
+        <v>312702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="36">
+        <v>114200</v>
+      </c>
+      <c r="C8" s="36">
+        <v>2019500</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1154000</v>
+      </c>
+      <c r="E8" s="36">
+        <v>315200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="36">
+        <v>107000</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1902250</v>
+      </c>
+      <c r="D9" s="36">
+        <v>1154170</v>
+      </c>
+      <c r="E9" s="36">
+        <v>340400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -4443,7 +4634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -4679,7 +4870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -5221,343 +5412,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>617</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
-        <v>60</v>
-      </c>
-      <c r="B2" s="33">
-        <v>2012</v>
-      </c>
-      <c r="C2" s="34">
-        <v>6385488.5700000003</v>
-      </c>
-      <c r="D2" s="34">
-        <f>F2+G2</f>
-        <v>15522.66</v>
-      </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
-        <v>15522.66</v>
-      </c>
-      <c r="H2" s="34">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
-        <v>60</v>
-      </c>
-      <c r="B3" s="33">
-        <v>2013</v>
-      </c>
-      <c r="C3" s="34">
-        <v>6265488.4299999997</v>
-      </c>
-      <c r="D3" s="34">
-        <f t="shared" ref="D3:D12" si="0">F3+G3</f>
-        <v>-184010.17</v>
-      </c>
-      <c r="E3" s="34">
-        <v>184010.17</v>
-      </c>
-      <c r="F3" s="34">
-        <v>-184010.17</v>
-      </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="34">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
-        <v>60</v>
-      </c>
-      <c r="B4" s="33">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="34">
-        <v>6709759.4400000004</v>
-      </c>
-      <c r="D4" s="34">
-        <f t="shared" si="0"/>
-        <v>-5012.22</v>
-      </c>
-      <c r="E4" s="34">
-        <v>5012.22</v>
-      </c>
-      <c r="F4" s="34">
-        <v>-5012.22</v>
-      </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="34">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
-        <v>60</v>
-      </c>
-      <c r="B5" s="33">
-        <v>2015</v>
-      </c>
-      <c r="C5" s="34">
-        <v>6511412.0300000003</v>
-      </c>
-      <c r="D5" s="34">
-        <f t="shared" si="0"/>
-        <v>-390964.79</v>
-      </c>
-      <c r="E5" s="34">
-        <v>390964.79</v>
-      </c>
-      <c r="F5" s="34">
-        <v>-390964.79</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
-        <v>60</v>
-      </c>
-      <c r="B6" s="33">
-        <v>2016</v>
-      </c>
-      <c r="C6" s="34">
-        <v>6402381.96</v>
-      </c>
-      <c r="D6" s="34">
-        <f t="shared" si="0"/>
-        <v>-786451.81</v>
-      </c>
-      <c r="E6" s="34">
-        <v>786451.81</v>
-      </c>
-      <c r="F6" s="34">
-        <v>-786451.81</v>
-      </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="34">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
-        <v>60</v>
-      </c>
-      <c r="B7" s="33">
-        <v>2017</v>
-      </c>
-      <c r="C7" s="34">
-        <v>6519157.0499999998</v>
-      </c>
-      <c r="D7" s="34">
-        <f t="shared" si="0"/>
-        <v>129103.33</v>
-      </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
-        <v>0</v>
-      </c>
-      <c r="G7" s="34">
-        <v>129103.33</v>
-      </c>
-      <c r="H7" s="34">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
-        <v>60</v>
-      </c>
-      <c r="B8" s="33">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="34">
-        <v>6250854.9500000002</v>
-      </c>
-      <c r="D8" s="34">
-        <f t="shared" si="0"/>
-        <v>323829.07</v>
-      </c>
-      <c r="E8" s="33">
-        <v>0</v>
-      </c>
-      <c r="F8" s="33">
-        <v>0</v>
-      </c>
-      <c r="G8" s="34">
-        <v>323829.07</v>
-      </c>
-      <c r="H8" s="34">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
-        <v>60</v>
-      </c>
-      <c r="B9" s="33">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="34">
-        <v>5969064.2800000003</v>
-      </c>
-      <c r="D9" s="34">
-        <f t="shared" si="0"/>
-        <v>350994.89</v>
-      </c>
-      <c r="E9" s="33">
-        <v>0</v>
-      </c>
-      <c r="F9" s="33">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34">
-        <v>350994.89</v>
-      </c>
-      <c r="H9" s="34">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <v>60</v>
-      </c>
-      <c r="B10" s="33">
-        <v>2020</v>
-      </c>
-      <c r="C10" s="34">
-        <v>5708359.0499999998</v>
-      </c>
-      <c r="D10" s="34">
-        <f t="shared" si="0"/>
-        <v>333989.59000000003</v>
-      </c>
-      <c r="E10" s="33">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
-        <v>0</v>
-      </c>
-      <c r="G10" s="34">
-        <v>333989.59000000003</v>
-      </c>
-      <c r="H10" s="34">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <v>60</v>
-      </c>
-      <c r="B11" s="33">
-        <v>2021</v>
-      </c>
-      <c r="C11" s="34">
-        <v>5497234.9400000004</v>
-      </c>
-      <c r="D11" s="34">
-        <f t="shared" si="0"/>
-        <v>-114051.45</v>
-      </c>
-      <c r="E11" s="34">
-        <v>114051.45</v>
-      </c>
-      <c r="F11" s="34">
-        <v>-114051.45</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>4162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <v>60</v>
-      </c>
-      <c r="B12" s="33">
-        <v>2022</v>
-      </c>
-      <c r="C12" s="34">
-        <v>7410064.9400000004</v>
-      </c>
-      <c r="D12" s="34">
-        <f t="shared" si="0"/>
-        <v>-715236.51</v>
-      </c>
-      <c r="E12" s="34">
-        <v>715236.51</v>
-      </c>
-      <c r="F12" s="34">
-        <v>-715236.51</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>4162</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7032,6 +6892,452 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>617</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>60</v>
+      </c>
+      <c r="B2" s="33">
+        <v>2012</v>
+      </c>
+      <c r="C2" s="34">
+        <v>6385488.5700000003</v>
+      </c>
+      <c r="D2" s="34">
+        <f>F2+G2</f>
+        <v>15522.66</v>
+      </c>
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <v>15522.66</v>
+      </c>
+      <c r="H2" s="34">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>60</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2013</v>
+      </c>
+      <c r="C3" s="34">
+        <v>6265488.4299999997</v>
+      </c>
+      <c r="D3" s="34">
+        <f t="shared" ref="D3:D12" si="0">F3+G3</f>
+        <v>-184010.17</v>
+      </c>
+      <c r="E3" s="34">
+        <v>184010.17</v>
+      </c>
+      <c r="F3" s="34">
+        <v>-184010.17</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="34">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>60</v>
+      </c>
+      <c r="B4" s="33">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="34">
+        <v>6709759.4400000004</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" si="0"/>
+        <v>-5012.22</v>
+      </c>
+      <c r="E4" s="34">
+        <v>5012.22</v>
+      </c>
+      <c r="F4" s="34">
+        <v>-5012.22</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="34">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>60</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2015</v>
+      </c>
+      <c r="C5" s="34">
+        <v>6511412.0300000003</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="0"/>
+        <v>-390964.79</v>
+      </c>
+      <c r="E5" s="34">
+        <v>390964.79</v>
+      </c>
+      <c r="F5" s="34">
+        <v>-390964.79</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>60</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2016</v>
+      </c>
+      <c r="C6" s="34">
+        <v>6402381.96</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="0"/>
+        <v>-786451.81</v>
+      </c>
+      <c r="E6" s="34">
+        <v>786451.81</v>
+      </c>
+      <c r="F6" s="34">
+        <v>-786451.81</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="34">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>60</v>
+      </c>
+      <c r="B7" s="33">
+        <v>2017</v>
+      </c>
+      <c r="C7" s="34">
+        <v>6519157.0499999998</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="0"/>
+        <v>129103.33</v>
+      </c>
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="34">
+        <v>129103.33</v>
+      </c>
+      <c r="H7" s="34">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>60</v>
+      </c>
+      <c r="B8" s="33">
+        <v>2018</v>
+      </c>
+      <c r="C8" s="34">
+        <v>6250854.9500000002</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="0"/>
+        <v>323829.07</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>323829.07</v>
+      </c>
+      <c r="H8" s="34">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>60</v>
+      </c>
+      <c r="B9" s="33">
+        <v>2019</v>
+      </c>
+      <c r="C9" s="34">
+        <v>5969064.2800000003</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>350994.89</v>
+      </c>
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>350994.89</v>
+      </c>
+      <c r="H9" s="34">
+        <v>4146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>60</v>
+      </c>
+      <c r="B10" s="33">
+        <v>2020</v>
+      </c>
+      <c r="C10" s="34">
+        <v>5708359.0499999998</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="0"/>
+        <v>333989.59000000003</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>333989.59000000003</v>
+      </c>
+      <c r="H10" s="34">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>60</v>
+      </c>
+      <c r="B11" s="33">
+        <v>2021</v>
+      </c>
+      <c r="C11" s="34">
+        <v>5497234.9400000004</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="0"/>
+        <v>-114051.45</v>
+      </c>
+      <c r="E11" s="34">
+        <v>114051.45</v>
+      </c>
+      <c r="F11" s="34">
+        <v>-114051.45</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>60</v>
+      </c>
+      <c r="B12" s="33">
+        <v>2022</v>
+      </c>
+      <c r="C12" s="34">
+        <v>7410064.9400000004</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="0"/>
+        <v>-715236.51</v>
+      </c>
+      <c r="E12" s="34">
+        <v>715236.51</v>
+      </c>
+      <c r="F12" s="34">
+        <v>-715236.51</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>4162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="B1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>2012</v>
+      </c>
+      <c r="B2" s="37">
+        <v>3153834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>2013</v>
+      </c>
+      <c r="B3" s="37">
+        <v>3334801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="37">
+        <v>3739563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="37">
+        <v>3601409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>2016</v>
+      </c>
+      <c r="B6" s="37">
+        <v>3347824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="37">
+        <v>3519523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="37">
+        <v>3900317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="37">
+        <v>4146807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>2020</v>
+      </c>
+      <c r="B10" s="37">
+        <v>4336437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>2021</v>
+      </c>
+      <c r="B11" s="37">
+        <v>4313371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
+        <v>2022</v>
+      </c>
+      <c r="B12" s="37">
+        <v>4147574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" firstSheet="6" activeTab="20"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="7200" windowHeight="12225" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="639">
   <si>
     <t>gdenr</t>
   </si>
@@ -1904,6 +1904,57 @@
   </si>
   <si>
     <t>GewSt_Umlage</t>
+  </si>
+  <si>
+    <t>ber_grstb_IV_vvj</t>
+  </si>
+  <si>
+    <t>hebesatz_grstb_IV_vvj</t>
+  </si>
+  <si>
+    <t>ber_grstb_I-III_vj</t>
+  </si>
+  <si>
+    <t>nivellierungssatz_grsta</t>
+  </si>
+  <si>
+    <t>ber_gewst_IV_vvj</t>
+  </si>
+  <si>
+    <t>EkSt4vvj</t>
+  </si>
+  <si>
+    <t>EkSt1bis3vj</t>
+  </si>
+  <si>
+    <t>USt4vvj</t>
+  </si>
+  <si>
+    <t>USt1bis3vj</t>
+  </si>
+  <si>
+    <t>wgUSt4vvj</t>
+  </si>
+  <si>
+    <t>wgUSt1bis3vj</t>
+  </si>
+  <si>
+    <t>hebesatz_grstb_I-III_vj</t>
+  </si>
+  <si>
+    <t>ber_gewst_I-III_vj</t>
+  </si>
+  <si>
+    <t>hebesatz_gewst_I-III_vj</t>
+  </si>
+  <si>
+    <t>hebesatz_gewst_IV_vvj</t>
+  </si>
+  <si>
+    <t>nivellierungssatz_gewst</t>
+  </si>
+  <si>
+    <t>nivellierungssatz_grstb</t>
   </si>
 </sst>
 </file>
@@ -2809,27 +2860,43 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>571</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>572</v>
@@ -2849,52 +2916,187 @@
       <c r="H1" t="s">
         <v>581</v>
       </c>
+      <c r="I1" t="s">
+        <v>625</v>
+      </c>
       <c r="J1" t="s">
         <v>574</v>
       </c>
       <c r="K1" t="s">
+        <v>622</v>
+      </c>
+      <c r="L1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M1" t="s">
         <v>575</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P1" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q1" t="s">
         <v>576</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
+        <v>626</v>
+      </c>
+      <c r="S1" t="s">
+        <v>636</v>
+      </c>
+      <c r="T1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>634</v>
+      </c>
+      <c r="V1" t="s">
+        <v>635</v>
+      </c>
+      <c r="W1" t="s">
+        <v>637</v>
+      </c>
+      <c r="X1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7">
+        <v>322.92</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>380</v>
+      </c>
+      <c r="F7">
+        <v>2356.0100000000002</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>380</v>
+      </c>
+      <c r="I7">
+        <v>345</v>
+      </c>
+      <c r="J7">
+        <v>136805.07</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>449362.09</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>400</v>
+      </c>
+      <c r="P7">
+        <v>465</v>
+      </c>
+      <c r="Q7">
+        <v>181213.85</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>420</v>
+      </c>
+      <c r="T7">
+        <v>1234423.6299999999</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>420</v>
+      </c>
+      <c r="W7">
+        <v>345</v>
+      </c>
+      <c r="X7">
+        <v>558648.80000000005</v>
+      </c>
+      <c r="Y7">
+        <v>1557129.22</v>
+      </c>
+      <c r="Z7">
+        <v>80908.12</v>
+      </c>
+      <c r="AA7">
+        <v>202706.25</v>
+      </c>
+      <c r="AB7">
+        <v>55275.72</v>
+      </c>
+      <c r="AC7">
+        <v>160198.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2903,7 +3105,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,30 +3122,48 @@
       <c r="A2">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>40</v>
       </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
+      <c r="B6">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
@@ -4872,10 +5092,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5405,6 +5625,23 @@
       </c>
       <c r="E31" s="10">
         <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>2023</v>
+      </c>
+      <c r="B32" s="10">
+        <v>60</v>
+      </c>
+      <c r="C32" s="10">
+        <v>510</v>
+      </c>
+      <c r="D32" s="10">
+        <v>510</v>
+      </c>
+      <c r="E32" s="10">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7230,8 +7467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="656">
   <si>
     <t xml:space="preserve">gdenr</t>
   </si>
@@ -1816,199 +1816,202 @@
     <t xml:space="preserve">wgUSt1bis3vj</t>
   </si>
   <si>
+    <t xml:space="preserve">nahbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mittelbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">landesdurchschnSTK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwellenwert_76vh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NivellierungssatzGrStA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NivellierungssatzGrStB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NivellierungssatzGewST4vvj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nivellierungssatz1bisvj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZB_GrundbetragVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZB_GrundbetragOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZO_GrundbetragVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZO_GrundbetragOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GewStUmlageBundesV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GewStUmlageLandesV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplikatorSZZONahbereichOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplikatorSZZONahbereichVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplikatorSZZOmittelbereihOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multiplikatorSZZOmittelbereihVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ek_ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin_ab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saldoErg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saldo_ordFin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tilg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ek_eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fin_eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investitionskredite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquiditätskredite*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verb. Ggü. VBK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einwohner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-Kopf-Verschuldung Investitionskredit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro-Kopf-Verschuldung Liquiditätskredit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- €</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrSt. A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GrSt. B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GwSt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EkSt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HuSt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGL § 21 LAFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vergn.St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundschulumlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GewSt_Umlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreisumlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG-Umlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kreisumlagesatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG-Umlagesatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gew.St.-Umlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VGUmlage</t>
+  </si>
+  <si>
     <t xml:space="preserve">gde</t>
   </si>
   <si>
-    <t xml:space="preserve">nahbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mittelbereich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">landesdurchschnSTK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schwellenwert_76vh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NivellierungssatzGrStA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NivellierungssatzGrStB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NivellierungssatzGewST4vvj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nivellierungssatz1bisvj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZB_GrundbetragVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZB_GrundbetragOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZO_GrundbetragVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZO_GrundbetragOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GewStUmlageBundesV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GewStUmlageLandesV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplikatorSZZONahbereichOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplikatorSZZONahbereichVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplikatorSZZOmittelbereihOG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">multiplikatorSZZOmittelbereihVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ek_ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fin_ab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saldoErg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saldo_ordFin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tilg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ek_eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fin_eb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investitionskredite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquiditätskredite*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verb. Ggü. VBK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einwohner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro-Kopf-Verschuldung Investitionskredit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro-Kopf-Verschuldung Liquiditätskredit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- €</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrSt. A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GrSt. B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GwSt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EkSt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HuSt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGL § 21 LAFG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vergn.St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grundschulumlage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GewSt_Umlage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreisumlage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VG-Umlage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kreisumlagesatz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VG-Umlagesatz</t>
+    <t xml:space="preserve">Gesamtbetrag Erträge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamtbetrag Aufwendungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jahresergebnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saldo_ord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pm_tilgung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grsta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grstb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gewst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invkred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bestand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liqkred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vbkggvgkasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fordggvgkasse</t>
   </si>
   <si>
     <t xml:space="preserve">Jahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gew.St.-Umlage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtbetrag Erträge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gesamtbetrag Aufwendungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jahresergebnis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saldo_ord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pm_tilgung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grsta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grstb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gewst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invkred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bestand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liqkred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vbkggvgkasse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fordggvgkasse</t>
   </si>
   <si>
     <t xml:space="preserve">Steuerkraftmesszahl</t>
@@ -2345,7 +2348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2355,6 +2358,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2724,7 +2731,7 @@
       <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="b">
+      <c r="G4" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2749,7 +2756,7 @@
       <c r="F5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2774,7 +2781,7 @@
       <c r="F6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2" t="b">
+      <c r="G6" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2799,7 +2806,7 @@
       <c r="F7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2824,7 +2831,7 @@
       <c r="F8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="b">
+      <c r="G8" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3097,24 +3104,24 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3210,11 +3217,11 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
@@ -3235,52 +3242,52 @@
         <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>599</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>603</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>605</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>606</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,28 +3428,28 @@
         <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>609</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>611</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>613</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>614</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3721,54 +3728,54 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>621</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <v>2012</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <v>6385488.57</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F2" s="12" t="n">
+      <c r="D2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F2" s="13" t="n">
         <v>4425</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="14" t="n">
         <v>1443.05</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I2" s="13" t="n">
+      <c r="H2" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I2" s="14" t="n">
         <v>1443.05</v>
       </c>
     </row>
@@ -3776,28 +3783,28 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>2013</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="14" t="n">
         <v>6265488.43</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="14" t="n">
         <v>184010.17</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="14" t="n">
         <v>-184010.17</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="13" t="n">
         <v>4362</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="14" t="n">
         <v>1436.38</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="14" t="n">
         <v>42.18</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="14" t="n">
         <v>1478.56</v>
       </c>
     </row>
@@ -3805,28 +3812,28 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <v>2014</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <v>6709759.44</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <v>5012.22</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <v>-5012.22</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="13" t="n">
         <v>4333</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>1548.53</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="14" t="n">
         <v>1.16</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="14" t="n">
         <v>1549.68</v>
       </c>
     </row>
@@ -3834,28 +3841,28 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <v>6511412.03</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <v>390964.79</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <v>-390964.79</v>
       </c>
-      <c r="F5" s="12" t="n">
+      <c r="F5" s="13" t="n">
         <v>4317</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>1508.32</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="14" t="n">
         <v>90.56</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="14" t="n">
         <v>1598.88</v>
       </c>
     </row>
@@ -3863,28 +3870,28 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>6402381.96</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>786451.81</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>-786451.81</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="13" t="n">
         <v>4259</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>1503.26</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="14" t="n">
         <v>184.66</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>1687.92</v>
       </c>
     </row>
@@ -3892,28 +3899,28 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>6519157.05</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F7" s="12" t="n">
+      <c r="D7" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="13" t="n">
         <v>4246</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <v>1535.36</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I7" s="13" t="n">
+      <c r="H7" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I7" s="14" t="n">
         <v>1535.36</v>
       </c>
     </row>
@@ -3921,28 +3928,28 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>6250854.95</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F8" s="12" t="n">
+      <c r="D8" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" s="13" t="n">
         <v>4190</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="14" t="n">
         <v>1491.85</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I8" s="13" t="n">
+      <c r="H8" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I8" s="14" t="n">
         <v>1491.85</v>
       </c>
     </row>
@@ -3950,28 +3957,28 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <v>5969064.28</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F9" s="12" t="n">
+      <c r="D9" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F9" s="13" t="n">
         <v>4146</v>
       </c>
-      <c r="G9" s="13" t="n">
+      <c r="G9" s="14" t="n">
         <v>1439.72</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I9" s="13" t="n">
+      <c r="H9" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I9" s="14" t="n">
         <v>1439.72</v>
       </c>
     </row>
@@ -3979,28 +3986,28 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <v>5708359.05</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F10" s="12" t="n">
+      <c r="D10" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F10" s="13" t="n">
         <v>4159</v>
       </c>
-      <c r="G10" s="13" t="n">
+      <c r="G10" s="14" t="n">
         <v>1372.53</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I10" s="13" t="n">
+      <c r="H10" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I10" s="14" t="n">
         <v>1372.53</v>
       </c>
     </row>
@@ -4008,28 +4015,28 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>5497234.94</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="F11" s="12" t="n">
+      <c r="D11" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="F11" s="13" t="n">
         <v>4162</v>
       </c>
-      <c r="G11" s="13" t="n">
+      <c r="G11" s="14" t="n">
         <v>1320.82</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="I11" s="13" t="n">
+      <c r="H11" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="I11" s="14" t="n">
         <v>1320.82</v>
       </c>
     </row>
@@ -4037,28 +4044,28 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="13" t="n">
         <v>2022</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="14" t="n">
         <v>7410064.94</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="14" t="n">
         <v>354895</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="14" t="n">
         <v>-354895</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="13" t="n">
         <v>4162</v>
       </c>
-      <c r="G12" s="13" t="n">
+      <c r="G12" s="14" t="n">
         <v>1780.41</v>
       </c>
-      <c r="H12" s="13" t="n">
+      <c r="H12" s="14" t="n">
         <v>85.27</v>
       </c>
-      <c r="I12" s="13" t="n">
+      <c r="I12" s="14" t="n">
         <v>1865.68</v>
       </c>
     </row>
@@ -4096,60 +4103,60 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="15" t="s">
         <v>630</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <v>2015</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <v>2727.82</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <v>528925.46</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="14" t="n">
         <v>1409624.41</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="14" t="n">
         <v>1650709.8</v>
       </c>
-      <c r="G2" s="13" t="n">
+      <c r="G2" s="14" t="n">
         <v>157917.4</v>
       </c>
-      <c r="H2" s="13" t="n">
+      <c r="H2" s="14" t="n">
         <v>19367</v>
       </c>
-      <c r="I2" s="13" t="n">
+      <c r="I2" s="14" t="n">
         <v>172849.77</v>
       </c>
-      <c r="J2" s="15" t="n">
+      <c r="J2" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4157,31 +4164,31 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>2016</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="14" t="n">
         <v>2791.17</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="14" t="n">
         <v>568221.66</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="14" t="n">
         <v>1484210.38</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="14" t="n">
         <v>1633467.88</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="14" t="n">
         <v>160934.08</v>
       </c>
-      <c r="H3" s="13" t="n">
+      <c r="H3" s="14" t="n">
         <v>19207</v>
       </c>
-      <c r="I3" s="13" t="n">
+      <c r="I3" s="14" t="n">
         <v>165025.23</v>
       </c>
-      <c r="J3" s="15" t="n">
+      <c r="J3" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4189,31 +4196,31 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <v>2198.31</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <v>568906.21</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="14" t="n">
         <v>1853855.12</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="14" t="n">
         <v>1781490.54</v>
       </c>
-      <c r="G4" s="13" t="n">
+      <c r="G4" s="14" t="n">
         <v>203117.82</v>
       </c>
-      <c r="H4" s="13" t="n">
+      <c r="H4" s="14" t="n">
         <v>18698</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="14" t="n">
         <v>212593.42</v>
       </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4221,31 +4228,31 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>2018</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <v>2709.26</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <v>573022.32</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <v>1574157.95</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="14" t="n">
         <v>1964102.55</v>
       </c>
-      <c r="G5" s="13" t="n">
+      <c r="G5" s="14" t="n">
         <v>245257.77</v>
       </c>
-      <c r="H5" s="13" t="n">
+      <c r="H5" s="14" t="n">
         <v>19392.5</v>
       </c>
-      <c r="I5" s="13" t="n">
+      <c r="I5" s="14" t="n">
         <v>179163.46</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4253,31 +4260,31 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>2019</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>2737.86</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>573646.29</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>2162024.44</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="14" t="n">
         <v>2080181.16</v>
       </c>
-      <c r="G6" s="13" t="n">
+      <c r="G6" s="14" t="n">
         <v>281499.32</v>
       </c>
-      <c r="H6" s="13" t="n">
+      <c r="H6" s="14" t="n">
         <v>20093</v>
       </c>
-      <c r="I6" s="13" t="n">
+      <c r="I6" s="14" t="n">
         <v>204436.67</v>
       </c>
-      <c r="J6" s="15" t="n">
+      <c r="J6" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,31 +4292,31 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>2020</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>2656.77</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="14" t="n">
         <v>584296.36</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <v>1376499.39</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <v>1992235.61</v>
       </c>
-      <c r="G7" s="13" t="n">
+      <c r="G7" s="14" t="n">
         <v>301241.94</v>
       </c>
-      <c r="H7" s="13" t="n">
+      <c r="H7" s="14" t="n">
         <v>20674</v>
       </c>
-      <c r="I7" s="13" t="n">
+      <c r="I7" s="14" t="n">
         <v>151327.23</v>
       </c>
-      <c r="J7" s="15" t="n">
+      <c r="J7" s="16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4347,30 +4354,30 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>636</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="12" t="n">
+      <c r="B2" s="13" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -4378,7 +4385,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -4386,7 +4393,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="n">
+      <c r="B4" s="13" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -4394,25 +4401,25 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="12" t="n">
+      <c r="B5" s="13" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <v>232995.22</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <v>236536.54</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="14" t="n">
         <v>1614453</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="14" t="n">
         <v>1027379</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="G5" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="17" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4420,25 +4427,25 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="13" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <v>216353.68</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <v>248516.02</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="14" t="n">
         <v>1512142</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="14" t="n">
         <v>957953</v>
       </c>
-      <c r="G6" s="16" t="n">
+      <c r="G6" s="17" t="n">
         <v>0.45</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="17" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4446,25 +4453,25 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>244842.22</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="14" t="n">
         <v>275063.38</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="14" t="n">
         <v>1590415</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <v>934268</v>
       </c>
-      <c r="G7" s="16" t="n">
+      <c r="G7" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="17" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4472,25 +4479,25 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="13" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>278044.86</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="14" t="n">
         <v>282950.96</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="14" t="n">
         <v>1773893</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="14" t="n">
         <v>1042692</v>
       </c>
-      <c r="G8" s="16" t="n">
+      <c r="G8" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4498,25 +4505,25 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="12" t="n">
+      <c r="B9" s="13" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <v>326547</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="14" t="n">
         <v>257907.94</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="14" t="n">
         <v>1877696</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="14" t="n">
         <v>1108200</v>
       </c>
-      <c r="G9" s="16" t="n">
+      <c r="G9" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4524,25 +4531,25 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="13" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <v>312702</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="14" t="n">
         <v>145597.22</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="14" t="n">
         <v>2026160</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="14" t="n">
         <v>1157806</v>
       </c>
-      <c r="G10" s="16" t="n">
+      <c r="G10" s="17" t="n">
         <v>0.455</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4550,13 +4557,13 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="13" t="n">
         <v>2021</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="H11" s="17" t="n">
+      <c r="H11" s="18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4564,13 +4571,13 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="13" t="n">
         <v>2022</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="G12" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="H12" s="17" t="n">
+      <c r="H12" s="18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4578,13 +4585,13 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="18" t="n">
+      <c r="B13" s="19" t="n">
         <v>2022</v>
       </c>
-      <c r="G13" s="17" t="n">
+      <c r="G13" s="18" t="n">
         <v>0.4</v>
       </c>
-      <c r="H13" s="17" t="n">
+      <c r="H13" s="18" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4607,7 +4614,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4620,22 +4627,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>639</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>635</v>
-      </c>
       <c r="F1" s="0" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,16 +4652,16 @@
       <c r="B2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="20" t="n">
         <v>236536.54</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="20" t="n">
         <v>1614453</v>
       </c>
-      <c r="E2" s="19" t="n">
+      <c r="E2" s="20" t="n">
         <v>1027379</v>
       </c>
-      <c r="F2" s="19" t="n">
+      <c r="F2" s="20" t="n">
         <v>232995.22</v>
       </c>
     </row>
@@ -4665,16 +4672,16 @@
       <c r="B3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="C3" s="20" t="n">
         <v>248516.02</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="20" t="n">
         <v>1512142</v>
       </c>
-      <c r="E3" s="19" t="n">
+      <c r="E3" s="20" t="n">
         <v>957953</v>
       </c>
-      <c r="F3" s="19" t="n">
+      <c r="F3" s="20" t="n">
         <v>216353.68</v>
       </c>
     </row>
@@ -4685,16 +4692,16 @@
       <c r="B4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="20" t="n">
         <v>275063.38</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="20" t="n">
         <v>1590415</v>
       </c>
-      <c r="E4" s="19" t="n">
+      <c r="E4" s="20" t="n">
         <v>934268</v>
       </c>
-      <c r="F4" s="19" t="n">
+      <c r="F4" s="20" t="n">
         <v>244842.22</v>
       </c>
     </row>
@@ -4705,16 +4712,16 @@
       <c r="B5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="20" t="n">
         <v>282950.96</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="20" t="n">
         <v>1773893</v>
       </c>
-      <c r="E5" s="19" t="n">
+      <c r="E5" s="20" t="n">
         <v>1042692</v>
       </c>
-      <c r="F5" s="19" t="n">
+      <c r="F5" s="20" t="n">
         <v>278044.86</v>
       </c>
     </row>
@@ -4725,16 +4732,16 @@
       <c r="B6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="20" t="n">
         <v>257907.94</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="20" t="n">
         <v>1877696</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="20" t="n">
         <v>1108200</v>
       </c>
-      <c r="F6" s="19" t="n">
+      <c r="F6" s="20" t="n">
         <v>326547</v>
       </c>
     </row>
@@ -4745,16 +4752,16 @@
       <c r="B7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="20" t="n">
         <v>145597.22</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="20" t="n">
         <v>2026160</v>
       </c>
-      <c r="E7" s="19" t="n">
+      <c r="E7" s="20" t="n">
         <v>1157806</v>
       </c>
-      <c r="F7" s="19" t="n">
+      <c r="F7" s="20" t="n">
         <v>312702</v>
       </c>
     </row>
@@ -4765,16 +4772,16 @@
       <c r="B8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="20" t="n">
         <v>114200</v>
       </c>
-      <c r="D8" s="19" t="n">
+      <c r="D8" s="20" t="n">
         <v>2019500</v>
       </c>
-      <c r="E8" s="19" t="n">
+      <c r="E8" s="20" t="n">
         <v>1154000</v>
       </c>
-      <c r="F8" s="19" t="n">
+      <c r="F8" s="20" t="n">
         <v>315200</v>
       </c>
     </row>
@@ -4785,16 +4792,16 @@
       <c r="B9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="20" t="n">
         <v>107000</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="20" t="n">
         <v>1902250</v>
       </c>
-      <c r="E9" s="19" t="n">
+      <c r="E9" s="20" t="n">
         <v>1154170</v>
       </c>
-      <c r="F9" s="19" t="n">
+      <c r="F9" s="20" t="n">
         <v>340400</v>
       </c>
     </row>
@@ -4827,322 +4834,322 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B2" s="24" t="n">
+      <c r="A2" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="25" t="n">
         <v>2007</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="13" t="n">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14" t="n">
         <v>199726.91</v>
       </c>
-      <c r="F2" s="13" t="n">
+      <c r="F2" s="14" t="n">
         <v>16828364.74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" s="24" t="n">
+      <c r="A3" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>2008</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13" t="n">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="14" t="n">
         <v>86346.51</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="14" t="n">
         <v>17282095.11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" s="24" t="n">
+      <c r="A4" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="25" t="n">
         <v>2009</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="25" t="n">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="26" t="n">
         <v>-705113.32</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="14" t="n">
         <v>16576981.79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B5" s="24" t="n">
+      <c r="A5" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>2010</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13" t="n">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14" t="n">
         <v>78487.38</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="14" t="n">
         <v>16655469.17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" s="24" t="n">
+      <c r="A6" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>2011</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27" t="n">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28" t="n">
         <v>-361134.89</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="14" t="n">
         <v>16294334.28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" s="24" t="n">
+      <c r="A7" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="25" t="n">
         <v>2012</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="29" t="n">
         <v>5399856.84</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="29" t="n">
         <v>5519390.94</v>
       </c>
-      <c r="E7" s="29" t="n">
+      <c r="E7" s="30" t="n">
         <v>-119534.1</v>
       </c>
-      <c r="F7" s="13" t="n">
+      <c r="F7" s="14" t="n">
         <v>16174800.18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="24" t="n">
+      <c r="A8" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="25" t="n">
         <v>2013</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="29" t="n">
         <v>5291224.3</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="29" t="n">
         <v>5562909.78</v>
       </c>
-      <c r="E8" s="29" t="n">
+      <c r="E8" s="30" t="n">
         <v>-271685.48</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="14" t="n">
         <v>15903114.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B9" s="24" t="n">
+      <c r="A9" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="25" t="n">
         <v>2014</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="29" t="n">
         <v>5524842.28</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="29" t="n">
         <v>5911672.35</v>
       </c>
-      <c r="E9" s="29" t="n">
+      <c r="E9" s="30" t="n">
         <v>-386830.07</v>
       </c>
-      <c r="F9" s="13" t="n">
+      <c r="F9" s="14" t="n">
         <v>15516284.63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B10" s="24" t="n">
+      <c r="A10" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" s="25" t="n">
         <v>2015</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="29" t="n">
         <v>5377605.07</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="29" t="n">
         <v>5943087.47</v>
       </c>
-      <c r="E10" s="29" t="n">
+      <c r="E10" s="30" t="n">
         <v>-565482.4</v>
       </c>
-      <c r="F10" s="13" t="n">
+      <c r="F10" s="14" t="n">
         <v>14950802.23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B11" s="24" t="n">
+      <c r="A11" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="25" t="n">
         <v>2016</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="29" t="n">
         <v>5432976.92</v>
       </c>
-      <c r="D11" s="28" t="n">
+      <c r="D11" s="29" t="n">
         <v>6051432.46</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="30" t="n">
         <v>-618455.54</v>
       </c>
-      <c r="F11" s="13" t="n">
+      <c r="F11" s="14" t="n">
         <v>14332346.69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B12" s="24" t="n">
+      <c r="A12" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>2017</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="29" t="n">
         <v>6589880.47</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="29" t="n">
         <v>6322141.41</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="29" t="n">
         <v>267739.06</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="14" t="n">
         <v>14600085.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" s="24" t="n">
+      <c r="A13" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>2018</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="29" t="n">
         <v>6313718.44</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="29" t="n">
         <v>6549131.57</v>
       </c>
-      <c r="E13" s="29" t="n">
+      <c r="E13" s="30" t="n">
         <v>-235413.13</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="14" t="n">
         <v>14364672.62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B14" s="24" t="n">
+      <c r="A14" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" s="25" t="n">
         <v>2019</v>
       </c>
-      <c r="C14" s="28" t="n">
+      <c r="C14" s="29" t="n">
         <v>7581117.11</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="29" t="n">
         <v>6391960.57</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="29" t="n">
         <v>1189156.54</v>
       </c>
-      <c r="F14" s="13" t="n">
+      <c r="F14" s="14" t="n">
         <v>15489077.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B15" s="24" t="n">
+      <c r="A15" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" s="25" t="n">
         <v>2020</v>
       </c>
-      <c r="C15" s="28" t="n">
+      <c r="C15" s="29" t="n">
         <v>5985171.19</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="29" t="n">
         <v>6181749.62</v>
       </c>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="30" t="n">
         <v>-196578.43</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="14" t="n">
         <v>15292498.82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B16" s="24" t="n">
+      <c r="A16" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B16" s="25" t="n">
         <v>2021</v>
       </c>
-      <c r="C16" s="28" t="n">
+      <c r="C16" s="29" t="n">
         <v>5871390</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="29" t="n">
         <v>6630300</v>
       </c>
-      <c r="E16" s="29" t="n">
+      <c r="E16" s="30" t="n">
         <v>-758910</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="14" t="n">
         <v>14533588.82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B17" s="24" t="n">
+      <c r="A17" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B17" s="25" t="n">
         <v>2022</v>
       </c>
-      <c r="C17" s="28" t="n">
+      <c r="C17" s="29" t="n">
         <v>6565860</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="29" t="n">
         <v>7363495</v>
       </c>
-      <c r="E17" s="29" t="n">
+      <c r="E17" s="30" t="n">
         <v>-797635</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="14" t="n">
         <v>13735953.82</v>
       </c>
     </row>
@@ -5171,223 +5178,223 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>589</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>644</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>613</v>
+      <c r="E1" s="33" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>2007</v>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="33" t="n">
+      <c r="B2" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="34" t="n">
         <v>506976.21</v>
       </c>
-      <c r="D2" s="33" t="n">
+      <c r="D2" s="34" t="n">
         <v>91881.9</v>
       </c>
-      <c r="E2" s="33" t="n">
+      <c r="E2" s="34" t="n">
         <v>415094.31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="33" t="n">
+      <c r="B3" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="34" t="n">
         <v>436086.48</v>
       </c>
-      <c r="D3" s="33" t="n">
+      <c r="D3" s="34" t="n">
         <v>95447.2</v>
       </c>
-      <c r="E3" s="33" t="n">
+      <c r="E3" s="34" t="n">
         <v>340639.28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>2009</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="33" t="n">
+      <c r="B4" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="34" t="n">
         <v>266948.27</v>
       </c>
-      <c r="D4" s="33" t="n">
+      <c r="D4" s="34" t="n">
         <v>104977.58</v>
       </c>
-      <c r="E4" s="33" t="n">
+      <c r="E4" s="34" t="n">
         <v>161970.69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>2010</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="B5" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="34" t="n">
         <v>-25804.37</v>
       </c>
-      <c r="D5" s="33" t="n">
+      <c r="D5" s="34" t="n">
         <v>108918.06</v>
       </c>
-      <c r="E5" s="33" t="n">
+      <c r="E5" s="34" t="n">
         <v>-134722.43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="B6" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="34" t="n">
         <v>191145.78</v>
       </c>
-      <c r="D6" s="33" t="n">
+      <c r="D6" s="34" t="n">
         <v>115991.55</v>
       </c>
-      <c r="E6" s="33" t="n">
+      <c r="E6" s="34" t="n">
         <v>75154.23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>2012</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="33" t="n">
+      <c r="B7" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="34" t="n">
         <v>352415.64</v>
       </c>
-      <c r="D7" s="33" t="n">
+      <c r="D7" s="34" t="n">
         <v>131948.61</v>
       </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <v>220467.03</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>2013</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="33" t="n">
+      <c r="B8" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="34" t="n">
         <v>286853.84</v>
       </c>
-      <c r="D8" s="33" t="n">
+      <c r="D8" s="34" t="n">
         <v>131816.48</v>
       </c>
-      <c r="E8" s="33" t="n">
+      <c r="E8" s="34" t="n">
         <v>155037.36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="33" t="n">
+      <c r="B9" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="34" t="n">
         <v>-286532.2</v>
       </c>
-      <c r="D9" s="33" t="n">
+      <c r="D9" s="34" t="n">
         <v>163109.39</v>
       </c>
-      <c r="E9" s="33" t="n">
+      <c r="E9" s="34" t="n">
         <v>-449641.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>2015</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="33" t="n">
+      <c r="B10" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="34" t="n">
         <v>-63720.19</v>
       </c>
-      <c r="D10" s="33" t="n">
+      <c r="D10" s="34" t="n">
         <v>200492.29</v>
       </c>
-      <c r="E10" s="33" t="n">
+      <c r="E10" s="34" t="n">
         <v>-264212.48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="33" t="n">
+      <c r="B11" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="34" t="n">
         <v>72254.04</v>
       </c>
-      <c r="D11" s="33" t="n">
+      <c r="D11" s="34" t="n">
         <v>245832.87</v>
       </c>
-      <c r="E11" s="33" t="n">
+      <c r="E11" s="34" t="n">
         <v>-173578.83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="33" t="n">
+      <c r="B12" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="34" t="n">
         <v>628841.18</v>
       </c>
-      <c r="D12" s="33" t="n">
+      <c r="D12" s="34" t="n">
         <v>235617.31</v>
       </c>
-      <c r="E12" s="33" t="n">
+      <c r="E12" s="34" t="n">
         <v>393223.87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="33" t="n">
+      <c r="B13" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="34" t="n">
         <v>430282.2</v>
       </c>
-      <c r="D13" s="33" t="n">
+      <c r="D13" s="34" t="n">
         <v>280803.92</v>
       </c>
-      <c r="E13" s="33" t="n">
+      <c r="E13" s="34" t="n">
         <v>149478.28</v>
       </c>
     </row>
@@ -5507,17 +5514,17 @@
       <c r="L2" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M2" s="3" t="n">
+      <c r="M2" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O2" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="P2" s="5" t="n">
         <v>44716</v>
       </c>
     </row>
@@ -5558,17 +5565,17 @@
       <c r="L3" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O3" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="n">
+      <c r="P3" s="5" t="n">
         <v>44717</v>
       </c>
     </row>
@@ -5609,17 +5616,17 @@
       <c r="L4" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O4" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="n">
+      <c r="P4" s="5" t="n">
         <v>44718</v>
       </c>
     </row>
@@ -5660,17 +5667,17 @@
       <c r="L5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O5" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="5" t="n">
         <v>44719</v>
       </c>
     </row>
@@ -5711,17 +5718,17 @@
       <c r="L6" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O6" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="n">
+      <c r="P6" s="5" t="n">
         <v>44720</v>
       </c>
     </row>
@@ -5762,17 +5769,17 @@
       <c r="L7" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O7" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>44721</v>
       </c>
     </row>
@@ -5813,17 +5820,17 @@
       <c r="L8" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N8" s="4" t="n">
+      <c r="N8" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O8" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="5" t="n">
         <v>44722</v>
       </c>
     </row>
@@ -5864,17 +5871,17 @@
       <c r="L9" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="N9" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O9" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="P9" s="5" t="n">
         <v>44723</v>
       </c>
     </row>
@@ -5915,17 +5922,17 @@
       <c r="L10" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N10" s="4" t="n">
+      <c r="N10" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O10" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="P10" s="5" t="n">
         <v>44724</v>
       </c>
     </row>
@@ -5966,17 +5973,17 @@
       <c r="L11" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O11" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="5" t="n">
         <v>44725</v>
       </c>
     </row>
@@ -6017,17 +6024,17 @@
       <c r="L12" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O12" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <v>44726</v>
       </c>
     </row>
@@ -6068,17 +6075,17 @@
       <c r="L13" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N13" s="4" t="n">
+      <c r="N13" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O13" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="5" t="n">
         <v>44727</v>
       </c>
     </row>
@@ -6119,17 +6126,17 @@
       <c r="L14" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O14" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="5" t="n">
         <v>44728</v>
       </c>
     </row>
@@ -6170,17 +6177,17 @@
       <c r="L15" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M15" s="3" t="n">
+      <c r="M15" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N15" s="4" t="n">
+      <c r="N15" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O15" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P15" s="4" t="n">
+      <c r="P15" s="5" t="n">
         <v>44729</v>
       </c>
     </row>
@@ -6221,17 +6228,17 @@
       <c r="L16" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M16" s="3" t="n">
+      <c r="M16" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="N16" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O16" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="5" t="n">
         <v>44730</v>
       </c>
     </row>
@@ -6272,17 +6279,17 @@
       <c r="L17" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M17" s="3" t="n">
+      <c r="M17" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="N17" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O17" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="P17" s="5" t="n">
         <v>44731</v>
       </c>
     </row>
@@ -6323,17 +6330,17 @@
       <c r="L18" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M18" s="3" t="n">
+      <c r="M18" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="N18" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O18" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="P18" s="5" t="n">
         <v>44732</v>
       </c>
     </row>
@@ -6374,17 +6381,17 @@
       <c r="L19" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M19" s="3" t="n">
+      <c r="M19" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="N19" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O19" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="5" t="n">
         <v>44733</v>
       </c>
     </row>
@@ -6425,17 +6432,17 @@
       <c r="L20" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M20" s="3" t="n">
+      <c r="M20" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="N20" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O20" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P20" s="4" t="n">
+      <c r="P20" s="5" t="n">
         <v>44734</v>
       </c>
     </row>
@@ -6476,17 +6483,17 @@
       <c r="L21" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M21" s="3" t="n">
+      <c r="M21" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N21" s="4" t="n">
+      <c r="N21" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O21" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="5" t="n">
         <v>44735</v>
       </c>
     </row>
@@ -6527,17 +6534,17 @@
       <c r="L22" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M22" s="3" t="n">
+      <c r="M22" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N22" s="4" t="n">
+      <c r="N22" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O22" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="P22" s="5" t="n">
         <v>44736</v>
       </c>
     </row>
@@ -6578,17 +6585,17 @@
       <c r="L23" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M23" s="3" t="n">
+      <c r="M23" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N23" s="4" t="n">
+      <c r="N23" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O23" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="P23" s="5" t="n">
         <v>44737</v>
       </c>
     </row>
@@ -6631,17 +6638,17 @@
       <c r="L24" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M24" s="3" t="n">
+      <c r="M24" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N24" s="4" t="n">
+      <c r="N24" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O24" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P24" s="4" t="n">
+      <c r="P24" s="5" t="n">
         <v>44738</v>
       </c>
     </row>
@@ -6684,17 +6691,17 @@
       <c r="L25" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M25" s="3" t="n">
+      <c r="M25" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N25" s="4" t="n">
+      <c r="N25" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O25" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P25" s="4" t="n">
+      <c r="P25" s="5" t="n">
         <v>44739</v>
       </c>
     </row>
@@ -6737,17 +6744,17 @@
       <c r="L26" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M26" s="3" t="n">
+      <c r="M26" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N26" s="4" t="n">
+      <c r="N26" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O26" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P26" s="4" t="n">
+      <c r="P26" s="5" t="n">
         <v>44740</v>
       </c>
     </row>
@@ -6790,17 +6797,17 @@
       <c r="L27" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M27" s="3" t="n">
+      <c r="M27" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O27" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P27" s="4" t="n">
+      <c r="P27" s="5" t="n">
         <v>44741</v>
       </c>
     </row>
@@ -6843,17 +6850,17 @@
       <c r="L28" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M28" s="3" t="n">
+      <c r="M28" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N28" s="4" t="n">
+      <c r="N28" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O28" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P28" s="4" t="n">
+      <c r="P28" s="5" t="n">
         <v>44742</v>
       </c>
     </row>
@@ -6896,17 +6903,17 @@
       <c r="L29" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M29" s="3" t="n">
+      <c r="M29" s="4" t="n">
         <v>44541</v>
       </c>
-      <c r="N29" s="4" t="n">
+      <c r="N29" s="5" t="n">
         <v>44197</v>
       </c>
       <c r="O29" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P29" s="4" t="n">
+      <c r="P29" s="5" t="n">
         <v>44743</v>
       </c>
     </row>
@@ -6935,546 +6942,546 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12" t="n">
+      <c r="A2" s="13" t="n">
         <v>1993</v>
       </c>
-      <c r="B2" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="12" t="n">
+      <c r="B2" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="13" t="n">
         <v>240</v>
       </c>
-      <c r="D2" s="12" t="n">
+      <c r="D2" s="13" t="n">
         <v>240</v>
       </c>
-      <c r="E2" s="12" t="n">
+      <c r="E2" s="13" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="n">
+      <c r="A3" s="13" t="n">
         <v>1994</v>
       </c>
-      <c r="B3" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="12" t="n">
+      <c r="B3" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D3" s="12" t="n">
+      <c r="D3" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="E3" s="12" t="n">
+      <c r="E3" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
+      <c r="A4" s="13" t="n">
         <v>1995</v>
       </c>
-      <c r="B4" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="12" t="n">
+      <c r="B4" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="12" t="n">
+      <c r="D4" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="E4" s="12" t="n">
+      <c r="E4" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="n">
+      <c r="A5" s="13" t="n">
         <v>1996</v>
       </c>
-      <c r="B5" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="12" t="n">
+      <c r="B5" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D5" s="12" t="n">
+      <c r="D5" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="E5" s="12" t="n">
+      <c r="E5" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="n">
+      <c r="A6" s="13" t="n">
         <v>1997</v>
       </c>
-      <c r="B6" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="12" t="n">
+      <c r="B6" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="n">
+      <c r="A7" s="13" t="n">
         <v>1998</v>
       </c>
-      <c r="B7" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="12" t="n">
+      <c r="B7" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="n">
+      <c r="A8" s="13" t="n">
         <v>1999</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="12" t="n">
+      <c r="B8" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="13" t="n">
         <v>250</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="13" t="n">
         <v>290</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="n">
+      <c r="A9" s="13" t="n">
         <v>2000</v>
       </c>
-      <c r="B9" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="12" t="n">
+      <c r="B9" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="D9" s="12" t="n">
+      <c r="D9" s="13" t="n">
         <v>290</v>
       </c>
-      <c r="E9" s="12" t="n">
+      <c r="E9" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="n">
+      <c r="A10" s="13" t="n">
         <v>2001</v>
       </c>
-      <c r="B10" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12" t="n">
+      <c r="B10" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="E10" s="12" t="n">
+      <c r="E10" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="n">
+      <c r="A11" s="13" t="n">
         <v>2002</v>
       </c>
-      <c r="B11" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="12" t="n">
+      <c r="B11" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="D11" s="12" t="n">
+      <c r="D11" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="E11" s="12" t="n">
+      <c r="E11" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="n">
+      <c r="A12" s="13" t="n">
         <v>2003</v>
       </c>
-      <c r="B12" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="12" t="n">
+      <c r="B12" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="n">
+      <c r="A13" s="13" t="n">
         <v>2004</v>
       </c>
-      <c r="B13" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="12" t="n">
+      <c r="B13" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="13" t="n">
         <v>270</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>310</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="13" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="n">
+      <c r="A14" s="13" t="n">
         <v>2005</v>
       </c>
-      <c r="B14" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C14" s="12" t="n">
+      <c r="B14" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E14" s="12" t="n">
+      <c r="E14" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="n">
+      <c r="A15" s="13" t="n">
         <v>2006</v>
       </c>
-      <c r="B15" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" s="12" t="n">
+      <c r="B15" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D15" s="12" t="n">
+      <c r="D15" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="n">
+      <c r="A16" s="13" t="n">
         <v>2007</v>
       </c>
-      <c r="B16" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12" t="n">
+      <c r="B16" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D16" s="12" t="n">
+      <c r="D16" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="n">
+      <c r="A17" s="13" t="n">
         <v>2008</v>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" s="12" t="n">
+      <c r="B17" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="n">
+      <c r="A18" s="13" t="n">
         <v>2009</v>
       </c>
-      <c r="B18" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="12" t="n">
+      <c r="B18" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="n">
+      <c r="A19" s="13" t="n">
         <v>2010</v>
       </c>
-      <c r="B19" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="12" t="n">
+      <c r="B19" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="n">
+      <c r="A20" s="13" t="n">
         <v>2011</v>
       </c>
-      <c r="B20" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="12" t="n">
+      <c r="B20" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="13" t="n">
         <v>340</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="n">
+      <c r="A21" s="13" t="n">
         <v>2012</v>
       </c>
-      <c r="B21" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="12" t="n">
+      <c r="B21" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="13" t="n">
         <v>300</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="13" t="n">
         <v>340</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="13" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="n">
+      <c r="A22" s="13" t="n">
         <v>2013</v>
       </c>
-      <c r="B22" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" s="12" t="n">
+      <c r="B22" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="13" t="n">
         <v>330</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="13" t="n">
         <v>360</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="13" t="n">
         <v>390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="n">
+      <c r="A23" s="13" t="n">
         <v>2014</v>
       </c>
-      <c r="B23" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C23" s="12" t="n">
+      <c r="B23" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" s="13" t="n">
         <v>350</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="13" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="13" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="n">
+      <c r="A24" s="13" t="n">
         <v>2015</v>
       </c>
-      <c r="B24" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" s="12" t="n">
+      <c r="B24" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="13" t="n">
         <v>350</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="13" t="n">
         <v>375</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="13" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="n">
+      <c r="A25" s="13" t="n">
         <v>2016</v>
       </c>
-      <c r="B25" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C25" s="12" t="n">
+      <c r="B25" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="n">
+      <c r="A26" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="B26" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" s="12" t="n">
+      <c r="B26" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="n">
+      <c r="A27" s="13" t="n">
         <v>2018</v>
       </c>
-      <c r="B27" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" s="12" t="n">
+      <c r="B27" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="n">
+      <c r="A28" s="13" t="n">
         <v>2019</v>
       </c>
-      <c r="B28" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C28" s="12" t="n">
+      <c r="B28" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="n">
+      <c r="A29" s="13" t="n">
         <v>2020</v>
       </c>
-      <c r="B29" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="12" t="n">
+      <c r="B29" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="n">
+      <c r="A30" s="13" t="n">
         <v>2021</v>
       </c>
-      <c r="B30" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="12" t="n">
+      <c r="B30" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="n">
+      <c r="A31" s="13" t="n">
         <v>2022</v>
       </c>
-      <c r="B31" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" s="12" t="n">
+      <c r="B31" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" s="13" t="n">
         <v>380</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="13" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="n">
+      <c r="A32" s="19" t="n">
         <v>2023</v>
       </c>
-      <c r="B32" s="12" t="n">
-        <v>60</v>
-      </c>
-      <c r="C32" s="12" t="n">
+      <c r="B32" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" s="13" t="n">
         <v>510</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="13" t="n">
         <v>510</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="13" t="n">
         <v>440</v>
       </c>
     </row>
@@ -7503,317 +7510,317 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>649</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>650</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="36" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="36" t="s">
         <v>653</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>619</v>
+      <c r="H1" s="36" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B2" s="36" t="n">
+      <c r="A2" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="37" t="n">
         <v>2012</v>
       </c>
-      <c r="C2" s="37" t="n">
+      <c r="C2" s="38" t="n">
         <v>6385488.57</v>
       </c>
-      <c r="D2" s="37" t="n">
+      <c r="D2" s="38" t="n">
         <f aca="false">F2+G2</f>
         <v>15522.66</v>
       </c>
-      <c r="E2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="37" t="n">
+      <c r="E2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="38" t="n">
         <v>15522.66</v>
       </c>
-      <c r="H2" s="37" t="n">
+      <c r="H2" s="38" t="n">
         <v>4425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" s="36" t="n">
+      <c r="A3" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" s="37" t="n">
         <v>2013</v>
       </c>
-      <c r="C3" s="37" t="n">
+      <c r="C3" s="38" t="n">
         <v>6265488.43</v>
       </c>
-      <c r="D3" s="37" t="n">
+      <c r="D3" s="38" t="n">
         <f aca="false">F3+G3</f>
         <v>-184010.17</v>
       </c>
-      <c r="E3" s="37" t="n">
+      <c r="E3" s="38" t="n">
         <v>184010.17</v>
       </c>
-      <c r="F3" s="37" t="n">
+      <c r="F3" s="38" t="n">
         <v>-184010.17</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="37" t="n">
+      <c r="G3" s="39"/>
+      <c r="H3" s="38" t="n">
         <v>4362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" s="36" t="n">
+      <c r="A4" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="37" t="n">
         <v>2014</v>
       </c>
-      <c r="C4" s="37" t="n">
+      <c r="C4" s="38" t="n">
         <v>6709759.44</v>
       </c>
-      <c r="D4" s="37" t="n">
+      <c r="D4" s="38" t="n">
         <f aca="false">F4+G4</f>
         <v>-5012.22</v>
       </c>
-      <c r="E4" s="37" t="n">
+      <c r="E4" s="38" t="n">
         <v>5012.22</v>
       </c>
-      <c r="F4" s="37" t="n">
+      <c r="F4" s="38" t="n">
         <v>-5012.22</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="37" t="n">
+      <c r="G4" s="39"/>
+      <c r="H4" s="38" t="n">
         <v>4333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B5" s="36" t="n">
+      <c r="A5" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="37" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="37" t="n">
+      <c r="C5" s="38" t="n">
         <v>6511412.03</v>
       </c>
-      <c r="D5" s="37" t="n">
+      <c r="D5" s="38" t="n">
         <f aca="false">F5+G5</f>
         <v>-390964.79</v>
       </c>
-      <c r="E5" s="37" t="n">
+      <c r="E5" s="38" t="n">
         <v>390964.79</v>
       </c>
-      <c r="F5" s="37" t="n">
+      <c r="F5" s="38" t="n">
         <v>-390964.79</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="37" t="n">
+      <c r="G5" s="39"/>
+      <c r="H5" s="38" t="n">
         <v>4317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" s="36" t="n">
+      <c r="A6" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" s="37" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="38" t="n">
         <v>6402381.96</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="38" t="n">
         <f aca="false">F6+G6</f>
         <v>-786451.81</v>
       </c>
-      <c r="E6" s="37" t="n">
+      <c r="E6" s="38" t="n">
         <v>786451.81</v>
       </c>
-      <c r="F6" s="37" t="n">
+      <c r="F6" s="38" t="n">
         <v>-786451.81</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37" t="n">
+      <c r="G6" s="39"/>
+      <c r="H6" s="38" t="n">
         <v>4259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" s="36" t="n">
+      <c r="A7" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="37" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="37" t="n">
+      <c r="C7" s="38" t="n">
         <v>6519157.05</v>
       </c>
-      <c r="D7" s="37" t="n">
+      <c r="D7" s="38" t="n">
         <f aca="false">F7+G7</f>
         <v>129103.33</v>
       </c>
-      <c r="E7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="37" t="n">
+      <c r="E7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="38" t="n">
         <v>129103.33</v>
       </c>
-      <c r="H7" s="37" t="n">
+      <c r="H7" s="38" t="n">
         <v>4246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="36" t="n">
+      <c r="A8" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="37" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="37" t="n">
+      <c r="C8" s="38" t="n">
         <v>6250854.95</v>
       </c>
-      <c r="D8" s="37" t="n">
+      <c r="D8" s="38" t="n">
         <f aca="false">F8+G8</f>
         <v>323829.07</v>
       </c>
-      <c r="E8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="37" t="n">
+      <c r="E8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="38" t="n">
         <v>323829.07</v>
       </c>
-      <c r="H8" s="37" t="n">
+      <c r="H8" s="38" t="n">
         <v>4190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B9" s="36" t="n">
+      <c r="A9" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="37" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="37" t="n">
+      <c r="C9" s="38" t="n">
         <v>5969064.28</v>
       </c>
-      <c r="D9" s="37" t="n">
+      <c r="D9" s="38" t="n">
         <f aca="false">F9+G9</f>
         <v>350994.89</v>
       </c>
-      <c r="E9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="37" t="n">
+      <c r="E9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="38" t="n">
         <v>350994.89</v>
       </c>
-      <c r="H9" s="37" t="n">
+      <c r="H9" s="38" t="n">
         <v>4146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B10" s="36" t="n">
+      <c r="A10" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" s="37" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="37" t="n">
+      <c r="C10" s="38" t="n">
         <v>5708359.05</v>
       </c>
-      <c r="D10" s="37" t="n">
+      <c r="D10" s="38" t="n">
         <f aca="false">F10+G10</f>
         <v>333989.59</v>
       </c>
-      <c r="E10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="37" t="n">
+      <c r="E10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="38" t="n">
         <v>333989.59</v>
       </c>
-      <c r="H10" s="37" t="n">
+      <c r="H10" s="38" t="n">
         <v>4159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B11" s="36" t="n">
+      <c r="A11" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="37" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" s="37" t="n">
+      <c r="C11" s="38" t="n">
         <v>5497234.94</v>
       </c>
-      <c r="D11" s="37" t="n">
+      <c r="D11" s="38" t="n">
         <f aca="false">F11+G11</f>
         <v>-114051.45</v>
       </c>
-      <c r="E11" s="37" t="n">
+      <c r="E11" s="38" t="n">
         <v>114051.45</v>
       </c>
-      <c r="F11" s="37" t="n">
+      <c r="F11" s="38" t="n">
         <v>-114051.45</v>
       </c>
-      <c r="G11" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="37" t="n">
+      <c r="G11" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="38" t="n">
         <v>4162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
-        <v>60</v>
-      </c>
-      <c r="B12" s="36" t="n">
+      <c r="A12" s="24" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" s="37" t="n">
         <v>2022</v>
       </c>
-      <c r="C12" s="37" t="n">
+      <c r="C12" s="38" t="n">
         <v>7410064.94</v>
       </c>
-      <c r="D12" s="37" t="n">
+      <c r="D12" s="38" t="n">
         <f aca="false">F12+G12</f>
         <v>-715236.51</v>
       </c>
-      <c r="E12" s="37" t="n">
+      <c r="E12" s="38" t="n">
         <v>715236.51</v>
       </c>
-      <c r="F12" s="37" t="n">
+      <c r="F12" s="38" t="n">
         <v>-715236.51</v>
       </c>
-      <c r="G12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37" t="n">
+      <c r="G12" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="38" t="n">
         <v>4162</v>
       </c>
     </row>
@@ -7841,103 +7848,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>638</v>
+      <c r="A1" s="40" t="s">
+        <v>654</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="n">
+      <c r="A2" s="40" t="n">
         <v>2012</v>
       </c>
-      <c r="B2" s="40" t="n">
+      <c r="B2" s="41" t="n">
         <v>3153834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="n">
+      <c r="A3" s="40" t="n">
         <v>2013</v>
       </c>
-      <c r="B3" s="40" t="n">
+      <c r="B3" s="41" t="n">
         <v>3334801</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="n">
+      <c r="A4" s="40" t="n">
         <v>2014</v>
       </c>
-      <c r="B4" s="40" t="n">
+      <c r="B4" s="41" t="n">
         <v>3739563</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="n">
+      <c r="A5" s="40" t="n">
         <v>2015</v>
       </c>
-      <c r="B5" s="40" t="n">
+      <c r="B5" s="41" t="n">
         <v>3601409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="n">
+      <c r="A6" s="40" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="40" t="n">
+      <c r="B6" s="41" t="n">
         <v>3347824</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="n">
+      <c r="A7" s="40" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="40" t="n">
+      <c r="B7" s="41" t="n">
         <v>3519523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="n">
+      <c r="A8" s="40" t="n">
         <v>2018</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="41" t="n">
         <v>3900317</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="n">
+      <c r="A9" s="40" t="n">
         <v>2019</v>
       </c>
-      <c r="B9" s="40" t="n">
+      <c r="B9" s="41" t="n">
         <v>4146807</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="n">
+      <c r="A10" s="40" t="n">
         <v>2020</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="41" t="n">
         <v>4336437</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="n">
+      <c r="A11" s="40" t="n">
         <v>2021</v>
       </c>
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="41" t="n">
         <v>4313371</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="n">
+      <c r="A12" s="40" t="n">
         <v>2022</v>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="41" t="n">
         <v>4147574</v>
       </c>
     </row>
@@ -7963,7 +7970,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7986,7 +7993,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8009,7 +8016,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -8059,7 +8066,7 @@
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -8076,7 +8083,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -8093,7 +8100,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -8110,7 +8117,7 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -8127,7 +8134,7 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -8144,7 +8151,7 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -8161,7 +8168,7 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -8178,7 +8185,7 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -8195,7 +8202,7 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -8212,7 +8219,7 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -8229,7 +8236,7 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -8246,7 +8253,7 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -8263,7 +8270,7 @@
       <c r="A14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -8280,7 +8287,7 @@
       <c r="A15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -8297,7 +8304,7 @@
       <c r="A16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -8314,7 +8321,7 @@
       <c r="A17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -8331,7 +8338,7 @@
       <c r="A18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -8348,7 +8355,7 @@
       <c r="A19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -8365,7 +8372,7 @@
       <c r="A20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -8382,7 +8389,7 @@
       <c r="A21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -8399,7 +8406,7 @@
       <c r="A22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -8416,7 +8423,7 @@
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -8433,7 +8440,7 @@
       <c r="A24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -8450,7 +8457,7 @@
       <c r="A25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -8467,7 +8474,7 @@
       <c r="A26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -8484,7 +8491,7 @@
       <c r="A27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -8501,7 +8508,7 @@
       <c r="A28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -8518,7 +8525,7 @@
       <c r="A29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -8535,7 +8542,7 @@
       <c r="A30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -8552,7 +8559,7 @@
       <c r="A31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -8569,7 +8576,7 @@
       <c r="A32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -8586,7 +8593,7 @@
       <c r="A33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -8644,7 +8651,7 @@
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -8661,7 +8668,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -8678,7 +8685,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -8695,7 +8702,7 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -8712,7 +8719,7 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -8729,7 +8736,7 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -8746,7 +8753,7 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -8763,7 +8770,7 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -8780,7 +8787,7 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -8797,7 +8804,7 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -8814,7 +8821,7 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>44742</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -8831,7 +8838,7 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -8848,7 +8855,7 @@
       <c r="A14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -8865,7 +8872,7 @@
       <c r="A15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -8882,7 +8889,7 @@
       <c r="A16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -8899,7 +8906,7 @@
       <c r="A17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -8916,7 +8923,7 @@
       <c r="A18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -8933,7 +8940,7 @@
       <c r="A19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -8950,7 +8957,7 @@
       <c r="A20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -8967,7 +8974,7 @@
       <c r="A21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -8984,7 +8991,7 @@
       <c r="A22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -9001,7 +9008,7 @@
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="5" t="n">
         <v>44377</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -9018,7 +9025,7 @@
       <c r="A24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -9029,7 +9036,7 @@
       <c r="A25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -9040,7 +9047,7 @@
       <c r="A26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -9051,7 +9058,7 @@
       <c r="A27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -9062,7 +9069,7 @@
       <c r="A28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -9073,7 +9080,7 @@
       <c r="A29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -9084,7 +9091,7 @@
       <c r="A30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -9095,7 +9102,7 @@
       <c r="A31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -9106,7 +9113,7 @@
       <c r="A32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -9117,7 +9124,7 @@
       <c r="A33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -9128,7 +9135,7 @@
       <c r="A34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="5" t="n">
         <v>44012</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -9139,7 +9146,7 @@
       <c r="A35" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -9150,7 +9157,7 @@
       <c r="A36" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -9161,7 +9168,7 @@
       <c r="A37" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -9172,7 +9179,7 @@
       <c r="A38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -9183,7 +9190,7 @@
       <c r="A39" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -9194,7 +9201,7 @@
       <c r="A40" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -9205,7 +9212,7 @@
       <c r="A41" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -9216,7 +9223,7 @@
       <c r="A42" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -9227,7 +9234,7 @@
       <c r="A43" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -9238,7 +9245,7 @@
       <c r="A44" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -9249,7 +9256,7 @@
       <c r="A45" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="5" t="n">
         <v>43646</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -9260,7 +9267,7 @@
       <c r="A46" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -9271,7 +9278,7 @@
       <c r="A47" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -9282,7 +9289,7 @@
       <c r="A48" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -9293,7 +9300,7 @@
       <c r="A49" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -9304,7 +9311,7 @@
       <c r="A50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -9315,7 +9322,7 @@
       <c r="A51" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -9326,7 +9333,7 @@
       <c r="A52" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -9337,7 +9344,7 @@
       <c r="A53" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -9348,7 +9355,7 @@
       <c r="A54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -9359,7 +9366,7 @@
       <c r="A55" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -9370,7 +9377,7 @@
       <c r="A56" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="5" t="n">
         <v>43281</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -9381,7 +9388,7 @@
       <c r="A57" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -9392,7 +9399,7 @@
       <c r="A58" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -9403,7 +9410,7 @@
       <c r="A59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -9414,7 +9421,7 @@
       <c r="A60" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -9425,7 +9432,7 @@
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -9436,7 +9443,7 @@
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -9447,7 +9454,7 @@
       <c r="A63" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -9458,7 +9465,7 @@
       <c r="A64" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -9469,7 +9476,7 @@
       <c r="A65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -9480,7 +9487,7 @@
       <c r="A66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -9491,7 +9498,7 @@
       <c r="A67" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="5" t="n">
         <v>42916</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -9502,7 +9509,7 @@
       <c r="A68" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -9519,7 +9526,7 @@
       <c r="A69" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -9536,7 +9543,7 @@
       <c r="A70" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -9553,7 +9560,7 @@
       <c r="A71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -9570,7 +9577,7 @@
       <c r="A72" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -9587,7 +9594,7 @@
       <c r="A73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C73" s="0" t="s">
@@ -9604,7 +9611,7 @@
       <c r="A74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C74" s="0" t="s">
@@ -9621,7 +9628,7 @@
       <c r="A75" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B75" s="4" t="n">
+      <c r="B75" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C75" s="0" t="s">
@@ -9638,7 +9645,7 @@
       <c r="A76" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B76" s="4" t="n">
+      <c r="B76" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -9655,7 +9662,7 @@
       <c r="A77" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B77" s="4" t="n">
+      <c r="B77" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -9672,7 +9679,7 @@
       <c r="A78" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B78" s="4" t="n">
+      <c r="B78" s="5" t="n">
         <v>42551</v>
       </c>
       <c r="C78" s="0" t="s">
@@ -9689,7 +9696,7 @@
       <c r="A79" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B79" s="4" t="n">
+      <c r="B79" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -9700,7 +9707,7 @@
       <c r="A80" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C80" s="0" t="s">
@@ -9711,7 +9718,7 @@
       <c r="A81" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C81" s="0" t="s">
@@ -9722,7 +9729,7 @@
       <c r="A82" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -9733,7 +9740,7 @@
       <c r="A83" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -9744,7 +9751,7 @@
       <c r="A84" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -9755,7 +9762,7 @@
       <c r="A85" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B85" s="4" t="n">
+      <c r="B85" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -9766,7 +9773,7 @@
       <c r="A86" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B86" s="4" t="n">
+      <c r="B86" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -9777,7 +9784,7 @@
       <c r="A87" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B87" s="4" t="n">
+      <c r="B87" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -9788,7 +9795,7 @@
       <c r="A88" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -9799,7 +9806,7 @@
       <c r="A89" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B89" s="4" t="n">
+      <c r="B89" s="5" t="n">
         <v>42185</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -9837,2014 +9844,2014 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="8" t="n">
+      <c r="B2" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <f aca="false">DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="8" t="n">
+      <c r="B3" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <f aca="false">DATE(MID(A3,14,4),MID(A3,12,2),MID(A3,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <f aca="false">DATE(MID(A4,14,4),MID(A4,12,2),MID(A4,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9" t="n">
         <f aca="false">DATE(MID(A5,14,4),MID(A5,12,2),MID(A5,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="8" t="n">
+      <c r="B6" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="n">
         <f aca="false">DATE(MID(A6,14,4),MID(A6,12,2),MID(A6,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="n">
         <f aca="false">DATE(MID(A7,14,4),MID(A7,12,2),MID(A7,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="n">
         <f aca="false">DATE(MID(A8,14,4),MID(A8,12,2),MID(A8,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="8" t="n">
+      <c r="B9" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="n">
         <f aca="false">DATE(MID(A9,14,4),MID(A9,12,2),MID(A9,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="8" t="n">
+      <c r="B10" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="n">
         <f aca="false">DATE(MID(A10,14,4),MID(A10,12,2),MID(A10,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="8" t="n">
+      <c r="B11" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <f aca="false">DATE(MID(A11,14,4),MID(A11,12,2),MID(A11,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="8" t="n">
+      <c r="B12" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <f aca="false">DATE(MID(A12,14,4),MID(A12,12,2),MID(A12,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8" t="n">
+      <c r="B13" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <f aca="false">DATE(MID(A13,14,4),MID(A13,12,2),MID(A13,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C14" s="8" t="n">
+      <c r="B14" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9" t="n">
         <f aca="false">DATE(MID(A14,14,4),MID(A14,12,2),MID(A14,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8" t="n">
+      <c r="B15" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <f aca="false">DATE(MID(A15,14,4),MID(A15,12,2),MID(A15,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <f aca="false">DATE(MID(A16,14,4),MID(A16,12,2),MID(A16,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8" t="n">
+      <c r="B17" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="n">
         <f aca="false">DATE(MID(A17,14,4),MID(A17,12,2),MID(A17,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="8" t="n">
+      <c r="B18" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="9" t="n">
         <f aca="false">DATE(MID(A18,14,4),MID(A18,12,2),MID(A18,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="8" t="n">
+      <c r="B19" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="n">
         <f aca="false">DATE(MID(A19,14,4),MID(A19,12,2),MID(A19,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="8" t="n">
+      <c r="B20" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="9" t="n">
         <f aca="false">DATE(MID(A20,14,4),MID(A20,12,2),MID(A20,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="8" t="n">
+      <c r="B21" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="9" t="n">
         <f aca="false">DATE(MID(A21,14,4),MID(A21,12,2),MID(A21,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" s="8" t="n">
+      <c r="B22" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="n">
         <f aca="false">DATE(MID(A22,14,4),MID(A22,12,2),MID(A22,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C23" s="8" t="n">
+      <c r="B23" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" s="9" t="n">
         <f aca="false">DATE(MID(A23,14,4),MID(A23,12,2),MID(A23,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" s="8" t="n">
+      <c r="B24" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="9" t="n">
         <f aca="false">DATE(MID(A24,14,4),MID(A24,12,2),MID(A24,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C25" s="8" t="n">
+      <c r="B25" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="9" t="n">
         <f aca="false">DATE(MID(A25,14,4),MID(A25,12,2),MID(A25,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" s="8" t="n">
+      <c r="B26" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" s="9" t="n">
         <f aca="false">DATE(MID(A26,14,4),MID(A26,12,2),MID(A26,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8" t="n">
+      <c r="B27" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="9" t="n">
         <f aca="false">DATE(MID(A27,14,4),MID(A27,12,2),MID(A27,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8" t="n">
+      <c r="B28" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <f aca="false">DATE(MID(A28,14,4),MID(A28,12,2),MID(A28,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="8" t="n">
+      <c r="B29" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <f aca="false">DATE(MID(A29,14,4),MID(A29,12,2),MID(A29,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="8" t="n">
+      <c r="B30" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9" t="n">
         <f aca="false">DATE(MID(A30,14,4),MID(A30,12,2),MID(A30,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" s="8" t="n">
+      <c r="B31" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="n">
         <f aca="false">DATE(MID(A31,14,4),MID(A31,12,2),MID(A31,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C32" s="8" t="n">
+      <c r="B32" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9" t="n">
         <f aca="false">DATE(MID(A32,14,4),MID(A32,12,2),MID(A32,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C33" s="8" t="n">
+      <c r="B33" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C33" s="9" t="n">
         <f aca="false">DATE(MID(A33,14,4),MID(A33,12,2),MID(A33,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C34" s="8" t="n">
+      <c r="B34" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" s="9" t="n">
         <f aca="false">DATE(MID(A34,14,4),MID(A34,12,2),MID(A34,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C35" s="8" t="n">
+      <c r="B35" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <f aca="false">DATE(MID(A35,14,4),MID(A35,12,2),MID(A35,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="G35" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="I35" s="10" t="s">
+      <c r="I35" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="11" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C36" s="8" t="n">
+      <c r="B36" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <f aca="false">DATE(MID(A36,14,4),MID(A36,12,2),MID(A36,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C37" s="8" t="n">
+      <c r="B37" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <f aca="false">DATE(MID(A37,14,4),MID(A37,12,2),MID(A37,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="8" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C38" s="8" t="n">
+      <c r="B38" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C38" s="9" t="n">
         <f aca="false">DATE(MID(A38,14,4),MID(A38,12,2),MID(A38,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="10" t="s">
+      <c r="F38" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="I38" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="11" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B39" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C39" s="8" t="n">
+      <c r="B39" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C39" s="9" t="n">
         <f aca="false">DATE(MID(A39,14,4),MID(A39,12,2),MID(A39,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="8" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B40" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C40" s="8" t="n">
+      <c r="B40" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C40" s="9" t="n">
         <f aca="false">DATE(MID(A40,14,4),MID(A40,12,2),MID(A40,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="G40" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="I40" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="11" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C41" s="8" t="n">
+      <c r="B41" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" s="9" t="n">
         <f aca="false">DATE(MID(A41,14,4),MID(A41,12,2),MID(A41,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="8" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C42" s="8" t="n">
+      <c r="B42" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C42" s="9" t="n">
         <f aca="false">DATE(MID(A42,14,4),MID(A42,12,2),MID(A42,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="8" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C43" s="8" t="n">
+      <c r="B43" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C43" s="9" t="n">
         <f aca="false">DATE(MID(A43,14,4),MID(A43,12,2),MID(A43,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="G43" s="10" t="s">
+      <c r="G43" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C44" s="8" t="n">
+      <c r="B44" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" s="9" t="n">
         <f aca="false">DATE(MID(A44,14,4),MID(A44,12,2),MID(A44,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C45" s="8" t="n">
+      <c r="B45" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C45" s="9" t="n">
         <f aca="false">DATE(MID(A45,14,4),MID(A45,12,2),MID(A45,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="11" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C46" s="8" t="n">
+      <c r="B46" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" s="9" t="n">
         <f aca="false">DATE(MID(A46,14,4),MID(A46,12,2),MID(A46,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B47" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C47" s="8" t="n">
+      <c r="B47" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C47" s="9" t="n">
         <f aca="false">DATE(MID(A47,14,4),MID(A47,12,2),MID(A47,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="8" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" s="8" t="n">
+      <c r="B48" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" s="9" t="n">
         <f aca="false">DATE(MID(A48,14,4),MID(A48,12,2),MID(A48,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="10" t="s">
+      <c r="G48" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="11" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C49" s="8" t="n">
+      <c r="B49" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C49" s="9" t="n">
         <f aca="false">DATE(MID(A49,14,4),MID(A49,12,2),MID(A49,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="8" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C50" s="8" t="n">
+      <c r="B50" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C50" s="9" t="n">
         <f aca="false">DATE(MID(A50,14,4),MID(A50,12,2),MID(A50,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="G50" s="10" t="s">
+      <c r="G50" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="J50" s="11" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B51" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C51" s="8" t="n">
+      <c r="B51" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C51" s="9" t="n">
         <f aca="false">DATE(MID(A51,14,4),MID(A51,12,2),MID(A51,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="8" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C52" s="8" t="n">
+      <c r="B52" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C52" s="9" t="n">
         <f aca="false">DATE(MID(A52,14,4),MID(A52,12,2),MID(A52,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="8" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B53" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C53" s="8" t="n">
+      <c r="B53" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C53" s="9" t="n">
         <f aca="false">DATE(MID(A53,14,4),MID(A53,12,2),MID(A53,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="G53" s="10" t="s">
+      <c r="G53" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="11" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C54" s="8" t="n">
+      <c r="B54" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" s="9" t="n">
         <f aca="false">DATE(MID(A54,14,4),MID(A54,12,2),MID(A54,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="8" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C55" s="8" t="n">
+      <c r="B55" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" s="9" t="n">
         <f aca="false">DATE(MID(A55,14,4),MID(A55,12,2),MID(A55,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G55" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="11" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C56" s="8" t="n">
+      <c r="B56" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C56" s="9" t="n">
         <f aca="false">DATE(MID(A56,14,4),MID(A56,12,2),MID(A56,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="8" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C57" s="8" t="n">
+      <c r="B57" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C57" s="9" t="n">
         <f aca="false">DATE(MID(A57,14,4),MID(A57,12,2),MID(A57,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="8" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C58" s="8" t="n">
+      <c r="B58" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C58" s="9" t="n">
         <f aca="false">DATE(MID(A58,14,4),MID(A58,12,2),MID(A58,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="I58" s="10" t="s">
+      <c r="I58" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="11" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C59" s="8" t="n">
+      <c r="B59" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C59" s="9" t="n">
         <f aca="false">DATE(MID(A59,14,4),MID(A59,12,2),MID(A59,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="8" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B60" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C60" s="8" t="n">
+      <c r="B60" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C60" s="9" t="n">
         <f aca="false">DATE(MID(A60,14,4),MID(A60,12,2),MID(A60,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="I60" s="10" t="s">
+      <c r="I60" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J60" s="10" t="s">
+      <c r="J60" s="11" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="7" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8" t="n">
+      <c r="B61" s="8" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="9" t="n">
         <f aca="false">DATE(MID(A61,14,4),MID(A61,12,2),MID(A61,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="8" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11914,7 +11921,7 @@
       <c r="B2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <f aca="false">DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
         <v>40724</v>
       </c>
@@ -11951,7 +11958,7 @@
       <c r="B3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <f aca="false">DATE(MID(A3,14,4),MID(A3,12,2),MID(A3,10,2))</f>
         <v>40724</v>
       </c>
@@ -11988,7 +11995,7 @@
       <c r="B4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">DATE(MID(A4,14,4),MID(A4,12,2),MID(A4,10,2))</f>
         <v>40724</v>
       </c>
@@ -12025,7 +12032,7 @@
       <c r="B5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">DATE(MID(A5,14,4),MID(A5,12,2),MID(A5,10,2))</f>
         <v>40724</v>
       </c>
@@ -12062,7 +12069,7 @@
       <c r="B6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">DATE(MID(A6,14,4),MID(A6,12,2),MID(A6,10,2))</f>
         <v>40724</v>
       </c>
@@ -12099,7 +12106,7 @@
       <c r="B7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <f aca="false">DATE(MID(A7,14,4),MID(A7,12,2),MID(A7,10,2))</f>
         <v>40724</v>
       </c>
@@ -12136,7 +12143,7 @@
       <c r="B8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">DATE(MID(A8,14,4),MID(A8,12,2),MID(A8,10,2))</f>
         <v>41090</v>
       </c>
@@ -12173,7 +12180,7 @@
       <c r="B9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <f aca="false">DATE(MID(A9,14,4),MID(A9,12,2),MID(A9,10,2))</f>
         <v>41090</v>
       </c>
@@ -12210,7 +12217,7 @@
       <c r="B10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <f aca="false">DATE(MID(A10,14,4),MID(A10,12,2),MID(A10,10,2))</f>
         <v>41090</v>
       </c>
@@ -12247,7 +12254,7 @@
       <c r="B11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <f aca="false">DATE(MID(A11,14,4),MID(A11,12,2),MID(A11,10,2))</f>
         <v>41090</v>
       </c>
@@ -12284,7 +12291,7 @@
       <c r="B12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <f aca="false">DATE(MID(A12,14,4),MID(A12,12,2),MID(A12,10,2))</f>
         <v>41090</v>
       </c>
@@ -12321,7 +12328,7 @@
       <c r="B13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <f aca="false">DATE(MID(A13,14,4),MID(A13,12,2),MID(A13,10,2))</f>
         <v>41090</v>
       </c>
@@ -12358,7 +12365,7 @@
       <c r="B14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <f aca="false">DATE(MID(A14,14,4),MID(A14,12,2),MID(A14,10,2))</f>
         <v>41455</v>
       </c>
@@ -12395,7 +12402,7 @@
       <c r="B15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <f aca="false">DATE(MID(A15,14,4),MID(A15,12,2),MID(A15,10,2))</f>
         <v>41455</v>
       </c>
@@ -12432,7 +12439,7 @@
       <c r="B16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <f aca="false">DATE(MID(A16,14,4),MID(A16,12,2),MID(A16,10,2))</f>
         <v>41455</v>
       </c>
@@ -12469,7 +12476,7 @@
       <c r="B17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <f aca="false">DATE(MID(A17,14,4),MID(A17,12,2),MID(A17,10,2))</f>
         <v>41455</v>
       </c>
@@ -12506,7 +12513,7 @@
       <c r="B18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="5" t="n">
         <f aca="false">DATE(MID(A18,14,4),MID(A18,12,2),MID(A18,10,2))</f>
         <v>41455</v>
       </c>
@@ -12543,7 +12550,7 @@
       <c r="B19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="5" t="n">
         <f aca="false">DATE(MID(A19,14,4),MID(A19,12,2),MID(A19,10,2))</f>
         <v>41455</v>
       </c>
@@ -12580,7 +12587,7 @@
       <c r="B20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="5" t="n">
         <f aca="false">DATE(MID(A20,14,4),MID(A20,12,2),MID(A20,10,2))</f>
         <v>41820</v>
       </c>
@@ -12617,7 +12624,7 @@
       <c r="B21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="5" t="n">
         <f aca="false">DATE(MID(A21,14,4),MID(A21,12,2),MID(A21,10,2))</f>
         <v>41820</v>
       </c>
@@ -12654,7 +12661,7 @@
       <c r="B22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="5" t="n">
         <f aca="false">DATE(MID(A22,14,4),MID(A22,12,2),MID(A22,10,2))</f>
         <v>41820</v>
       </c>
@@ -12691,7 +12698,7 @@
       <c r="B23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="5" t="n">
         <f aca="false">DATE(MID(A23,14,4),MID(A23,12,2),MID(A23,10,2))</f>
         <v>41820</v>
       </c>
@@ -12728,7 +12735,7 @@
       <c r="B24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="5" t="n">
         <f aca="false">DATE(MID(A24,14,4),MID(A24,12,2),MID(A24,10,2))</f>
         <v>41820</v>
       </c>
@@ -12765,7 +12772,7 @@
       <c r="B25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="5" t="n">
         <f aca="false">DATE(MID(A25,14,4),MID(A25,12,2),MID(A25,10,2))</f>
         <v>41820</v>
       </c>
@@ -12802,7 +12809,7 @@
       <c r="B26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="5" t="n">
         <f aca="false">DATE(MID(A26,14,4),MID(A26,12,2),MID(A26,10,2))</f>
         <v>42185</v>
       </c>
@@ -12839,7 +12846,7 @@
       <c r="B27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="5" t="n">
         <f aca="false">DATE(MID(A27,14,4),MID(A27,12,2),MID(A27,10,2))</f>
         <v>42185</v>
       </c>
@@ -12876,7 +12883,7 @@
       <c r="B28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="5" t="n">
         <f aca="false">DATE(MID(A28,14,4),MID(A28,12,2),MID(A28,10,2))</f>
         <v>42185</v>
       </c>
@@ -12913,7 +12920,7 @@
       <c r="B29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="5" t="n">
         <f aca="false">DATE(MID(A29,14,4),MID(A29,12,2),MID(A29,10,2))</f>
         <v>42185</v>
       </c>
@@ -12950,7 +12957,7 @@
       <c r="B30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="5" t="n">
         <f aca="false">DATE(MID(A30,14,4),MID(A30,12,2),MID(A30,10,2))</f>
         <v>42185</v>
       </c>
@@ -12987,7 +12994,7 @@
       <c r="B31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="5" t="n">
         <f aca="false">DATE(MID(A31,14,4),MID(A31,12,2),MID(A31,10,2))</f>
         <v>42185</v>
       </c>
@@ -13024,7 +13031,7 @@
       <c r="B32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="5" t="n">
         <f aca="false">DATE(MID(A32,14,4),MID(A32,12,2),MID(A32,10,2))</f>
         <v>42551</v>
       </c>
@@ -13061,7 +13068,7 @@
       <c r="B33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="5" t="n">
         <f aca="false">DATE(MID(A33,14,4),MID(A33,12,2),MID(A33,10,2))</f>
         <v>42551</v>
       </c>
@@ -13098,7 +13105,7 @@
       <c r="B34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="5" t="n">
         <f aca="false">DATE(MID(A34,14,4),MID(A34,12,2),MID(A34,10,2))</f>
         <v>42551</v>
       </c>
@@ -13135,7 +13142,7 @@
       <c r="B35" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="5" t="n">
         <f aca="false">DATE(MID(A35,14,4),MID(A35,12,2),MID(A35,10,2))</f>
         <v>42551</v>
       </c>
@@ -13172,7 +13179,7 @@
       <c r="B36" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="5" t="n">
         <f aca="false">DATE(MID(A36,14,4),MID(A36,12,2),MID(A36,10,2))</f>
         <v>42551</v>
       </c>
@@ -13209,7 +13216,7 @@
       <c r="B37" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="5" t="n">
         <f aca="false">DATE(MID(A37,14,4),MID(A37,12,2),MID(A37,10,2))</f>
         <v>42551</v>
       </c>
@@ -13246,7 +13253,7 @@
       <c r="B38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="5" t="n">
         <f aca="false">DATE(MID(A38,14,4),MID(A38,12,2),MID(A38,10,2))</f>
         <v>42916</v>
       </c>
@@ -13283,7 +13290,7 @@
       <c r="B39" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="5" t="n">
         <f aca="false">DATE(MID(A39,14,4),MID(A39,12,2),MID(A39,10,2))</f>
         <v>42916</v>
       </c>
@@ -13320,7 +13327,7 @@
       <c r="B40" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="5" t="n">
         <f aca="false">DATE(MID(A40,14,4),MID(A40,12,2),MID(A40,10,2))</f>
         <v>42916</v>
       </c>
@@ -13357,7 +13364,7 @@
       <c r="B41" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="5" t="n">
         <f aca="false">DATE(MID(A41,14,4),MID(A41,12,2),MID(A41,10,2))</f>
         <v>42916</v>
       </c>
@@ -13394,7 +13401,7 @@
       <c r="B42" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="5" t="n">
         <f aca="false">DATE(MID(A42,14,4),MID(A42,12,2),MID(A42,10,2))</f>
         <v>42916</v>
       </c>
@@ -13431,7 +13438,7 @@
       <c r="B43" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="5" t="n">
         <f aca="false">DATE(MID(A43,14,4),MID(A43,12,2),MID(A43,10,2))</f>
         <v>42916</v>
       </c>
@@ -13468,7 +13475,7 @@
       <c r="B44" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="5" t="n">
         <f aca="false">DATE(MID(A44,14,4),MID(A44,12,2),MID(A44,10,2))</f>
         <v>43281</v>
       </c>
@@ -13505,7 +13512,7 @@
       <c r="B45" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="5" t="n">
         <f aca="false">DATE(MID(A45,14,4),MID(A45,12,2),MID(A45,10,2))</f>
         <v>43281</v>
       </c>
@@ -13542,7 +13549,7 @@
       <c r="B46" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="5" t="n">
         <f aca="false">DATE(MID(A46,14,4),MID(A46,12,2),MID(A46,10,2))</f>
         <v>43281</v>
       </c>
@@ -13579,7 +13586,7 @@
       <c r="B47" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="5" t="n">
         <f aca="false">DATE(MID(A47,14,4),MID(A47,12,2),MID(A47,10,2))</f>
         <v>43281</v>
       </c>
@@ -13616,7 +13623,7 @@
       <c r="B48" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="5" t="n">
         <f aca="false">DATE(MID(A48,14,4),MID(A48,12,2),MID(A48,10,2))</f>
         <v>43281</v>
       </c>
@@ -13653,7 +13660,7 @@
       <c r="B49" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="5" t="n">
         <f aca="false">DATE(MID(A49,14,4),MID(A49,12,2),MID(A49,10,2))</f>
         <v>43281</v>
       </c>
@@ -13690,7 +13697,7 @@
       <c r="B50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="5" t="n">
         <f aca="false">DATE(MID(A50,14,4),MID(A50,12,2),MID(A50,10,2))</f>
         <v>43646</v>
       </c>
@@ -13727,7 +13734,7 @@
       <c r="B51" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="5" t="n">
         <f aca="false">DATE(MID(A51,14,4),MID(A51,12,2),MID(A51,10,2))</f>
         <v>43646</v>
       </c>
@@ -13764,7 +13771,7 @@
       <c r="B52" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="5" t="n">
         <f aca="false">DATE(MID(A52,14,4),MID(A52,12,2),MID(A52,10,2))</f>
         <v>43646</v>
       </c>
@@ -13801,7 +13808,7 @@
       <c r="B53" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="5" t="n">
         <f aca="false">DATE(MID(A53,14,4),MID(A53,12,2),MID(A53,10,2))</f>
         <v>43646</v>
       </c>
@@ -13838,7 +13845,7 @@
       <c r="B54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="5" t="n">
         <f aca="false">DATE(MID(A54,14,4),MID(A54,12,2),MID(A54,10,2))</f>
         <v>43646</v>
       </c>
@@ -13875,7 +13882,7 @@
       <c r="B55" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="5" t="n">
         <f aca="false">DATE(MID(A55,14,4),MID(A55,12,2),MID(A55,10,2))</f>
         <v>43646</v>
       </c>
@@ -13912,7 +13919,7 @@
       <c r="B56" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="5" t="n">
         <f aca="false">DATE(MID(A56,14,4),MID(A56,12,2),MID(A56,10,2))</f>
         <v>44012</v>
       </c>
@@ -13949,7 +13956,7 @@
       <c r="B57" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="5" t="n">
         <f aca="false">DATE(MID(A57,14,4),MID(A57,12,2),MID(A57,10,2))</f>
         <v>44012</v>
       </c>
@@ -13986,7 +13993,7 @@
       <c r="B58" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="5" t="n">
         <f aca="false">DATE(MID(A58,14,4),MID(A58,12,2),MID(A58,10,2))</f>
         <v>44012</v>
       </c>
@@ -14023,7 +14030,7 @@
       <c r="B59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="5" t="n">
         <f aca="false">DATE(MID(A59,14,4),MID(A59,12,2),MID(A59,10,2))</f>
         <v>44012</v>
       </c>
@@ -14060,7 +14067,7 @@
       <c r="B60" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="5" t="n">
         <f aca="false">DATE(MID(A60,14,4),MID(A60,12,2),MID(A60,10,2))</f>
         <v>44012</v>
       </c>
@@ -14097,7 +14104,7 @@
       <c r="B61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="5" t="n">
         <f aca="false">DATE(MID(A61,14,4),MID(A61,12,2),MID(A61,10,2))</f>
         <v>44012</v>
       </c>
@@ -14134,7 +14141,7 @@
       <c r="B62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="5" t="n">
         <f aca="false">DATE(MID(A62,14,4),MID(A62,12,2),MID(A62,10,2))</f>
         <v>44377</v>
       </c>
@@ -14171,7 +14178,7 @@
       <c r="B63" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="5" t="n">
         <f aca="false">DATE(MID(A63,14,4),MID(A63,12,2),MID(A63,10,2))</f>
         <v>44377</v>
       </c>
@@ -14208,7 +14215,7 @@
       <c r="B64" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="5" t="n">
         <f aca="false">DATE(MID(A64,14,4),MID(A64,12,2),MID(A64,10,2))</f>
         <v>44377</v>
       </c>
@@ -14245,7 +14252,7 @@
       <c r="B65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="5" t="n">
         <f aca="false">DATE(MID(A65,14,4),MID(A65,12,2),MID(A65,10,2))</f>
         <v>44377</v>
       </c>
@@ -14282,7 +14289,7 @@
       <c r="B66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="5" t="n">
         <f aca="false">DATE(MID(A66,14,4),MID(A66,12,2),MID(A66,10,2))</f>
         <v>44377</v>
       </c>
@@ -14319,7 +14326,7 @@
       <c r="B67" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="5" t="n">
         <f aca="false">DATE(MID(A67,14,4),MID(A67,12,2),MID(A67,10,2))</f>
         <v>44377</v>
       </c>
@@ -14356,7 +14363,7 @@
       <c r="B68" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="5" t="n">
         <f aca="false">DATE(MID(A68,14,4),MID(A68,12,2),MID(A68,10,2))</f>
         <v>44742</v>
       </c>
@@ -14393,7 +14400,7 @@
       <c r="B69" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="5" t="n">
         <f aca="false">DATE(MID(A69,14,4),MID(A69,12,2),MID(A69,10,2))</f>
         <v>44742</v>
       </c>
@@ -14430,7 +14437,7 @@
       <c r="B70" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="5" t="n">
         <f aca="false">DATE(MID(A70,14,4),MID(A70,12,2),MID(A70,10,2))</f>
         <v>44742</v>
       </c>
@@ -14467,7 +14474,7 @@
       <c r="B71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="5" t="n">
         <f aca="false">DATE(MID(A71,14,4),MID(A71,12,2),MID(A71,10,2))</f>
         <v>44742</v>
       </c>
@@ -14504,7 +14511,7 @@
       <c r="B72" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="5" t="n">
         <f aca="false">DATE(MID(A72,14,4),MID(A72,12,2),MID(A72,10,2))</f>
         <v>44742</v>
       </c>
@@ -14541,7 +14548,7 @@
       <c r="B73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="5" t="n">
         <f aca="false">DATE(MID(A73,14,4),MID(A73,12,2),MID(A73,10,2))</f>
         <v>44742</v>
       </c>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="658">
   <si>
     <t xml:space="preserve">gdenr</t>
   </si>
@@ -1820,6 +1820,12 @@
   </si>
   <si>
     <t xml:space="preserve">mittelbereich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kitaansatz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schulansatz</t>
   </si>
   <si>
     <t xml:space="preserve">landesdurchschnSTK</t>
@@ -2348,7 +2354,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2358,10 +2364,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2731,7 +2733,7 @@
       <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="G4" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2756,7 +2758,7 @@
       <c r="F5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2781,7 +2783,7 @@
       <c r="F6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="3" t="b">
+      <c r="G6" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2806,7 +2808,7 @@
       <c r="F7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="b">
+      <c r="G7" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="F8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3" t="b">
+      <c r="G8" s="0" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -3102,15 +3104,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -3123,8 +3128,14 @@
       <c r="D1" s="0" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="0" t="s">
+        <v>591</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>10</v>
       </c>
@@ -3137,8 +3148,11 @@
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>20</v>
       </c>
@@ -3151,8 +3165,11 @@
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>30</v>
       </c>
@@ -3165,16 +3182,25 @@
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2023</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>50</v>
       </c>
@@ -3184,8 +3210,11 @@
       <c r="D6" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
@@ -3196,6 +3225,12 @@
         <v>5136</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,52 +3277,52 @@
         <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3428,28 +3463,28 @@
         <v>24</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3728,54 +3763,54 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>621</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="13" t="n">
         <v>6385488.57</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F2" s="13" t="n">
+      <c r="D2" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F2" s="12" t="n">
         <v>4425</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="13" t="n">
         <v>1443.05</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I2" s="14" t="n">
+      <c r="H2" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I2" s="13" t="n">
         <v>1443.05</v>
       </c>
     </row>
@@ -3783,28 +3818,28 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="12" t="n">
         <v>2013</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="13" t="n">
         <v>6265488.43</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="13" t="n">
         <v>184010.17</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>-184010.17</v>
       </c>
-      <c r="F3" s="13" t="n">
+      <c r="F3" s="12" t="n">
         <v>4362</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="13" t="n">
         <v>1436.38</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="13" t="n">
         <v>42.18</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="13" t="n">
         <v>1478.56</v>
       </c>
     </row>
@@ -3812,28 +3847,28 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="13" t="n">
         <v>6709759.44</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="13" t="n">
         <v>5012.22</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>-5012.22</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="12" t="n">
         <v>4333</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="13" t="n">
         <v>1548.53</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="13" t="n">
         <v>1.16</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="13" t="n">
         <v>1549.68</v>
       </c>
     </row>
@@ -3841,28 +3876,28 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="13" t="n">
         <v>6511412.03</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="13" t="n">
         <v>390964.79</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>-390964.79</v>
       </c>
-      <c r="F5" s="13" t="n">
+      <c r="F5" s="12" t="n">
         <v>4317</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="13" t="n">
         <v>1508.32</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="13" t="n">
         <v>90.56</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="13" t="n">
         <v>1598.88</v>
       </c>
     </row>
@@ -3870,28 +3905,28 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="13" t="n">
         <v>6402381.96</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>786451.81</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>-786451.81</v>
       </c>
-      <c r="F6" s="13" t="n">
+      <c r="F6" s="12" t="n">
         <v>4259</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="13" t="n">
         <v>1503.26</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="13" t="n">
         <v>184.66</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="13" t="n">
         <v>1687.92</v>
       </c>
     </row>
@@ -3899,28 +3934,28 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="13" t="n">
         <v>6519157.05</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F7" s="13" t="n">
+      <c r="D7" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F7" s="12" t="n">
         <v>4246</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="13" t="n">
         <v>1535.36</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="H7" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I7" s="13" t="n">
         <v>1535.36</v>
       </c>
     </row>
@@ -3928,28 +3963,28 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="13" t="n">
         <v>6250854.95</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F8" s="13" t="n">
+      <c r="D8" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F8" s="12" t="n">
         <v>4190</v>
       </c>
-      <c r="G8" s="14" t="n">
+      <c r="G8" s="13" t="n">
         <v>1491.85</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I8" s="14" t="n">
+      <c r="H8" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I8" s="13" t="n">
         <v>1491.85</v>
       </c>
     </row>
@@ -3957,28 +3992,28 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="13" t="n">
         <v>5969064.28</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F9" s="13" t="n">
+      <c r="D9" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" s="12" t="n">
         <v>4146</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="13" t="n">
         <v>1439.72</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="H9" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I9" s="13" t="n">
         <v>1439.72</v>
       </c>
     </row>
@@ -3986,28 +4021,28 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="13" t="n">
         <v>5708359.05</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F10" s="13" t="n">
+      <c r="D10" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F10" s="12" t="n">
         <v>4159</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="13" t="n">
         <v>1372.53</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="H10" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I10" s="13" t="n">
         <v>1372.53</v>
       </c>
     </row>
@@ -4015,28 +4050,28 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C11" s="13" t="n">
         <v>5497234.94</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="F11" s="13" t="n">
+      <c r="D11" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="F11" s="12" t="n">
         <v>4162</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="13" t="n">
         <v>1320.82</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>622</v>
-      </c>
-      <c r="I11" s="14" t="n">
+      <c r="H11" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I11" s="13" t="n">
         <v>1320.82</v>
       </c>
     </row>
@@ -4044,28 +4079,28 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C12" s="13" t="n">
         <v>7410064.94</v>
       </c>
-      <c r="D12" s="14" t="n">
+      <c r="D12" s="13" t="n">
         <v>354895</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="13" t="n">
         <v>-354895</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="12" t="n">
         <v>4162</v>
       </c>
-      <c r="G12" s="14" t="n">
+      <c r="G12" s="13" t="n">
         <v>1780.41</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="13" t="n">
         <v>85.27</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="13" t="n">
         <v>1865.68</v>
       </c>
     </row>
@@ -4103,60 +4138,60 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>623</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>630</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="C2" s="14" t="n">
+      <c r="C2" s="13" t="n">
         <v>2727.82</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="13" t="n">
         <v>528925.46</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="13" t="n">
         <v>1409624.41</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="13" t="n">
         <v>1650709.8</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="13" t="n">
         <v>157917.4</v>
       </c>
-      <c r="H2" s="14" t="n">
+      <c r="H2" s="13" t="n">
         <v>19367</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="13" t="n">
         <v>172849.77</v>
       </c>
-      <c r="J2" s="16" t="n">
+      <c r="J2" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,31 +4199,31 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="C3" s="14" t="n">
+      <c r="C3" s="13" t="n">
         <v>2791.17</v>
       </c>
-      <c r="D3" s="14" t="n">
+      <c r="D3" s="13" t="n">
         <v>568221.66</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="13" t="n">
         <v>1484210.38</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="13" t="n">
         <v>1633467.88</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="13" t="n">
         <v>160934.08</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="13" t="n">
         <v>19207</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="13" t="n">
         <v>165025.23</v>
       </c>
-      <c r="J3" s="16" t="n">
+      <c r="J3" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4196,31 +4231,31 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="C4" s="14" t="n">
+      <c r="C4" s="13" t="n">
         <v>2198.31</v>
       </c>
-      <c r="D4" s="14" t="n">
+      <c r="D4" s="13" t="n">
         <v>568906.21</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="13" t="n">
         <v>1853855.12</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="13" t="n">
         <v>1781490.54</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="13" t="n">
         <v>203117.82</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="13" t="n">
         <v>18698</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="13" t="n">
         <v>212593.42</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4228,31 +4263,31 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="13" t="n">
         <v>2709.26</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="13" t="n">
         <v>573022.32</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>1574157.95</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="13" t="n">
         <v>1964102.55</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="13" t="n">
         <v>245257.77</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="13" t="n">
         <v>19392.5</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="13" t="n">
         <v>179163.46</v>
       </c>
-      <c r="J5" s="16" t="n">
+      <c r="J5" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4260,31 +4295,31 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="13" t="n">
         <v>2737.86</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>573646.29</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>2162024.44</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="13" t="n">
         <v>2080181.16</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="13" t="n">
         <v>281499.32</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="13" t="n">
         <v>20093</v>
       </c>
-      <c r="I6" s="14" t="n">
+      <c r="I6" s="13" t="n">
         <v>204436.67</v>
       </c>
-      <c r="J6" s="16" t="n">
+      <c r="J6" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4292,31 +4327,31 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="13" t="n">
         <v>2656.77</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="13" t="n">
         <v>584296.36</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>1376499.39</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="13" t="n">
         <v>1992235.61</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="13" t="n">
         <v>301241.94</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="13" t="n">
         <v>20674</v>
       </c>
-      <c r="I7" s="14" t="n">
+      <c r="I7" s="13" t="n">
         <v>151327.23</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4354,30 +4389,30 @@
       <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>636</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="13" t="n">
+      <c r="B2" s="12" t="n">
         <v>2012</v>
       </c>
     </row>
@@ -4385,7 +4420,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="12" t="n">
         <v>2013</v>
       </c>
     </row>
@@ -4393,7 +4428,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="12" t="n">
         <v>2014</v>
       </c>
     </row>
@@ -4401,25 +4436,25 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="14" t="n">
+      <c r="C5" s="13" t="n">
         <v>232995.22</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="13" t="n">
         <v>236536.54</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="13" t="n">
         <v>1614453</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="13" t="n">
         <v>1027379</v>
       </c>
-      <c r="G5" s="17" t="n">
+      <c r="G5" s="16" t="n">
         <v>0.44</v>
       </c>
-      <c r="H5" s="17" t="n">
+      <c r="H5" s="16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4427,25 +4462,25 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="14" t="n">
+      <c r="C6" s="13" t="n">
         <v>216353.68</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="13" t="n">
         <v>248516.02</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="13" t="n">
         <v>1512142</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="13" t="n">
         <v>957953</v>
       </c>
-      <c r="G6" s="17" t="n">
+      <c r="G6" s="16" t="n">
         <v>0.45</v>
       </c>
-      <c r="H6" s="17" t="n">
+      <c r="H6" s="16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4453,25 +4488,25 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="14" t="n">
+      <c r="C7" s="13" t="n">
         <v>244842.22</v>
       </c>
-      <c r="D7" s="14" t="n">
+      <c r="D7" s="13" t="n">
         <v>275063.38</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="13" t="n">
         <v>1590415</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="13" t="n">
         <v>934268</v>
       </c>
-      <c r="G7" s="17" t="n">
+      <c r="G7" s="16" t="n">
         <v>0.44</v>
       </c>
-      <c r="H7" s="17" t="n">
+      <c r="H7" s="16" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -4479,25 +4514,25 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="14" t="n">
+      <c r="C8" s="13" t="n">
         <v>278044.86</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="13" t="n">
         <v>282950.96</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="13" t="n">
         <v>1773893</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="13" t="n">
         <v>1042692</v>
       </c>
-      <c r="G8" s="17" t="n">
+      <c r="G8" s="16" t="n">
         <v>0.44</v>
       </c>
-      <c r="H8" s="17" t="n">
+      <c r="H8" s="16" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4505,25 +4540,25 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="14" t="n">
+      <c r="C9" s="13" t="n">
         <v>326547</v>
       </c>
-      <c r="D9" s="14" t="n">
+      <c r="D9" s="13" t="n">
         <v>257907.94</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="13" t="n">
         <v>1877696</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="13" t="n">
         <v>1108200</v>
       </c>
-      <c r="G9" s="17" t="n">
+      <c r="G9" s="16" t="n">
         <v>0.44</v>
       </c>
-      <c r="H9" s="17" t="n">
+      <c r="H9" s="16" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4531,25 +4566,25 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="13" t="n">
         <v>312702</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="13" t="n">
         <v>145597.22</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="13" t="n">
         <v>2026160</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="13" t="n">
         <v>1157806</v>
       </c>
-      <c r="G10" s="17" t="n">
+      <c r="G10" s="16" t="n">
         <v>0.455</v>
       </c>
-      <c r="H10" s="17" t="n">
+      <c r="H10" s="16" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4557,13 +4592,13 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="G11" s="18" t="n">
+      <c r="G11" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H11" s="18" t="n">
+      <c r="H11" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4571,13 +4606,13 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="G12" s="18" t="n">
+      <c r="G12" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="H12" s="18" t="n">
+      <c r="H12" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4585,13 +4620,13 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="18" t="n">
         <v>2022</v>
       </c>
-      <c r="G13" s="18" t="n">
+      <c r="G13" s="17" t="n">
         <v>0.4</v>
       </c>
-      <c r="H13" s="18" t="n">
+      <c r="H13" s="17" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4613,7 +4648,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -4633,16 +4668,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4652,16 +4687,16 @@
       <c r="B2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="20" t="n">
+      <c r="C2" s="19" t="n">
         <v>236536.54</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="19" t="n">
         <v>1614453</v>
       </c>
-      <c r="E2" s="20" t="n">
+      <c r="E2" s="19" t="n">
         <v>1027379</v>
       </c>
-      <c r="F2" s="20" t="n">
+      <c r="F2" s="19" t="n">
         <v>232995.22</v>
       </c>
     </row>
@@ -4672,16 +4707,16 @@
       <c r="B3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="19" t="n">
         <v>248516.02</v>
       </c>
-      <c r="D3" s="20" t="n">
+      <c r="D3" s="19" t="n">
         <v>1512142</v>
       </c>
-      <c r="E3" s="20" t="n">
+      <c r="E3" s="19" t="n">
         <v>957953</v>
       </c>
-      <c r="F3" s="20" t="n">
+      <c r="F3" s="19" t="n">
         <v>216353.68</v>
       </c>
     </row>
@@ -4692,16 +4727,16 @@
       <c r="B4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="19" t="n">
         <v>275063.38</v>
       </c>
-      <c r="D4" s="20" t="n">
+      <c r="D4" s="19" t="n">
         <v>1590415</v>
       </c>
-      <c r="E4" s="20" t="n">
+      <c r="E4" s="19" t="n">
         <v>934268</v>
       </c>
-      <c r="F4" s="20" t="n">
+      <c r="F4" s="19" t="n">
         <v>244842.22</v>
       </c>
     </row>
@@ -4712,16 +4747,16 @@
       <c r="B5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="19" t="n">
         <v>282950.96</v>
       </c>
-      <c r="D5" s="20" t="n">
+      <c r="D5" s="19" t="n">
         <v>1773893</v>
       </c>
-      <c r="E5" s="20" t="n">
+      <c r="E5" s="19" t="n">
         <v>1042692</v>
       </c>
-      <c r="F5" s="20" t="n">
+      <c r="F5" s="19" t="n">
         <v>278044.86</v>
       </c>
     </row>
@@ -4732,16 +4767,16 @@
       <c r="B6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="19" t="n">
         <v>257907.94</v>
       </c>
-      <c r="D6" s="20" t="n">
+      <c r="D6" s="19" t="n">
         <v>1877696</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="19" t="n">
         <v>1108200</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="19" t="n">
         <v>326547</v>
       </c>
     </row>
@@ -4752,16 +4787,16 @@
       <c r="B7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="19" t="n">
         <v>145597.22</v>
       </c>
-      <c r="D7" s="20" t="n">
+      <c r="D7" s="19" t="n">
         <v>2026160</v>
       </c>
-      <c r="E7" s="20" t="n">
+      <c r="E7" s="19" t="n">
         <v>1157806</v>
       </c>
-      <c r="F7" s="20" t="n">
+      <c r="F7" s="19" t="n">
         <v>312702</v>
       </c>
     </row>
@@ -4772,16 +4807,16 @@
       <c r="B8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="19" t="n">
         <v>114200</v>
       </c>
-      <c r="D8" s="20" t="n">
+      <c r="D8" s="19" t="n">
         <v>2019500</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="19" t="n">
         <v>1154000</v>
       </c>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="19" t="n">
         <v>315200</v>
       </c>
     </row>
@@ -4792,16 +4827,16 @@
       <c r="B9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="19" t="n">
         <v>107000</v>
       </c>
-      <c r="D9" s="20" t="n">
+      <c r="D9" s="19" t="n">
         <v>1902250</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="19" t="n">
         <v>1154170</v>
       </c>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="19" t="n">
         <v>340400</v>
       </c>
     </row>
@@ -4834,322 +4869,322 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>643</v>
       </c>
+      <c r="E1" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B2" s="25" t="n">
+      <c r="A2" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="24" t="n">
         <v>2007</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="n">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13" t="n">
         <v>199726.91</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="13" t="n">
         <v>16828364.74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" s="25" t="n">
+      <c r="A3" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" s="24" t="n">
         <v>2008</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="14" t="n">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13" t="n">
         <v>86346.51</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="13" t="n">
         <v>17282095.11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="24" t="n">
         <v>2009</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="26" t="n">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="25" t="n">
         <v>-705113.32</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="13" t="n">
         <v>16576981.79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B5" s="25" t="n">
+      <c r="A5" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="24" t="n">
         <v>2010</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="14" t="n">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13" t="n">
         <v>78487.38</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="13" t="n">
         <v>16655469.17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" s="25" t="n">
+      <c r="A6" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" s="24" t="n">
         <v>2011</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28" t="n">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27" t="n">
         <v>-361134.89</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="13" t="n">
         <v>16294334.28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" s="25" t="n">
+      <c r="A7" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="24" t="n">
         <v>2012</v>
       </c>
-      <c r="C7" s="29" t="n">
+      <c r="C7" s="28" t="n">
         <v>5399856.84</v>
       </c>
-      <c r="D7" s="29" t="n">
+      <c r="D7" s="28" t="n">
         <v>5519390.94</v>
       </c>
-      <c r="E7" s="30" t="n">
+      <c r="E7" s="29" t="n">
         <v>-119534.1</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="13" t="n">
         <v>16174800.18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="25" t="n">
+      <c r="A8" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="24" t="n">
         <v>2013</v>
       </c>
-      <c r="C8" s="29" t="n">
+      <c r="C8" s="28" t="n">
         <v>5291224.3</v>
       </c>
-      <c r="D8" s="29" t="n">
+      <c r="D8" s="28" t="n">
         <v>5562909.78</v>
       </c>
-      <c r="E8" s="30" t="n">
+      <c r="E8" s="29" t="n">
         <v>-271685.48</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="13" t="n">
         <v>15903114.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B9" s="25" t="n">
+      <c r="A9" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="24" t="n">
         <v>2014</v>
       </c>
-      <c r="C9" s="29" t="n">
+      <c r="C9" s="28" t="n">
         <v>5524842.28</v>
       </c>
-      <c r="D9" s="29" t="n">
+      <c r="D9" s="28" t="n">
         <v>5911672.35</v>
       </c>
-      <c r="E9" s="30" t="n">
+      <c r="E9" s="29" t="n">
         <v>-386830.07</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="13" t="n">
         <v>15516284.63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B10" s="25" t="n">
+      <c r="A10" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" s="24" t="n">
         <v>2015</v>
       </c>
-      <c r="C10" s="29" t="n">
+      <c r="C10" s="28" t="n">
         <v>5377605.07</v>
       </c>
-      <c r="D10" s="29" t="n">
+      <c r="D10" s="28" t="n">
         <v>5943087.47</v>
       </c>
-      <c r="E10" s="30" t="n">
+      <c r="E10" s="29" t="n">
         <v>-565482.4</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="13" t="n">
         <v>14950802.23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B11" s="25" t="n">
+      <c r="A11" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="24" t="n">
         <v>2016</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="28" t="n">
         <v>5432976.92</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="28" t="n">
         <v>6051432.46</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="29" t="n">
         <v>-618455.54</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="13" t="n">
         <v>14332346.69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B12" s="25" t="n">
+      <c r="A12" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" s="24" t="n">
         <v>2017</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="28" t="n">
         <v>6589880.47</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D12" s="28" t="n">
         <v>6322141.41</v>
       </c>
-      <c r="E12" s="29" t="n">
+      <c r="E12" s="28" t="n">
         <v>267739.06</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="13" t="n">
         <v>14600085.75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B13" s="25" t="n">
+      <c r="A13" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" s="24" t="n">
         <v>2018</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="28" t="n">
         <v>6313718.44</v>
       </c>
-      <c r="D13" s="29" t="n">
+      <c r="D13" s="28" t="n">
         <v>6549131.57</v>
       </c>
-      <c r="E13" s="30" t="n">
+      <c r="E13" s="29" t="n">
         <v>-235413.13</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="13" t="n">
         <v>14364672.62</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B14" s="25" t="n">
+      <c r="A14" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" s="24" t="n">
         <v>2019</v>
       </c>
-      <c r="C14" s="29" t="n">
+      <c r="C14" s="28" t="n">
         <v>7581117.11</v>
       </c>
-      <c r="D14" s="29" t="n">
+      <c r="D14" s="28" t="n">
         <v>6391960.57</v>
       </c>
-      <c r="E14" s="29" t="n">
+      <c r="E14" s="28" t="n">
         <v>1189156.54</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="13" t="n">
         <v>15489077.25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B15" s="25" t="n">
+      <c r="A15" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" s="24" t="n">
         <v>2020</v>
       </c>
-      <c r="C15" s="29" t="n">
+      <c r="C15" s="28" t="n">
         <v>5985171.19</v>
       </c>
-      <c r="D15" s="29" t="n">
+      <c r="D15" s="28" t="n">
         <v>6181749.62</v>
       </c>
-      <c r="E15" s="30" t="n">
+      <c r="E15" s="29" t="n">
         <v>-196578.43</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="13" t="n">
         <v>15292498.82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B16" s="25" t="n">
+      <c r="A16" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B16" s="24" t="n">
         <v>2021</v>
       </c>
-      <c r="C16" s="29" t="n">
+      <c r="C16" s="28" t="n">
         <v>5871390</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D16" s="28" t="n">
         <v>6630300</v>
       </c>
-      <c r="E16" s="30" t="n">
+      <c r="E16" s="29" t="n">
         <v>-758910</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="13" t="n">
         <v>14533588.82</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B17" s="25" t="n">
+      <c r="A17" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B17" s="24" t="n">
         <v>2022</v>
       </c>
-      <c r="C17" s="29" t="n">
+      <c r="C17" s="28" t="n">
         <v>6565860</v>
       </c>
-      <c r="D17" s="29" t="n">
+      <c r="D17" s="28" t="n">
         <v>7363495</v>
       </c>
-      <c r="E17" s="30" t="n">
+      <c r="E17" s="29" t="n">
         <v>-797635</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="13" t="n">
         <v>13735953.82</v>
       </c>
     </row>
@@ -5178,223 +5213,223 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>644</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>645</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>612</v>
+      <c r="B1" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>646</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>2007</v>
       </c>
-      <c r="B2" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="34" t="n">
+      <c r="B2" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="33" t="n">
         <v>506976.21</v>
       </c>
-      <c r="D2" s="34" t="n">
+      <c r="D2" s="33" t="n">
         <v>91881.9</v>
       </c>
-      <c r="E2" s="34" t="n">
+      <c r="E2" s="33" t="n">
         <v>415094.31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>2008</v>
       </c>
-      <c r="B3" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="34" t="n">
+      <c r="B3" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="33" t="n">
         <v>436086.48</v>
       </c>
-      <c r="D3" s="34" t="n">
+      <c r="D3" s="33" t="n">
         <v>95447.2</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="33" t="n">
         <v>340639.28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="34" t="n">
+      <c r="B4" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="33" t="n">
         <v>266948.27</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="33" t="n">
         <v>104977.58</v>
       </c>
-      <c r="E4" s="34" t="n">
+      <c r="E4" s="33" t="n">
         <v>161970.69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="B5" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="34" t="n">
+      <c r="B5" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="33" t="n">
         <v>-25804.37</v>
       </c>
-      <c r="D5" s="34" t="n">
+      <c r="D5" s="33" t="n">
         <v>108918.06</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="33" t="n">
         <v>-134722.43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="34" t="n">
+      <c r="B6" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="33" t="n">
         <v>191145.78</v>
       </c>
-      <c r="D6" s="34" t="n">
+      <c r="D6" s="33" t="n">
         <v>115991.55</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="33" t="n">
         <v>75154.23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="34" t="n">
+      <c r="B7" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="33" t="n">
         <v>352415.64</v>
       </c>
-      <c r="D7" s="34" t="n">
+      <c r="D7" s="33" t="n">
         <v>131948.61</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="33" t="n">
         <v>220467.03</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>2013</v>
       </c>
-      <c r="B8" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="34" t="n">
+      <c r="B8" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="33" t="n">
         <v>286853.84</v>
       </c>
-      <c r="D8" s="34" t="n">
+      <c r="D8" s="33" t="n">
         <v>131816.48</v>
       </c>
-      <c r="E8" s="34" t="n">
+      <c r="E8" s="33" t="n">
         <v>155037.36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="34" t="n">
+      <c r="B9" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="33" t="n">
         <v>-286532.2</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="33" t="n">
         <v>163109.39</v>
       </c>
-      <c r="E9" s="34" t="n">
+      <c r="E9" s="33" t="n">
         <v>-449641.59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="B10" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="34" t="n">
+      <c r="B10" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="33" t="n">
         <v>-63720.19</v>
       </c>
-      <c r="D10" s="34" t="n">
+      <c r="D10" s="33" t="n">
         <v>200492.29</v>
       </c>
-      <c r="E10" s="34" t="n">
+      <c r="E10" s="33" t="n">
         <v>-264212.48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="B11" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="34" t="n">
+      <c r="B11" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="33" t="n">
         <v>72254.04</v>
       </c>
-      <c r="D11" s="34" t="n">
+      <c r="D11" s="33" t="n">
         <v>245832.87</v>
       </c>
-      <c r="E11" s="34" t="n">
+      <c r="E11" s="33" t="n">
         <v>-173578.83</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="34" t="n">
+      <c r="B12" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="33" t="n">
         <v>628841.18</v>
       </c>
-      <c r="D12" s="34" t="n">
+      <c r="D12" s="33" t="n">
         <v>235617.31</v>
       </c>
-      <c r="E12" s="34" t="n">
+      <c r="E12" s="33" t="n">
         <v>393223.87</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="34" t="n">
+      <c r="B13" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="33" t="n">
         <v>430282.2</v>
       </c>
-      <c r="D13" s="34" t="n">
+      <c r="D13" s="33" t="n">
         <v>280803.92</v>
       </c>
-      <c r="E13" s="34" t="n">
+      <c r="E13" s="33" t="n">
         <v>149478.28</v>
       </c>
     </row>
@@ -5514,17 +5549,17 @@
       <c r="L2" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N2" s="5" t="n">
+      <c r="N2" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O2" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="P2" s="4" t="n">
         <v>44716</v>
       </c>
     </row>
@@ -5565,17 +5600,17 @@
       <c r="L3" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N3" s="5" t="n">
+      <c r="N3" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O3" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="P3" s="4" t="n">
         <v>44717</v>
       </c>
     </row>
@@ -5616,17 +5651,17 @@
       <c r="L4" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N4" s="5" t="n">
+      <c r="N4" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O4" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="P4" s="4" t="n">
         <v>44718</v>
       </c>
     </row>
@@ -5667,17 +5702,17 @@
       <c r="L5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N5" s="5" t="n">
+      <c r="N5" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O5" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="P5" s="4" t="n">
         <v>44719</v>
       </c>
     </row>
@@ -5718,17 +5753,17 @@
       <c r="L6" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M6" s="4" t="n">
+      <c r="M6" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N6" s="5" t="n">
+      <c r="N6" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O6" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="P6" s="4" t="n">
         <v>44720</v>
       </c>
     </row>
@@ -5769,17 +5804,17 @@
       <c r="L7" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M7" s="4" t="n">
+      <c r="M7" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N7" s="5" t="n">
+      <c r="N7" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O7" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="P7" s="4" t="n">
         <v>44721</v>
       </c>
     </row>
@@ -5820,17 +5855,17 @@
       <c r="L8" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N8" s="5" t="n">
+      <c r="N8" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O8" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="P8" s="4" t="n">
         <v>44722</v>
       </c>
     </row>
@@ -5871,17 +5906,17 @@
       <c r="L9" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M9" s="4" t="n">
+      <c r="M9" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N9" s="5" t="n">
+      <c r="N9" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O9" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="P9" s="4" t="n">
         <v>44723</v>
       </c>
     </row>
@@ -5922,17 +5957,17 @@
       <c r="L10" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M10" s="4" t="n">
+      <c r="M10" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N10" s="5" t="n">
+      <c r="N10" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O10" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="P10" s="4" t="n">
         <v>44724</v>
       </c>
     </row>
@@ -5973,17 +6008,17 @@
       <c r="L11" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O11" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="4" t="n">
         <v>44725</v>
       </c>
     </row>
@@ -6024,17 +6059,17 @@
       <c r="L12" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O12" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="4" t="n">
         <v>44726</v>
       </c>
     </row>
@@ -6075,17 +6110,17 @@
       <c r="L13" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M13" s="4" t="n">
+      <c r="M13" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N13" s="5" t="n">
+      <c r="N13" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O13" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="P13" s="4" t="n">
         <v>44727</v>
       </c>
     </row>
@@ -6126,17 +6161,17 @@
       <c r="L14" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M14" s="4" t="n">
+      <c r="M14" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N14" s="5" t="n">
+      <c r="N14" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O14" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="P14" s="4" t="n">
         <v>44728</v>
       </c>
     </row>
@@ -6177,17 +6212,17 @@
       <c r="L15" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M15" s="4" t="n">
+      <c r="M15" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N15" s="5" t="n">
+      <c r="N15" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O15" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="P15" s="4" t="n">
         <v>44729</v>
       </c>
     </row>
@@ -6228,17 +6263,17 @@
       <c r="L16" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N16" s="5" t="n">
+      <c r="N16" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O16" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="P16" s="4" t="n">
         <v>44730</v>
       </c>
     </row>
@@ -6279,17 +6314,17 @@
       <c r="L17" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M17" s="4" t="n">
+      <c r="M17" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N17" s="5" t="n">
+      <c r="N17" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O17" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="P17" s="4" t="n">
         <v>44731</v>
       </c>
     </row>
@@ -6330,17 +6365,17 @@
       <c r="L18" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M18" s="4" t="n">
+      <c r="M18" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N18" s="5" t="n">
+      <c r="N18" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O18" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="P18" s="4" t="n">
         <v>44732</v>
       </c>
     </row>
@@ -6381,17 +6416,17 @@
       <c r="L19" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M19" s="4" t="n">
+      <c r="M19" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N19" s="5" t="n">
+      <c r="N19" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O19" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="P19" s="4" t="n">
         <v>44733</v>
       </c>
     </row>
@@ -6432,17 +6467,17 @@
       <c r="L20" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="M20" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N20" s="5" t="n">
+      <c r="N20" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O20" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="P20" s="4" t="n">
         <v>44734</v>
       </c>
     </row>
@@ -6483,17 +6518,17 @@
       <c r="L21" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M21" s="4" t="n">
+      <c r="M21" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N21" s="5" t="n">
+      <c r="N21" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O21" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="P21" s="4" t="n">
         <v>44735</v>
       </c>
     </row>
@@ -6534,17 +6569,17 @@
       <c r="L22" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M22" s="4" t="n">
+      <c r="M22" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N22" s="5" t="n">
+      <c r="N22" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O22" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="P22" s="4" t="n">
         <v>44736</v>
       </c>
     </row>
@@ -6585,17 +6620,17 @@
       <c r="L23" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="M23" s="4" t="n">
+      <c r="M23" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N23" s="5" t="n">
+      <c r="N23" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O23" s="2" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="P23" s="4" t="n">
         <v>44737</v>
       </c>
     </row>
@@ -6638,17 +6673,17 @@
       <c r="L24" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N24" s="5" t="n">
+      <c r="N24" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O24" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="P24" s="4" t="n">
         <v>44738</v>
       </c>
     </row>
@@ -6691,17 +6726,17 @@
       <c r="L25" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M25" s="4" t="n">
+      <c r="M25" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N25" s="5" t="n">
+      <c r="N25" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O25" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="P25" s="4" t="n">
         <v>44739</v>
       </c>
     </row>
@@ -6744,17 +6779,17 @@
       <c r="L26" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M26" s="4" t="n">
+      <c r="M26" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N26" s="5" t="n">
+      <c r="N26" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O26" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="P26" s="4" t="n">
         <v>44740</v>
       </c>
     </row>
@@ -6797,17 +6832,17 @@
       <c r="L27" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M27" s="4" t="n">
+      <c r="M27" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N27" s="5" t="n">
+      <c r="N27" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O27" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="P27" s="4" t="n">
         <v>44741</v>
       </c>
     </row>
@@ -6850,17 +6885,17 @@
       <c r="L28" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M28" s="4" t="n">
+      <c r="M28" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N28" s="5" t="n">
+      <c r="N28" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O28" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="P28" s="4" t="n">
         <v>44742</v>
       </c>
     </row>
@@ -6903,17 +6938,17 @@
       <c r="L29" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="M29" s="4" t="n">
+      <c r="M29" s="3" t="n">
         <v>44541</v>
       </c>
-      <c r="N29" s="5" t="n">
+      <c r="N29" s="4" t="n">
         <v>44197</v>
       </c>
       <c r="O29" s="2" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="P29" s="4" t="n">
         <v>44743</v>
       </c>
     </row>
@@ -6942,546 +6977,546 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>648</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="12" t="n">
         <v>1993</v>
       </c>
-      <c r="B2" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="13" t="n">
+      <c r="B2" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>240</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="12" t="n">
         <v>240</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="12" t="n">
         <v>320</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
+      <c r="A3" s="12" t="n">
         <v>1994</v>
       </c>
-      <c r="B3" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="13" t="n">
+      <c r="B3" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
+      <c r="A4" s="12" t="n">
         <v>1995</v>
       </c>
-      <c r="B4" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="13" t="n">
+      <c r="B4" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="n">
+      <c r="A5" s="12" t="n">
         <v>1996</v>
       </c>
-      <c r="B5" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="n">
+      <c r="B5" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="n">
+      <c r="A6" s="12" t="n">
         <v>1997</v>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13" t="n">
+      <c r="B6" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="n">
+      <c r="A7" s="12" t="n">
         <v>1998</v>
       </c>
-      <c r="B7" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="13" t="n">
+      <c r="B7" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="n">
+      <c r="A8" s="12" t="n">
         <v>1999</v>
       </c>
-      <c r="B8" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="B8" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="12" t="n">
         <v>290</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="12" t="n">
         <v>290</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="n">
+      <c r="A10" s="12" t="n">
         <v>2001</v>
       </c>
-      <c r="B10" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="13" t="n">
+      <c r="B10" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="n">
+      <c r="A11" s="12" t="n">
         <v>2002</v>
       </c>
-      <c r="B11" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="13" t="n">
+      <c r="B11" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="n">
+      <c r="A12" s="12" t="n">
         <v>2003</v>
       </c>
-      <c r="B12" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="13" t="n">
+      <c r="B12" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
+      <c r="A13" s="12" t="n">
         <v>2004</v>
       </c>
-      <c r="B13" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="13" t="n">
+      <c r="B13" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12" t="n">
         <v>270</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>310</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="12" t="n">
         <v>350</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="n">
+      <c r="A14" s="12" t="n">
         <v>2005</v>
       </c>
-      <c r="B14" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13" t="n">
+      <c r="B14" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="n">
+      <c r="A15" s="12" t="n">
         <v>2006</v>
       </c>
-      <c r="B15" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="B15" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="12" t="n">
         <v>2007</v>
       </c>
-      <c r="B16" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C16" s="13" t="n">
+      <c r="B16" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="n">
+      <c r="A17" s="12" t="n">
         <v>2008</v>
       </c>
-      <c r="B17" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" s="13" t="n">
+      <c r="B17" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
+      <c r="A18" s="12" t="n">
         <v>2009</v>
       </c>
-      <c r="B18" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="13" t="n">
+      <c r="B18" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
+      <c r="A19" s="12" t="n">
         <v>2010</v>
       </c>
-      <c r="B19" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="13" t="n">
+      <c r="B19" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
+      <c r="A20" s="12" t="n">
         <v>2011</v>
       </c>
-      <c r="B20" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="13" t="n">
+      <c r="B20" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="12" t="n">
         <v>340</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
+      <c r="A21" s="12" t="n">
         <v>2012</v>
       </c>
-      <c r="B21" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="13" t="n">
+      <c r="B21" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="12" t="n">
         <v>300</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="12" t="n">
         <v>340</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="12" t="n">
         <v>380</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
+      <c r="A22" s="12" t="n">
         <v>2013</v>
       </c>
-      <c r="B22" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" s="13" t="n">
+      <c r="B22" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12" t="n">
         <v>330</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="12" t="n">
         <v>360</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="12" t="n">
         <v>390</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
+      <c r="A23" s="12" t="n">
         <v>2014</v>
       </c>
-      <c r="B23" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C23" s="13" t="n">
+      <c r="B23" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" s="12" t="n">
         <v>350</v>
       </c>
-      <c r="D23" s="13" t="n">
+      <c r="D23" s="12" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="13" t="n">
+      <c r="E23" s="12" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="n">
+      <c r="A24" s="12" t="n">
         <v>2015</v>
       </c>
-      <c r="B24" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" s="13" t="n">
+      <c r="B24" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="n">
         <v>350</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="12" t="n">
         <v>375</v>
       </c>
-      <c r="E24" s="13" t="n">
+      <c r="E24" s="12" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="n">
+      <c r="A25" s="12" t="n">
         <v>2016</v>
       </c>
-      <c r="B25" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C25" s="13" t="n">
+      <c r="B25" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E25" s="13" t="n">
+      <c r="E25" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="n">
+      <c r="A26" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B26" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" s="13" t="n">
+      <c r="B26" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D26" s="13" t="n">
+      <c r="D26" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E26" s="13" t="n">
+      <c r="E26" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="n">
+      <c r="A27" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B27" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" s="13" t="n">
+      <c r="B27" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D27" s="13" t="n">
+      <c r="D27" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E27" s="13" t="n">
+      <c r="E27" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
+      <c r="A28" s="12" t="n">
         <v>2019</v>
       </c>
-      <c r="B28" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C28" s="13" t="n">
+      <c r="B28" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
+      <c r="A29" s="12" t="n">
         <v>2020</v>
       </c>
-      <c r="B29" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="13" t="n">
+      <c r="B29" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E29" s="13" t="n">
+      <c r="E29" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="12" t="n">
         <v>2021</v>
       </c>
-      <c r="B30" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="13" t="n">
+      <c r="B30" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E30" s="13" t="n">
+      <c r="E30" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="12" t="n">
         <v>2022</v>
       </c>
-      <c r="B31" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" s="13" t="n">
+      <c r="B31" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" s="12" t="n">
         <v>380</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="12" t="n">
         <v>400</v>
       </c>
-      <c r="E31" s="13" t="n">
+      <c r="E31" s="12" t="n">
         <v>420</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="n">
+      <c r="A32" s="18" t="n">
         <v>2023</v>
       </c>
-      <c r="B32" s="13" t="n">
-        <v>60</v>
-      </c>
-      <c r="C32" s="13" t="n">
+      <c r="B32" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" s="12" t="n">
         <v>510</v>
       </c>
-      <c r="D32" s="13" t="n">
+      <c r="D32" s="12" t="n">
         <v>510</v>
       </c>
-      <c r="E32" s="13" t="n">
+      <c r="E32" s="12" t="n">
         <v>440</v>
       </c>
     </row>
@@ -7510,317 +7545,317 @@
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="36" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>649</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>650</v>
-      </c>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>652</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>653</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>618</v>
+      <c r="F1" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B2" s="37" t="n">
+      <c r="A2" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" s="36" t="n">
         <v>2012</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="37" t="n">
         <v>6385488.57</v>
       </c>
-      <c r="D2" s="38" t="n">
+      <c r="D2" s="37" t="n">
         <f aca="false">F2+G2</f>
         <v>15522.66</v>
       </c>
-      <c r="E2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="38" t="n">
+      <c r="E2" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="37" t="n">
         <v>15522.66</v>
       </c>
-      <c r="H2" s="38" t="n">
+      <c r="H2" s="37" t="n">
         <v>4425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B3" s="37" t="n">
+      <c r="A3" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" s="36" t="n">
         <v>2013</v>
       </c>
-      <c r="C3" s="38" t="n">
+      <c r="C3" s="37" t="n">
         <v>6265488.43</v>
       </c>
-      <c r="D3" s="38" t="n">
+      <c r="D3" s="37" t="n">
         <f aca="false">F3+G3</f>
         <v>-184010.17</v>
       </c>
-      <c r="E3" s="38" t="n">
+      <c r="E3" s="37" t="n">
         <v>184010.17</v>
       </c>
-      <c r="F3" s="38" t="n">
+      <c r="F3" s="37" t="n">
         <v>-184010.17</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="38" t="n">
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="n">
         <v>4362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B4" s="37" t="n">
+      <c r="A4" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="36" t="n">
         <v>2014</v>
       </c>
-      <c r="C4" s="38" t="n">
+      <c r="C4" s="37" t="n">
         <v>6709759.44</v>
       </c>
-      <c r="D4" s="38" t="n">
+      <c r="D4" s="37" t="n">
         <f aca="false">F4+G4</f>
         <v>-5012.22</v>
       </c>
-      <c r="E4" s="38" t="n">
+      <c r="E4" s="37" t="n">
         <v>5012.22</v>
       </c>
-      <c r="F4" s="38" t="n">
+      <c r="F4" s="37" t="n">
         <v>-5012.22</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="38" t="n">
+      <c r="G4" s="38"/>
+      <c r="H4" s="37" t="n">
         <v>4333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B5" s="37" t="n">
+      <c r="A5" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" s="36" t="n">
         <v>2015</v>
       </c>
-      <c r="C5" s="38" t="n">
+      <c r="C5" s="37" t="n">
         <v>6511412.03</v>
       </c>
-      <c r="D5" s="38" t="n">
+      <c r="D5" s="37" t="n">
         <f aca="false">F5+G5</f>
         <v>-390964.79</v>
       </c>
-      <c r="E5" s="38" t="n">
+      <c r="E5" s="37" t="n">
         <v>390964.79</v>
       </c>
-      <c r="F5" s="38" t="n">
+      <c r="F5" s="37" t="n">
         <v>-390964.79</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="38" t="n">
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="n">
         <v>4317</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B6" s="37" t="n">
+      <c r="A6" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" s="36" t="n">
         <v>2016</v>
       </c>
-      <c r="C6" s="38" t="n">
+      <c r="C6" s="37" t="n">
         <v>6402381.96</v>
       </c>
-      <c r="D6" s="38" t="n">
+      <c r="D6" s="37" t="n">
         <f aca="false">F6+G6</f>
         <v>-786451.81</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="37" t="n">
         <v>786451.81</v>
       </c>
-      <c r="F6" s="38" t="n">
+      <c r="F6" s="37" t="n">
         <v>-786451.81</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="38" t="n">
+      <c r="G6" s="38"/>
+      <c r="H6" s="37" t="n">
         <v>4259</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" s="37" t="n">
+      <c r="A7" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" s="36" t="n">
         <v>2017</v>
       </c>
-      <c r="C7" s="38" t="n">
+      <c r="C7" s="37" t="n">
         <v>6519157.05</v>
       </c>
-      <c r="D7" s="38" t="n">
+      <c r="D7" s="37" t="n">
         <f aca="false">F7+G7</f>
         <v>129103.33</v>
       </c>
-      <c r="E7" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="38" t="n">
+      <c r="E7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="37" t="n">
         <v>129103.33</v>
       </c>
-      <c r="H7" s="38" t="n">
+      <c r="H7" s="37" t="n">
         <v>4246</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B8" s="37" t="n">
+      <c r="A8" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="36" t="n">
         <v>2018</v>
       </c>
-      <c r="C8" s="38" t="n">
+      <c r="C8" s="37" t="n">
         <v>6250854.95</v>
       </c>
-      <c r="D8" s="38" t="n">
+      <c r="D8" s="37" t="n">
         <f aca="false">F8+G8</f>
         <v>323829.07</v>
       </c>
-      <c r="E8" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="38" t="n">
+      <c r="E8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37" t="n">
         <v>323829.07</v>
       </c>
-      <c r="H8" s="38" t="n">
+      <c r="H8" s="37" t="n">
         <v>4190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B9" s="37" t="n">
+      <c r="A9" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" s="36" t="n">
         <v>2019</v>
       </c>
-      <c r="C9" s="38" t="n">
+      <c r="C9" s="37" t="n">
         <v>5969064.28</v>
       </c>
-      <c r="D9" s="38" t="n">
+      <c r="D9" s="37" t="n">
         <f aca="false">F9+G9</f>
         <v>350994.89</v>
       </c>
-      <c r="E9" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="38" t="n">
+      <c r="E9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="37" t="n">
         <v>350994.89</v>
       </c>
-      <c r="H9" s="38" t="n">
+      <c r="H9" s="37" t="n">
         <v>4146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B10" s="37" t="n">
+      <c r="A10" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" s="36" t="n">
         <v>2020</v>
       </c>
-      <c r="C10" s="38" t="n">
+      <c r="C10" s="37" t="n">
         <v>5708359.05</v>
       </c>
-      <c r="D10" s="38" t="n">
+      <c r="D10" s="37" t="n">
         <f aca="false">F10+G10</f>
         <v>333989.59</v>
       </c>
-      <c r="E10" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="38" t="n">
+      <c r="E10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="37" t="n">
         <v>333989.59</v>
       </c>
-      <c r="H10" s="38" t="n">
+      <c r="H10" s="37" t="n">
         <v>4159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B11" s="37" t="n">
+      <c r="A11" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" s="36" t="n">
         <v>2021</v>
       </c>
-      <c r="C11" s="38" t="n">
+      <c r="C11" s="37" t="n">
         <v>5497234.94</v>
       </c>
-      <c r="D11" s="38" t="n">
+      <c r="D11" s="37" t="n">
         <f aca="false">F11+G11</f>
         <v>-114051.45</v>
       </c>
-      <c r="E11" s="38" t="n">
+      <c r="E11" s="37" t="n">
         <v>114051.45</v>
       </c>
-      <c r="F11" s="38" t="n">
+      <c r="F11" s="37" t="n">
         <v>-114051.45</v>
       </c>
-      <c r="G11" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38" t="n">
+      <c r="G11" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37" t="n">
         <v>4162</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
-        <v>60</v>
-      </c>
-      <c r="B12" s="37" t="n">
+      <c r="A12" s="23" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" s="36" t="n">
         <v>2022</v>
       </c>
-      <c r="C12" s="38" t="n">
+      <c r="C12" s="37" t="n">
         <v>7410064.94</v>
       </c>
-      <c r="D12" s="38" t="n">
+      <c r="D12" s="37" t="n">
         <f aca="false">F12+G12</f>
         <v>-715236.51</v>
       </c>
-      <c r="E12" s="38" t="n">
+      <c r="E12" s="37" t="n">
         <v>715236.51</v>
       </c>
-      <c r="F12" s="38" t="n">
+      <c r="F12" s="37" t="n">
         <v>-715236.51</v>
       </c>
-      <c r="G12" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38" t="n">
+      <c r="G12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37" t="n">
         <v>4162</v>
       </c>
     </row>
@@ -7848,103 +7883,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="7.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="39" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="s">
-        <v>654</v>
+      <c r="A1" s="39" t="s">
+        <v>656</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="n">
+      <c r="A2" s="39" t="n">
         <v>2012</v>
       </c>
-      <c r="B2" s="41" t="n">
+      <c r="B2" s="40" t="n">
         <v>3153834</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="39" t="n">
         <v>2013</v>
       </c>
-      <c r="B3" s="41" t="n">
+      <c r="B3" s="40" t="n">
         <v>3334801</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="39" t="n">
         <v>2014</v>
       </c>
-      <c r="B4" s="41" t="n">
+      <c r="B4" s="40" t="n">
         <v>3739563</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="n">
+      <c r="A5" s="39" t="n">
         <v>2015</v>
       </c>
-      <c r="B5" s="41" t="n">
+      <c r="B5" s="40" t="n">
         <v>3601409</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="n">
+      <c r="A6" s="39" t="n">
         <v>2016</v>
       </c>
-      <c r="B6" s="41" t="n">
+      <c r="B6" s="40" t="n">
         <v>3347824</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="n">
+      <c r="A7" s="39" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="41" t="n">
+      <c r="B7" s="40" t="n">
         <v>3519523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="40" t="n">
+      <c r="A8" s="39" t="n">
         <v>2018</v>
       </c>
-      <c r="B8" s="41" t="n">
+      <c r="B8" s="40" t="n">
         <v>3900317</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="n">
+      <c r="A9" s="39" t="n">
         <v>2019</v>
       </c>
-      <c r="B9" s="41" t="n">
+      <c r="B9" s="40" t="n">
         <v>4146807</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="40" t="n">
+      <c r="A10" s="39" t="n">
         <v>2020</v>
       </c>
-      <c r="B10" s="41" t="n">
+      <c r="B10" s="40" t="n">
         <v>4336437</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="n">
+      <c r="A11" s="39" t="n">
         <v>2021</v>
       </c>
-      <c r="B11" s="41" t="n">
+      <c r="B11" s="40" t="n">
         <v>4313371</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="40" t="n">
+      <c r="A12" s="39" t="n">
         <v>2022</v>
       </c>
-      <c r="B12" s="41" t="n">
+      <c r="B12" s="40" t="n">
         <v>4147574</v>
       </c>
     </row>
@@ -8066,7 +8101,7 @@
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -8083,7 +8118,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -8100,7 +8135,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -8117,7 +8152,7 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -8134,7 +8169,7 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -8151,7 +8186,7 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -8168,7 +8203,7 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -8185,7 +8220,7 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -8202,7 +8237,7 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -8219,7 +8254,7 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -8236,7 +8271,7 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -8253,7 +8288,7 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -8270,7 +8305,7 @@
       <c r="A14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -8287,7 +8322,7 @@
       <c r="A15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -8304,7 +8339,7 @@
       <c r="A16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -8321,7 +8356,7 @@
       <c r="A17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -8338,7 +8373,7 @@
       <c r="A18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -8355,7 +8390,7 @@
       <c r="A19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -8372,7 +8407,7 @@
       <c r="A20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -8389,7 +8424,7 @@
       <c r="A21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -8406,7 +8441,7 @@
       <c r="A22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -8423,7 +8458,7 @@
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -8440,7 +8475,7 @@
       <c r="A24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -8457,7 +8492,7 @@
       <c r="A25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -8474,7 +8509,7 @@
       <c r="A26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -8491,7 +8526,7 @@
       <c r="A27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -8508,7 +8543,7 @@
       <c r="A28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -8525,7 +8560,7 @@
       <c r="A29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -8542,7 +8577,7 @@
       <c r="A30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -8559,7 +8594,7 @@
       <c r="A31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -8576,7 +8611,7 @@
       <c r="A32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -8593,7 +8628,7 @@
       <c r="A33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -8651,7 +8686,7 @@
       <c r="A2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B2" s="5" t="n">
+      <c r="B2" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -8668,7 +8703,7 @@
       <c r="A3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -8685,7 +8720,7 @@
       <c r="A4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -8702,7 +8737,7 @@
       <c r="A5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -8719,7 +8754,7 @@
       <c r="A6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -8736,7 +8771,7 @@
       <c r="A7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -8753,7 +8788,7 @@
       <c r="A8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -8770,7 +8805,7 @@
       <c r="A9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -8787,7 +8822,7 @@
       <c r="A10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -8804,7 +8839,7 @@
       <c r="A11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -8821,7 +8856,7 @@
       <c r="A12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>44742</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -8838,7 +8873,7 @@
       <c r="A13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -8855,7 +8890,7 @@
       <c r="A14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C14" s="0" t="s">
@@ -8872,7 +8907,7 @@
       <c r="A15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C15" s="0" t="s">
@@ -8889,7 +8924,7 @@
       <c r="A16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -8906,7 +8941,7 @@
       <c r="A17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -8923,7 +8958,7 @@
       <c r="A18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -8940,7 +8975,7 @@
       <c r="A19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -8957,7 +8992,7 @@
       <c r="A20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -8974,7 +9009,7 @@
       <c r="A21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C21" s="0" t="s">
@@ -8991,7 +9026,7 @@
       <c r="A22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C22" s="0" t="s">
@@ -9008,7 +9043,7 @@
       <c r="A23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="4" t="n">
         <v>44377</v>
       </c>
       <c r="C23" s="0" t="s">
@@ -9025,7 +9060,7 @@
       <c r="A24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -9036,7 +9071,7 @@
       <c r="A25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C25" s="0" t="s">
@@ -9047,7 +9082,7 @@
       <c r="A26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -9058,7 +9093,7 @@
       <c r="A27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C27" s="0" t="s">
@@ -9069,7 +9104,7 @@
       <c r="A28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C28" s="0" t="s">
@@ -9080,7 +9115,7 @@
       <c r="A29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C29" s="0" t="s">
@@ -9091,7 +9126,7 @@
       <c r="A30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C30" s="0" t="s">
@@ -9102,7 +9137,7 @@
       <c r="A31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C31" s="0" t="s">
@@ -9113,7 +9148,7 @@
       <c r="A32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C32" s="0" t="s">
@@ -9124,7 +9159,7 @@
       <c r="A33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C33" s="0" t="s">
@@ -9135,7 +9170,7 @@
       <c r="A34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="4" t="n">
         <v>44012</v>
       </c>
       <c r="C34" s="0" t="s">
@@ -9146,7 +9181,7 @@
       <c r="A35" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C35" s="0" t="s">
@@ -9157,7 +9192,7 @@
       <c r="A36" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C36" s="0" t="s">
@@ -9168,7 +9203,7 @@
       <c r="A37" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C37" s="0" t="s">
@@ -9179,7 +9214,7 @@
       <c r="A38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -9190,7 +9225,7 @@
       <c r="A39" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C39" s="0" t="s">
@@ -9201,7 +9236,7 @@
       <c r="A40" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C40" s="0" t="s">
@@ -9212,7 +9247,7 @@
       <c r="A41" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C41" s="0" t="s">
@@ -9223,7 +9258,7 @@
       <c r="A42" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C42" s="0" t="s">
@@ -9234,7 +9269,7 @@
       <c r="A43" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C43" s="0" t="s">
@@ -9245,7 +9280,7 @@
       <c r="A44" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C44" s="0" t="s">
@@ -9256,7 +9291,7 @@
       <c r="A45" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="4" t="n">
         <v>43646</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -9267,7 +9302,7 @@
       <c r="A46" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B46" s="5" t="n">
+      <c r="B46" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C46" s="0" t="s">
@@ -9278,7 +9313,7 @@
       <c r="A47" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B47" s="5" t="n">
+      <c r="B47" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C47" s="0" t="s">
@@ -9289,7 +9324,7 @@
       <c r="A48" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C48" s="0" t="s">
@@ -9300,7 +9335,7 @@
       <c r="A49" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C49" s="0" t="s">
@@ -9311,7 +9346,7 @@
       <c r="A50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C50" s="0" t="s">
@@ -9322,7 +9357,7 @@
       <c r="A51" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C51" s="0" t="s">
@@ -9333,7 +9368,7 @@
       <c r="A52" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -9344,7 +9379,7 @@
       <c r="A53" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C53" s="0" t="s">
@@ -9355,7 +9390,7 @@
       <c r="A54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -9366,7 +9401,7 @@
       <c r="A55" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B55" s="5" t="n">
+      <c r="B55" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C55" s="0" t="s">
@@ -9377,7 +9412,7 @@
       <c r="A56" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B56" s="5" t="n">
+      <c r="B56" s="4" t="n">
         <v>43281</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -9388,7 +9423,7 @@
       <c r="A57" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B57" s="5" t="n">
+      <c r="B57" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -9399,7 +9434,7 @@
       <c r="A58" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B58" s="5" t="n">
+      <c r="B58" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -9410,7 +9445,7 @@
       <c r="A59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -9421,7 +9456,7 @@
       <c r="A60" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C60" s="0" t="s">
@@ -9432,7 +9467,7 @@
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C61" s="0" t="s">
@@ -9443,7 +9478,7 @@
       <c r="A62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C62" s="0" t="s">
@@ -9454,7 +9489,7 @@
       <c r="A63" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C63" s="0" t="s">
@@ -9465,7 +9500,7 @@
       <c r="A64" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -9476,7 +9511,7 @@
       <c r="A65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C65" s="0" t="s">
@@ -9487,7 +9522,7 @@
       <c r="A66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="5" t="n">
+      <c r="B66" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C66" s="0" t="s">
@@ -9498,7 +9533,7 @@
       <c r="A67" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B67" s="5" t="n">
+      <c r="B67" s="4" t="n">
         <v>42916</v>
       </c>
       <c r="C67" s="0" t="s">
@@ -9509,7 +9544,7 @@
       <c r="A68" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="5" t="n">
+      <c r="B68" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -9526,7 +9561,7 @@
       <c r="A69" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B69" s="5" t="n">
+      <c r="B69" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C69" s="0" t="s">
@@ -9543,7 +9578,7 @@
       <c r="A70" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C70" s="0" t="s">
@@ -9560,7 +9595,7 @@
       <c r="A71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C71" s="0" t="s">
@@ -9577,7 +9612,7 @@
       <c r="A72" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C72" s="0" t="s">
@@ -9594,7 +9629,7 @@
       <c r="A73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C73" s="0" t="s">
@@ -9611,7 +9646,7 @@
       <c r="A74" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C74" s="0" t="s">
@@ -9628,7 +9663,7 @@
       <c r="A75" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C75" s="0" t="s">
@@ -9645,7 +9680,7 @@
       <c r="A76" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C76" s="0" t="s">
@@ -9662,7 +9697,7 @@
       <c r="A77" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B77" s="5" t="n">
+      <c r="B77" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C77" s="0" t="s">
@@ -9679,7 +9714,7 @@
       <c r="A78" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B78" s="5" t="n">
+      <c r="B78" s="4" t="n">
         <v>42551</v>
       </c>
       <c r="C78" s="0" t="s">
@@ -9696,7 +9731,7 @@
       <c r="A79" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B79" s="5" t="n">
+      <c r="B79" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C79" s="0" t="s">
@@ -9707,7 +9742,7 @@
       <c r="A80" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B80" s="5" t="n">
+      <c r="B80" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C80" s="0" t="s">
@@ -9718,7 +9753,7 @@
       <c r="A81" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B81" s="5" t="n">
+      <c r="B81" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C81" s="0" t="s">
@@ -9729,7 +9764,7 @@
       <c r="A82" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B82" s="5" t="n">
+      <c r="B82" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -9740,7 +9775,7 @@
       <c r="A83" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B83" s="5" t="n">
+      <c r="B83" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -9751,7 +9786,7 @@
       <c r="A84" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B84" s="5" t="n">
+      <c r="B84" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -9762,7 +9797,7 @@
       <c r="A85" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B85" s="5" t="n">
+      <c r="B85" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -9773,7 +9808,7 @@
       <c r="A86" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B86" s="5" t="n">
+      <c r="B86" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -9784,7 +9819,7 @@
       <c r="A87" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B87" s="5" t="n">
+      <c r="B87" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -9795,7 +9830,7 @@
       <c r="A88" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B88" s="5" t="n">
+      <c r="B88" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -9806,7 +9841,7 @@
       <c r="A89" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B89" s="5" t="n">
+      <c r="B89" s="4" t="n">
         <v>42185</v>
       </c>
       <c r="C89" s="0" t="s">
@@ -9844,2014 +9879,2014 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C2" s="9" t="n">
+      <c r="B2" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <f aca="false">DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C3" s="9" t="n">
+      <c r="B3" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C3" s="8" t="n">
         <f aca="false">DATE(MID(A3,14,4),MID(A3,12,2),MID(A3,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C4" s="9" t="n">
+      <c r="B4" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <f aca="false">DATE(MID(A4,14,4),MID(A4,12,2),MID(A4,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="9" t="n">
+      <c r="B5" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="8" t="n">
         <f aca="false">DATE(MID(A5,14,4),MID(A5,12,2),MID(A5,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C6" s="9" t="n">
+      <c r="B6" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="n">
         <f aca="false">DATE(MID(A6,14,4),MID(A6,12,2),MID(A6,10,2))</f>
         <v>40724</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9" t="n">
+      <c r="B7" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8" t="n">
         <f aca="false">DATE(MID(A7,14,4),MID(A7,12,2),MID(A7,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C8" s="9" t="n">
+      <c r="B8" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C8" s="8" t="n">
         <f aca="false">DATE(MID(A8,14,4),MID(A8,12,2),MID(A8,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C9" s="9" t="n">
+      <c r="B9" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="n">
         <f aca="false">DATE(MID(A9,14,4),MID(A9,12,2),MID(A9,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C10" s="9" t="n">
+      <c r="B10" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C10" s="8" t="n">
         <f aca="false">DATE(MID(A10,14,4),MID(A10,12,2),MID(A10,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C11" s="9" t="n">
+      <c r="B11" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8" t="n">
         <f aca="false">DATE(MID(A11,14,4),MID(A11,12,2),MID(A11,10,2))</f>
         <v>41090</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C12" s="9" t="n">
+      <c r="B12" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" s="8" t="n">
         <f aca="false">DATE(MID(A12,14,4),MID(A12,12,2),MID(A12,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C13" s="9" t="n">
+      <c r="B13" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C13" s="8" t="n">
         <f aca="false">DATE(MID(A13,14,4),MID(A13,12,2),MID(A13,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C14" s="9" t="n">
+      <c r="B14" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <f aca="false">DATE(MID(A14,14,4),MID(A14,12,2),MID(A14,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C15" s="9" t="n">
+      <c r="B15" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <f aca="false">DATE(MID(A15,14,4),MID(A15,12,2),MID(A15,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="n">
+      <c r="B16" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <f aca="false">DATE(MID(A16,14,4),MID(A16,12,2),MID(A16,10,2))</f>
         <v>41455</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C17" s="9" t="n">
+      <c r="B17" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <f aca="false">DATE(MID(A17,14,4),MID(A17,12,2),MID(A17,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="n">
+      <c r="B18" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="n">
         <f aca="false">DATE(MID(A18,14,4),MID(A18,12,2),MID(A18,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C19" s="9" t="n">
+      <c r="B19" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="n">
         <f aca="false">DATE(MID(A19,14,4),MID(A19,12,2),MID(A19,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="G19" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B20" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C20" s="9" t="n">
+      <c r="B20" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8" t="n">
         <f aca="false">DATE(MID(A20,14,4),MID(A20,12,2),MID(A20,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B21" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C21" s="9" t="n">
+      <c r="B21" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C21" s="8" t="n">
         <f aca="false">DATE(MID(A21,14,4),MID(A21,12,2),MID(A21,10,2))</f>
         <v>41820</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B22" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C22" s="9" t="n">
+      <c r="B22" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" s="8" t="n">
         <f aca="false">DATE(MID(A22,14,4),MID(A22,12,2),MID(A22,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B23" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C23" s="9" t="n">
+      <c r="B23" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" s="8" t="n">
         <f aca="false">DATE(MID(A23,14,4),MID(A23,12,2),MID(A23,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C24" s="9" t="n">
+      <c r="B24" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8" t="n">
         <f aca="false">DATE(MID(A24,14,4),MID(A24,12,2),MID(A24,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C25" s="9" t="n">
+      <c r="B25" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="n">
         <f aca="false">DATE(MID(A25,14,4),MID(A25,12,2),MID(A25,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B26" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C26" s="9" t="n">
+      <c r="B26" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C26" s="8" t="n">
         <f aca="false">DATE(MID(A26,14,4),MID(A26,12,2),MID(A26,10,2))</f>
         <v>42185</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C27" s="9" t="n">
+      <c r="B27" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8" t="n">
         <f aca="false">DATE(MID(A27,14,4),MID(A27,12,2),MID(A27,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B28" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C28" s="9" t="n">
+      <c r="B28" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8" t="n">
         <f aca="false">DATE(MID(A28,14,4),MID(A28,12,2),MID(A28,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B29" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9" t="n">
+      <c r="B29" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="n">
         <f aca="false">DATE(MID(A29,14,4),MID(A29,12,2),MID(A29,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9" t="n">
+      <c r="B30" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="n">
         <f aca="false">DATE(MID(A30,14,4),MID(A30,12,2),MID(A30,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B31" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C31" s="9" t="n">
+      <c r="B31" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="n">
         <f aca="false">DATE(MID(A31,14,4),MID(A31,12,2),MID(A31,10,2))</f>
         <v>42551</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C32" s="9" t="n">
+      <c r="B32" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="n">
         <f aca="false">DATE(MID(A32,14,4),MID(A32,12,2),MID(A32,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="7" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C33" s="9" t="n">
+      <c r="B33" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8" t="n">
         <f aca="false">DATE(MID(A33,14,4),MID(A33,12,2),MID(A33,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="F33" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="I33" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B34" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C34" s="9" t="n">
+      <c r="B34" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" s="8" t="n">
         <f aca="false">DATE(MID(A34,14,4),MID(A34,12,2),MID(A34,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="7" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B35" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C35" s="9" t="n">
+      <c r="B35" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8" t="n">
         <f aca="false">DATE(MID(A35,14,4),MID(A35,12,2),MID(A35,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B36" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C36" s="9" t="n">
+      <c r="B36" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8" t="n">
         <f aca="false">DATE(MID(A36,14,4),MID(A36,12,2),MID(A36,10,2))</f>
         <v>42916</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B37" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C37" s="9" t="n">
+      <c r="B37" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="n">
         <f aca="false">DATE(MID(A37,14,4),MID(A37,12,2),MID(A37,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C38" s="9" t="n">
+      <c r="B38" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C38" s="8" t="n">
         <f aca="false">DATE(MID(A38,14,4),MID(A38,12,2),MID(A38,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B39" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C39" s="9" t="n">
+      <c r="B39" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C39" s="8" t="n">
         <f aca="false">DATE(MID(A39,14,4),MID(A39,12,2),MID(A39,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="7" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B40" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C40" s="9" t="n">
+      <c r="B40" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8" t="n">
         <f aca="false">DATE(MID(A40,14,4),MID(A40,12,2),MID(A40,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B41" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C41" s="9" t="n">
+      <c r="B41" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8" t="n">
         <f aca="false">DATE(MID(A41,14,4),MID(A41,12,2),MID(A41,10,2))</f>
         <v>43281</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B42" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C42" s="9" t="n">
+      <c r="B42" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C42" s="8" t="n">
         <f aca="false">DATE(MID(A42,14,4),MID(A42,12,2),MID(A42,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B43" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C43" s="9" t="n">
+      <c r="B43" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C43" s="8" t="n">
         <f aca="false">DATE(MID(A43,14,4),MID(A43,12,2),MID(A43,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B44" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C44" s="9" t="n">
+      <c r="B44" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="n">
         <f aca="false">DATE(MID(A44,14,4),MID(A44,12,2),MID(A44,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="7" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B45" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C45" s="9" t="n">
+      <c r="B45" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8" t="n">
         <f aca="false">DATE(MID(A45,14,4),MID(A45,12,2),MID(A45,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="F45" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="H45" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="I45" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C46" s="9" t="n">
+      <c r="B46" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8" t="n">
         <f aca="false">DATE(MID(A46,14,4),MID(A46,12,2),MID(A46,10,2))</f>
         <v>43646</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H46" s="8" t="s">
+      <c r="H46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="7" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B47" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C47" s="9" t="n">
+      <c r="B47" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8" t="n">
         <f aca="false">DATE(MID(A47,14,4),MID(A47,12,2),MID(A47,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="7" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" s="9" t="n">
+      <c r="B48" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8" t="n">
         <f aca="false">DATE(MID(A48,14,4),MID(A48,12,2),MID(A48,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="I48" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B49" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C49" s="9" t="n">
+      <c r="B49" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="n">
         <f aca="false">DATE(MID(A49,14,4),MID(A49,12,2),MID(A49,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="7" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B50" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C50" s="9" t="n">
+      <c r="B50" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8" t="n">
         <f aca="false">DATE(MID(A50,14,4),MID(A50,12,2),MID(A50,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="F50" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="I50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B51" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C51" s="9" t="n">
+      <c r="B51" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8" t="n">
         <f aca="false">DATE(MID(A51,14,4),MID(A51,12,2),MID(A51,10,2))</f>
         <v>44012</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B52" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C52" s="9" t="n">
+      <c r="B52" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C52" s="8" t="n">
         <f aca="false">DATE(MID(A52,14,4),MID(A52,12,2),MID(A52,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="7" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B53" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C53" s="9" t="n">
+      <c r="B53" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C53" s="8" t="n">
         <f aca="false">DATE(MID(A53,14,4),MID(A53,12,2),MID(A53,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="I53" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B54" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C54" s="9" t="n">
+      <c r="B54" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8" t="n">
         <f aca="false">DATE(MID(A54,14,4),MID(A54,12,2),MID(A54,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H54" s="8" t="s">
+      <c r="H54" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B55" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C55" s="9" t="n">
+      <c r="B55" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8" t="n">
         <f aca="false">DATE(MID(A55,14,4),MID(A55,12,2),MID(A55,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="H55" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="I55" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C56" s="9" t="n">
+      <c r="B56" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C56" s="8" t="n">
         <f aca="false">DATE(MID(A56,14,4),MID(A56,12,2),MID(A56,10,2))</f>
         <v>44377</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H56" s="8" t="s">
+      <c r="H56" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="7" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C57" s="9" t="n">
+      <c r="B57" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C57" s="8" t="n">
         <f aca="false">DATE(MID(A57,14,4),MID(A57,12,2),MID(A57,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H57" s="8" t="s">
+      <c r="H57" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="J57" s="8" t="s">
+      <c r="J57" s="7" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B58" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C58" s="9" t="n">
+      <c r="B58" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8" t="n">
         <f aca="false">DATE(MID(A58,14,4),MID(A58,12,2),MID(A58,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="I58" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B59" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C59" s="9" t="n">
+      <c r="B59" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8" t="n">
         <f aca="false">DATE(MID(A59,14,4),MID(A59,12,2),MID(A59,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="7" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B60" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C60" s="9" t="n">
+      <c r="B60" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C60" s="8" t="n">
         <f aca="false">DATE(MID(A60,14,4),MID(A60,12,2),MID(A60,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="I60" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="10" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="8" t="n">
-        <v>60</v>
-      </c>
-      <c r="C61" s="9" t="n">
+      <c r="B61" s="7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8" t="n">
         <f aca="false">DATE(MID(A61,14,4),MID(A61,12,2),MID(A61,10,2))</f>
         <v>44742</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G61" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="H61" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="7" t="s">
         <v>350</v>
       </c>
     </row>
@@ -11921,7 +11956,7 @@
       <c r="B2" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="4" t="n">
         <f aca="false">DATE(MID(A2,14,4),MID(A2,12,2),MID(A2,10,2))</f>
         <v>40724</v>
       </c>
@@ -11958,7 +11993,7 @@
       <c r="B3" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="4" t="n">
         <f aca="false">DATE(MID(A3,14,4),MID(A3,12,2),MID(A3,10,2))</f>
         <v>40724</v>
       </c>
@@ -11995,7 +12030,7 @@
       <c r="B4" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="4" t="n">
         <f aca="false">DATE(MID(A4,14,4),MID(A4,12,2),MID(A4,10,2))</f>
         <v>40724</v>
       </c>
@@ -12032,7 +12067,7 @@
       <c r="B5" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="4" t="n">
         <f aca="false">DATE(MID(A5,14,4),MID(A5,12,2),MID(A5,10,2))</f>
         <v>40724</v>
       </c>
@@ -12069,7 +12104,7 @@
       <c r="B6" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="4" t="n">
         <f aca="false">DATE(MID(A6,14,4),MID(A6,12,2),MID(A6,10,2))</f>
         <v>40724</v>
       </c>
@@ -12106,7 +12141,7 @@
       <c r="B7" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="4" t="n">
         <f aca="false">DATE(MID(A7,14,4),MID(A7,12,2),MID(A7,10,2))</f>
         <v>40724</v>
       </c>
@@ -12143,7 +12178,7 @@
       <c r="B8" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="4" t="n">
         <f aca="false">DATE(MID(A8,14,4),MID(A8,12,2),MID(A8,10,2))</f>
         <v>41090</v>
       </c>
@@ -12180,7 +12215,7 @@
       <c r="B9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="4" t="n">
         <f aca="false">DATE(MID(A9,14,4),MID(A9,12,2),MID(A9,10,2))</f>
         <v>41090</v>
       </c>
@@ -12217,7 +12252,7 @@
       <c r="B10" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="4" t="n">
         <f aca="false">DATE(MID(A10,14,4),MID(A10,12,2),MID(A10,10,2))</f>
         <v>41090</v>
       </c>
@@ -12254,7 +12289,7 @@
       <c r="B11" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="4" t="n">
         <f aca="false">DATE(MID(A11,14,4),MID(A11,12,2),MID(A11,10,2))</f>
         <v>41090</v>
       </c>
@@ -12291,7 +12326,7 @@
       <c r="B12" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="4" t="n">
         <f aca="false">DATE(MID(A12,14,4),MID(A12,12,2),MID(A12,10,2))</f>
         <v>41090</v>
       </c>
@@ -12328,7 +12363,7 @@
       <c r="B13" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="4" t="n">
         <f aca="false">DATE(MID(A13,14,4),MID(A13,12,2),MID(A13,10,2))</f>
         <v>41090</v>
       </c>
@@ -12365,7 +12400,7 @@
       <c r="B14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="4" t="n">
         <f aca="false">DATE(MID(A14,14,4),MID(A14,12,2),MID(A14,10,2))</f>
         <v>41455</v>
       </c>
@@ -12402,7 +12437,7 @@
       <c r="B15" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="4" t="n">
         <f aca="false">DATE(MID(A15,14,4),MID(A15,12,2),MID(A15,10,2))</f>
         <v>41455</v>
       </c>
@@ -12439,7 +12474,7 @@
       <c r="B16" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="4" t="n">
         <f aca="false">DATE(MID(A16,14,4),MID(A16,12,2),MID(A16,10,2))</f>
         <v>41455</v>
       </c>
@@ -12476,7 +12511,7 @@
       <c r="B17" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="4" t="n">
         <f aca="false">DATE(MID(A17,14,4),MID(A17,12,2),MID(A17,10,2))</f>
         <v>41455</v>
       </c>
@@ -12513,7 +12548,7 @@
       <c r="B18" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="4" t="n">
         <f aca="false">DATE(MID(A18,14,4),MID(A18,12,2),MID(A18,10,2))</f>
         <v>41455</v>
       </c>
@@ -12550,7 +12585,7 @@
       <c r="B19" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="4" t="n">
         <f aca="false">DATE(MID(A19,14,4),MID(A19,12,2),MID(A19,10,2))</f>
         <v>41455</v>
       </c>
@@ -12587,7 +12622,7 @@
       <c r="B20" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="4" t="n">
         <f aca="false">DATE(MID(A20,14,4),MID(A20,12,2),MID(A20,10,2))</f>
         <v>41820</v>
       </c>
@@ -12624,7 +12659,7 @@
       <c r="B21" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="4" t="n">
         <f aca="false">DATE(MID(A21,14,4),MID(A21,12,2),MID(A21,10,2))</f>
         <v>41820</v>
       </c>
@@ -12661,7 +12696,7 @@
       <c r="B22" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="4" t="n">
         <f aca="false">DATE(MID(A22,14,4),MID(A22,12,2),MID(A22,10,2))</f>
         <v>41820</v>
       </c>
@@ -12698,7 +12733,7 @@
       <c r="B23" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="4" t="n">
         <f aca="false">DATE(MID(A23,14,4),MID(A23,12,2),MID(A23,10,2))</f>
         <v>41820</v>
       </c>
@@ -12735,7 +12770,7 @@
       <c r="B24" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="4" t="n">
         <f aca="false">DATE(MID(A24,14,4),MID(A24,12,2),MID(A24,10,2))</f>
         <v>41820</v>
       </c>
@@ -12772,7 +12807,7 @@
       <c r="B25" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="4" t="n">
         <f aca="false">DATE(MID(A25,14,4),MID(A25,12,2),MID(A25,10,2))</f>
         <v>41820</v>
       </c>
@@ -12809,7 +12844,7 @@
       <c r="B26" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="4" t="n">
         <f aca="false">DATE(MID(A26,14,4),MID(A26,12,2),MID(A26,10,2))</f>
         <v>42185</v>
       </c>
@@ -12846,7 +12881,7 @@
       <c r="B27" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="4" t="n">
         <f aca="false">DATE(MID(A27,14,4),MID(A27,12,2),MID(A27,10,2))</f>
         <v>42185</v>
       </c>
@@ -12883,7 +12918,7 @@
       <c r="B28" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="4" t="n">
         <f aca="false">DATE(MID(A28,14,4),MID(A28,12,2),MID(A28,10,2))</f>
         <v>42185</v>
       </c>
@@ -12920,7 +12955,7 @@
       <c r="B29" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="4" t="n">
         <f aca="false">DATE(MID(A29,14,4),MID(A29,12,2),MID(A29,10,2))</f>
         <v>42185</v>
       </c>
@@ -12957,7 +12992,7 @@
       <c r="B30" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="4" t="n">
         <f aca="false">DATE(MID(A30,14,4),MID(A30,12,2),MID(A30,10,2))</f>
         <v>42185</v>
       </c>
@@ -12994,7 +13029,7 @@
       <c r="B31" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="4" t="n">
         <f aca="false">DATE(MID(A31,14,4),MID(A31,12,2),MID(A31,10,2))</f>
         <v>42185</v>
       </c>
@@ -13031,7 +13066,7 @@
       <c r="B32" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="4" t="n">
         <f aca="false">DATE(MID(A32,14,4),MID(A32,12,2),MID(A32,10,2))</f>
         <v>42551</v>
       </c>
@@ -13068,7 +13103,7 @@
       <c r="B33" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="4" t="n">
         <f aca="false">DATE(MID(A33,14,4),MID(A33,12,2),MID(A33,10,2))</f>
         <v>42551</v>
       </c>
@@ -13105,7 +13140,7 @@
       <c r="B34" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="4" t="n">
         <f aca="false">DATE(MID(A34,14,4),MID(A34,12,2),MID(A34,10,2))</f>
         <v>42551</v>
       </c>
@@ -13142,7 +13177,7 @@
       <c r="B35" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="4" t="n">
         <f aca="false">DATE(MID(A35,14,4),MID(A35,12,2),MID(A35,10,2))</f>
         <v>42551</v>
       </c>
@@ -13179,7 +13214,7 @@
       <c r="B36" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="4" t="n">
         <f aca="false">DATE(MID(A36,14,4),MID(A36,12,2),MID(A36,10,2))</f>
         <v>42551</v>
       </c>
@@ -13216,7 +13251,7 @@
       <c r="B37" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="4" t="n">
         <f aca="false">DATE(MID(A37,14,4),MID(A37,12,2),MID(A37,10,2))</f>
         <v>42551</v>
       </c>
@@ -13253,7 +13288,7 @@
       <c r="B38" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="4" t="n">
         <f aca="false">DATE(MID(A38,14,4),MID(A38,12,2),MID(A38,10,2))</f>
         <v>42916</v>
       </c>
@@ -13290,7 +13325,7 @@
       <c r="B39" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="4" t="n">
         <f aca="false">DATE(MID(A39,14,4),MID(A39,12,2),MID(A39,10,2))</f>
         <v>42916</v>
       </c>
@@ -13327,7 +13362,7 @@
       <c r="B40" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="4" t="n">
         <f aca="false">DATE(MID(A40,14,4),MID(A40,12,2),MID(A40,10,2))</f>
         <v>42916</v>
       </c>
@@ -13364,7 +13399,7 @@
       <c r="B41" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="4" t="n">
         <f aca="false">DATE(MID(A41,14,4),MID(A41,12,2),MID(A41,10,2))</f>
         <v>42916</v>
       </c>
@@ -13401,7 +13436,7 @@
       <c r="B42" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="4" t="n">
         <f aca="false">DATE(MID(A42,14,4),MID(A42,12,2),MID(A42,10,2))</f>
         <v>42916</v>
       </c>
@@ -13438,7 +13473,7 @@
       <c r="B43" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="4" t="n">
         <f aca="false">DATE(MID(A43,14,4),MID(A43,12,2),MID(A43,10,2))</f>
         <v>42916</v>
       </c>
@@ -13475,7 +13510,7 @@
       <c r="B44" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="4" t="n">
         <f aca="false">DATE(MID(A44,14,4),MID(A44,12,2),MID(A44,10,2))</f>
         <v>43281</v>
       </c>
@@ -13512,7 +13547,7 @@
       <c r="B45" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="4" t="n">
         <f aca="false">DATE(MID(A45,14,4),MID(A45,12,2),MID(A45,10,2))</f>
         <v>43281</v>
       </c>
@@ -13549,7 +13584,7 @@
       <c r="B46" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="4" t="n">
         <f aca="false">DATE(MID(A46,14,4),MID(A46,12,2),MID(A46,10,2))</f>
         <v>43281</v>
       </c>
@@ -13586,7 +13621,7 @@
       <c r="B47" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C47" s="5" t="n">
+      <c r="C47" s="4" t="n">
         <f aca="false">DATE(MID(A47,14,4),MID(A47,12,2),MID(A47,10,2))</f>
         <v>43281</v>
       </c>
@@ -13623,7 +13658,7 @@
       <c r="B48" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="4" t="n">
         <f aca="false">DATE(MID(A48,14,4),MID(A48,12,2),MID(A48,10,2))</f>
         <v>43281</v>
       </c>
@@ -13660,7 +13695,7 @@
       <c r="B49" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="4" t="n">
         <f aca="false">DATE(MID(A49,14,4),MID(A49,12,2),MID(A49,10,2))</f>
         <v>43281</v>
       </c>
@@ -13697,7 +13732,7 @@
       <c r="B50" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C50" s="5" t="n">
+      <c r="C50" s="4" t="n">
         <f aca="false">DATE(MID(A50,14,4),MID(A50,12,2),MID(A50,10,2))</f>
         <v>43646</v>
       </c>
@@ -13734,7 +13769,7 @@
       <c r="B51" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C51" s="5" t="n">
+      <c r="C51" s="4" t="n">
         <f aca="false">DATE(MID(A51,14,4),MID(A51,12,2),MID(A51,10,2))</f>
         <v>43646</v>
       </c>
@@ -13771,7 +13806,7 @@
       <c r="B52" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="4" t="n">
         <f aca="false">DATE(MID(A52,14,4),MID(A52,12,2),MID(A52,10,2))</f>
         <v>43646</v>
       </c>
@@ -13808,7 +13843,7 @@
       <c r="B53" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="4" t="n">
         <f aca="false">DATE(MID(A53,14,4),MID(A53,12,2),MID(A53,10,2))</f>
         <v>43646</v>
       </c>
@@ -13845,7 +13880,7 @@
       <c r="B54" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C54" s="5" t="n">
+      <c r="C54" s="4" t="n">
         <f aca="false">DATE(MID(A54,14,4),MID(A54,12,2),MID(A54,10,2))</f>
         <v>43646</v>
       </c>
@@ -13882,7 +13917,7 @@
       <c r="B55" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C55" s="5" t="n">
+      <c r="C55" s="4" t="n">
         <f aca="false">DATE(MID(A55,14,4),MID(A55,12,2),MID(A55,10,2))</f>
         <v>43646</v>
       </c>
@@ -13919,7 +13954,7 @@
       <c r="B56" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C56" s="5" t="n">
+      <c r="C56" s="4" t="n">
         <f aca="false">DATE(MID(A56,14,4),MID(A56,12,2),MID(A56,10,2))</f>
         <v>44012</v>
       </c>
@@ -13956,7 +13991,7 @@
       <c r="B57" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="4" t="n">
         <f aca="false">DATE(MID(A57,14,4),MID(A57,12,2),MID(A57,10,2))</f>
         <v>44012</v>
       </c>
@@ -13993,7 +14028,7 @@
       <c r="B58" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="4" t="n">
         <f aca="false">DATE(MID(A58,14,4),MID(A58,12,2),MID(A58,10,2))</f>
         <v>44012</v>
       </c>
@@ -14030,7 +14065,7 @@
       <c r="B59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="4" t="n">
         <f aca="false">DATE(MID(A59,14,4),MID(A59,12,2),MID(A59,10,2))</f>
         <v>44012</v>
       </c>
@@ -14067,7 +14102,7 @@
       <c r="B60" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C60" s="5" t="n">
+      <c r="C60" s="4" t="n">
         <f aca="false">DATE(MID(A60,14,4),MID(A60,12,2),MID(A60,10,2))</f>
         <v>44012</v>
       </c>
@@ -14104,7 +14139,7 @@
       <c r="B61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="4" t="n">
         <f aca="false">DATE(MID(A61,14,4),MID(A61,12,2),MID(A61,10,2))</f>
         <v>44012</v>
       </c>
@@ -14141,7 +14176,7 @@
       <c r="B62" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C62" s="5" t="n">
+      <c r="C62" s="4" t="n">
         <f aca="false">DATE(MID(A62,14,4),MID(A62,12,2),MID(A62,10,2))</f>
         <v>44377</v>
       </c>
@@ -14178,7 +14213,7 @@
       <c r="B63" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="4" t="n">
         <f aca="false">DATE(MID(A63,14,4),MID(A63,12,2),MID(A63,10,2))</f>
         <v>44377</v>
       </c>
@@ -14215,7 +14250,7 @@
       <c r="B64" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="4" t="n">
         <f aca="false">DATE(MID(A64,14,4),MID(A64,12,2),MID(A64,10,2))</f>
         <v>44377</v>
       </c>
@@ -14252,7 +14287,7 @@
       <c r="B65" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="4" t="n">
         <f aca="false">DATE(MID(A65,14,4),MID(A65,12,2),MID(A65,10,2))</f>
         <v>44377</v>
       </c>
@@ -14289,7 +14324,7 @@
       <c r="B66" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="4" t="n">
         <f aca="false">DATE(MID(A66,14,4),MID(A66,12,2),MID(A66,10,2))</f>
         <v>44377</v>
       </c>
@@ -14326,7 +14361,7 @@
       <c r="B67" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="4" t="n">
         <f aca="false">DATE(MID(A67,14,4),MID(A67,12,2),MID(A67,10,2))</f>
         <v>44377</v>
       </c>
@@ -14363,7 +14398,7 @@
       <c r="B68" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="4" t="n">
         <f aca="false">DATE(MID(A68,14,4),MID(A68,12,2),MID(A68,10,2))</f>
         <v>44742</v>
       </c>
@@ -14400,7 +14435,7 @@
       <c r="B69" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="4" t="n">
         <f aca="false">DATE(MID(A69,14,4),MID(A69,12,2),MID(A69,10,2))</f>
         <v>44742</v>
       </c>
@@ -14437,7 +14472,7 @@
       <c r="B70" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="4" t="n">
         <f aca="false">DATE(MID(A70,14,4),MID(A70,12,2),MID(A70,10,2))</f>
         <v>44742</v>
       </c>
@@ -14474,7 +14509,7 @@
       <c r="B71" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="4" t="n">
         <f aca="false">DATE(MID(A71,14,4),MID(A71,12,2),MID(A71,10,2))</f>
         <v>44742</v>
       </c>
@@ -14511,7 +14546,7 @@
       <c r="B72" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" s="4" t="n">
         <f aca="false">DATE(MID(A72,14,4),MID(A72,12,2),MID(A72,10,2))</f>
         <v>44742</v>
       </c>
@@ -14548,7 +14583,7 @@
       <c r="B73" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="4" t="n">
         <f aca="false">DATE(MID(A73,14,4),MID(A73,12,2),MID(A73,10,2))</f>
         <v>44742</v>
       </c>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -3387,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -5290,9 +5290,11 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5500,7 +5502,7 @@
         <v>393223.87</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>2018</v>
       </c>
@@ -5515,6 +5517,40 @@
       </c>
       <c r="E13" s="33">
         <v>149478.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="12">
+        <v>60</v>
+      </c>
+      <c r="C14" s="33">
+        <v>231723.22</v>
+      </c>
+      <c r="D14" s="33">
+        <v>325990.53000000003</v>
+      </c>
+      <c r="E14" s="33">
+        <v>-94267.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B15" s="12">
+        <v>60</v>
+      </c>
+      <c r="C15" s="33">
+        <v>33164.2400000001</v>
+      </c>
+      <c r="D15" s="33">
+        <v>371177.14</v>
+      </c>
+      <c r="E15" s="33">
+        <v>-338012.9</v>
       </c>
     </row>
   </sheetData>

--- a/hhdaten/grunddaten.xlsx
+++ b/hhdaten/grunddaten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="gde" sheetId="1" r:id="rId1"/>
@@ -4483,12 +4483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4731,13 +4732,13 @@
         <v>60</v>
       </c>
       <c r="B13" s="18">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G13" s="17">
         <v>0.4</v>
       </c>
       <c r="H13" s="17">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4752,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E14" sqref="A13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5292,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
